--- a/trunk/TSMT_Tasksheet.xlsx
+++ b/trunk/TSMT_Tasksheet.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vinh\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vinh\Desktop\group-22-tsmt\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="779" uniqueCount="264">
   <si>
     <t>No.</t>
   </si>
@@ -810,6 +810,9 @@
   </si>
   <si>
     <t>Write Test case</t>
+  </si>
+  <si>
+    <t>Charity_ViewVolunteer</t>
   </si>
 </sst>
 </file>
@@ -1379,11 +1382,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J352"/>
+  <dimension ref="A1:J353"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A222" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L231" sqref="L231"/>
+      <pane ySplit="1" topLeftCell="A239" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M250" sqref="M250"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5609,67 +5612,67 @@
       <c r="A250" s="35"/>
       <c r="B250" s="37"/>
       <c r="C250" s="28" t="s">
-        <v>188</v>
+        <v>263</v>
       </c>
       <c r="D250" s="12"/>
-      <c r="E250" s="12" t="s">
-        <v>8</v>
-      </c>
+      <c r="E250" s="12"/>
       <c r="F250" s="12"/>
       <c r="G250" s="12"/>
-      <c r="H250" s="12"/>
+      <c r="H250" s="12" t="s">
+        <v>8</v>
+      </c>
       <c r="I250" s="15" t="s">
         <v>224</v>
       </c>
       <c r="J250" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="251" spans="1:10" ht="18">
       <c r="A251" s="35"/>
       <c r="B251" s="37"/>
       <c r="C251" s="28" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D251" s="12"/>
-      <c r="E251" s="12"/>
-      <c r="F251" s="12" t="s">
-        <v>8</v>
-      </c>
+      <c r="E251" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F251" s="12"/>
       <c r="G251" s="12"/>
       <c r="H251" s="12"/>
       <c r="I251" s="15" t="s">
         <v>224</v>
       </c>
       <c r="J251" s="15">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="252" spans="1:10" ht="18">
       <c r="A252" s="35"/>
       <c r="B252" s="37"/>
       <c r="C252" s="28" t="s">
-        <v>256</v>
-      </c>
-      <c r="D252" s="12" t="s">
-        <v>8</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="D252" s="12"/>
       <c r="E252" s="12"/>
-      <c r="F252" s="12"/>
+      <c r="F252" s="12" t="s">
+        <v>8</v>
+      </c>
       <c r="G252" s="12"/>
       <c r="H252" s="12"/>
       <c r="I252" s="15" t="s">
         <v>224</v>
       </c>
       <c r="J252" s="15">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="253" spans="1:10" ht="18">
       <c r="A253" s="35"/>
       <c r="B253" s="37"/>
       <c r="C253" s="28" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D253" s="12" t="s">
         <v>8</v>
@@ -5688,10 +5691,12 @@
     <row r="254" spans="1:10" ht="18">
       <c r="A254" s="35"/>
       <c r="B254" s="37"/>
-      <c r="C254" s="29" t="s">
-        <v>134</v>
-      </c>
-      <c r="D254" s="12"/>
+      <c r="C254" s="28" t="s">
+        <v>257</v>
+      </c>
+      <c r="D254" s="12" t="s">
+        <v>8</v>
+      </c>
       <c r="E254" s="12"/>
       <c r="F254" s="12"/>
       <c r="G254" s="12"/>
@@ -5699,33 +5704,31 @@
       <c r="I254" s="15" t="s">
         <v>224</v>
       </c>
-      <c r="J254" s="15"/>
+      <c r="J254" s="15">
+        <v>5</v>
+      </c>
     </row>
     <row r="255" spans="1:10" ht="18">
       <c r="A255" s="35"/>
       <c r="B255" s="37"/>
-      <c r="C255" s="28" t="s">
-        <v>190</v>
+      <c r="C255" s="29" t="s">
+        <v>134</v>
       </c>
       <c r="D255" s="12"/>
       <c r="E255" s="12"/>
-      <c r="F255" s="12" t="s">
-        <v>8</v>
-      </c>
+      <c r="F255" s="12"/>
       <c r="G255" s="12"/>
       <c r="H255" s="12"/>
       <c r="I255" s="15" t="s">
         <v>224</v>
       </c>
-      <c r="J255" s="15">
-        <v>1</v>
-      </c>
+      <c r="J255" s="15"/>
     </row>
     <row r="256" spans="1:10" ht="18">
       <c r="A256" s="35"/>
       <c r="B256" s="37"/>
       <c r="C256" s="28" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D256" s="12"/>
       <c r="E256" s="12"/>
@@ -5738,14 +5741,14 @@
         <v>224</v>
       </c>
       <c r="J256" s="15">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="257" spans="1:10" ht="18">
       <c r="A257" s="35"/>
       <c r="B257" s="37"/>
       <c r="C257" s="28" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D257" s="12"/>
       <c r="E257" s="12"/>
@@ -5765,7 +5768,7 @@
       <c r="A258" s="35"/>
       <c r="B258" s="37"/>
       <c r="C258" s="28" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D258" s="12"/>
       <c r="E258" s="12"/>
@@ -5778,14 +5781,14 @@
         <v>224</v>
       </c>
       <c r="J258" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="259" spans="1:10" ht="18">
       <c r="A259" s="35"/>
       <c r="B259" s="37"/>
       <c r="C259" s="28" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D259" s="12"/>
       <c r="E259" s="12"/>
@@ -5798,14 +5801,14 @@
         <v>224</v>
       </c>
       <c r="J259" s="15">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="260" spans="1:10" ht="18">
       <c r="A260" s="35"/>
       <c r="B260" s="37"/>
       <c r="C260" s="28" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D260" s="12"/>
       <c r="E260" s="12"/>
@@ -5825,7 +5828,7 @@
       <c r="A261" s="35"/>
       <c r="B261" s="37"/>
       <c r="C261" s="28" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D261" s="12"/>
       <c r="E261" s="12"/>
@@ -5838,14 +5841,14 @@
         <v>224</v>
       </c>
       <c r="J261" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="262" spans="1:10" ht="18">
       <c r="A262" s="35"/>
       <c r="B262" s="37"/>
       <c r="C262" s="28" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D262" s="12"/>
       <c r="E262" s="12"/>
@@ -5865,7 +5868,7 @@
       <c r="A263" s="35"/>
       <c r="B263" s="37"/>
       <c r="C263" s="28" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D263" s="12"/>
       <c r="E263" s="12"/>
@@ -5878,14 +5881,14 @@
         <v>224</v>
       </c>
       <c r="J263" s="15">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="264" spans="1:10" ht="18">
       <c r="A264" s="35"/>
       <c r="B264" s="37"/>
       <c r="C264" s="28" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D264" s="12"/>
       <c r="E264" s="12"/>
@@ -5905,7 +5908,7 @@
       <c r="A265" s="35"/>
       <c r="B265" s="37"/>
       <c r="C265" s="28" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D265" s="12"/>
       <c r="E265" s="12"/>
@@ -5918,14 +5921,14 @@
         <v>224</v>
       </c>
       <c r="J265" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="266" spans="1:10" ht="18">
       <c r="A266" s="35"/>
       <c r="B266" s="37"/>
       <c r="C266" s="28" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D266" s="12"/>
       <c r="E266" s="12"/>
@@ -5945,7 +5948,7 @@
       <c r="A267" s="35"/>
       <c r="B267" s="37"/>
       <c r="C267" s="28" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D267" s="12"/>
       <c r="E267" s="12"/>
@@ -5965,34 +5968,34 @@
       <c r="A268" s="35"/>
       <c r="B268" s="37"/>
       <c r="C268" s="28" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D268" s="12"/>
       <c r="E268" s="12"/>
-      <c r="F268" s="12"/>
-      <c r="G268" s="12" t="s">
-        <v>8</v>
-      </c>
+      <c r="F268" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="G268" s="12"/>
       <c r="H268" s="12"/>
       <c r="I268" s="15" t="s">
         <v>224</v>
       </c>
       <c r="J268" s="15">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="269" spans="1:10" ht="18">
       <c r="A269" s="35"/>
       <c r="B269" s="37"/>
       <c r="C269" s="28" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D269" s="12"/>
       <c r="E269" s="12"/>
-      <c r="F269" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="G269" s="12"/>
+      <c r="F269" s="12"/>
+      <c r="G269" s="12" t="s">
+        <v>8</v>
+      </c>
       <c r="H269" s="12"/>
       <c r="I269" s="15" t="s">
         <v>224</v>
@@ -6005,7 +6008,7 @@
       <c r="A270" s="35"/>
       <c r="B270" s="37"/>
       <c r="C270" s="28" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D270" s="12"/>
       <c r="E270" s="12"/>
@@ -6025,7 +6028,7 @@
       <c r="A271" s="35"/>
       <c r="B271" s="37"/>
       <c r="C271" s="28" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D271" s="12"/>
       <c r="E271" s="12"/>
@@ -6045,7 +6048,7 @@
       <c r="A272" s="35"/>
       <c r="B272" s="37"/>
       <c r="C272" s="28" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D272" s="12"/>
       <c r="E272" s="12"/>
@@ -6065,7 +6068,7 @@
       <c r="A273" s="35"/>
       <c r="B273" s="37"/>
       <c r="C273" s="28" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D273" s="12"/>
       <c r="E273" s="12"/>
@@ -6078,21 +6081,21 @@
         <v>224</v>
       </c>
       <c r="J273" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="274" spans="1:10" ht="18">
       <c r="A274" s="35"/>
       <c r="B274" s="37"/>
       <c r="C274" s="28" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D274" s="12"/>
       <c r="E274" s="12"/>
-      <c r="F274" s="12"/>
-      <c r="G274" s="12" t="s">
-        <v>8</v>
-      </c>
+      <c r="F274" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="G274" s="12"/>
       <c r="H274" s="12"/>
       <c r="I274" s="15" t="s">
         <v>224</v>
@@ -6105,7 +6108,7 @@
       <c r="A275" s="35"/>
       <c r="B275" s="37"/>
       <c r="C275" s="28" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D275" s="12"/>
       <c r="E275" s="12"/>
@@ -6118,14 +6121,14 @@
         <v>224</v>
       </c>
       <c r="J275" s="15">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="276" spans="1:10" ht="18">
       <c r="A276" s="35"/>
       <c r="B276" s="37"/>
       <c r="C276" s="28" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D276" s="12"/>
       <c r="E276" s="12"/>
@@ -6145,7 +6148,7 @@
       <c r="A277" s="35"/>
       <c r="B277" s="37"/>
       <c r="C277" s="28" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D277" s="12"/>
       <c r="E277" s="12"/>
@@ -6165,27 +6168,27 @@
       <c r="A278" s="35"/>
       <c r="B278" s="37"/>
       <c r="C278" s="28" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D278" s="12"/>
       <c r="E278" s="12"/>
-      <c r="F278" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="G278" s="12"/>
+      <c r="F278" s="12"/>
+      <c r="G278" s="12" t="s">
+        <v>8</v>
+      </c>
       <c r="H278" s="12"/>
       <c r="I278" s="15" t="s">
         <v>224</v>
       </c>
       <c r="J278" s="15">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="279" spans="1:10" ht="18">
       <c r="A279" s="35"/>
       <c r="B279" s="37"/>
       <c r="C279" s="28" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D279" s="12"/>
       <c r="E279" s="12"/>
@@ -6204,44 +6207,44 @@
     <row r="280" spans="1:10" ht="18">
       <c r="A280" s="35"/>
       <c r="B280" s="37"/>
-      <c r="C280" s="29" t="s">
-        <v>133</v>
+      <c r="C280" s="28" t="s">
+        <v>214</v>
       </c>
       <c r="D280" s="12"/>
       <c r="E280" s="12"/>
-      <c r="F280" s="12"/>
+      <c r="F280" s="12" t="s">
+        <v>8</v>
+      </c>
       <c r="G280" s="12"/>
       <c r="H280" s="12"/>
       <c r="I280" s="15" t="s">
         <v>224</v>
       </c>
-      <c r="J280" s="15"/>
+      <c r="J280" s="15">
+        <v>3</v>
+      </c>
     </row>
     <row r="281" spans="1:10" ht="18">
       <c r="A281" s="35"/>
       <c r="B281" s="37"/>
-      <c r="C281" s="28" t="s">
-        <v>215</v>
+      <c r="C281" s="29" t="s">
+        <v>133</v>
       </c>
       <c r="D281" s="12"/>
       <c r="E281" s="12"/>
       <c r="F281" s="12"/>
-      <c r="G281" s="12" t="s">
-        <v>8</v>
-      </c>
+      <c r="G281" s="12"/>
       <c r="H281" s="12"/>
       <c r="I281" s="15" t="s">
         <v>224</v>
       </c>
-      <c r="J281" s="15">
-        <v>2</v>
-      </c>
+      <c r="J281" s="15"/>
     </row>
     <row r="282" spans="1:10" ht="18">
       <c r="A282" s="35"/>
       <c r="B282" s="37"/>
       <c r="C282" s="28" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D282" s="12"/>
       <c r="E282" s="12"/>
@@ -6261,7 +6264,7 @@
       <c r="A283" s="35"/>
       <c r="B283" s="37"/>
       <c r="C283" s="28" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D283" s="12"/>
       <c r="E283" s="12"/>
@@ -6274,22 +6277,22 @@
         <v>224</v>
       </c>
       <c r="J283" s="15">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="284" spans="1:10" ht="18">
       <c r="A284" s="35"/>
       <c r="B284" s="37"/>
       <c r="C284" s="28" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D284" s="12"/>
       <c r="E284" s="12"/>
       <c r="F284" s="12"/>
-      <c r="G284" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="H284" s="12"/>
+      <c r="G284" s="12"/>
+      <c r="H284" s="12" t="s">
+        <v>8</v>
+      </c>
       <c r="I284" s="15" t="s">
         <v>224</v>
       </c>
@@ -6301,7 +6304,7 @@
       <c r="A285" s="35"/>
       <c r="B285" s="37"/>
       <c r="C285" s="28" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D285" s="12"/>
       <c r="E285" s="12"/>
@@ -6321,7 +6324,7 @@
       <c r="A286" s="35"/>
       <c r="B286" s="37"/>
       <c r="C286" s="28" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D286" s="12"/>
       <c r="E286" s="12"/>
@@ -6334,50 +6337,50 @@
         <v>224</v>
       </c>
       <c r="J286" s="15">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="287" spans="1:10" ht="18">
       <c r="A287" s="35"/>
       <c r="B287" s="37"/>
-      <c r="C287" s="29" t="s">
-        <v>135</v>
+      <c r="C287" s="28" t="s">
+        <v>220</v>
       </c>
       <c r="D287" s="12"/>
       <c r="E287" s="12"/>
       <c r="F287" s="12"/>
-      <c r="G287" s="12"/>
+      <c r="G287" s="12" t="s">
+        <v>8</v>
+      </c>
       <c r="H287" s="12"/>
       <c r="I287" s="15" t="s">
         <v>224</v>
       </c>
-      <c r="J287" s="15"/>
+      <c r="J287" s="15">
+        <v>1</v>
+      </c>
     </row>
     <row r="288" spans="1:10" ht="18">
       <c r="A288" s="35"/>
       <c r="B288" s="37"/>
-      <c r="C288" s="28" t="s">
-        <v>221</v>
+      <c r="C288" s="29" t="s">
+        <v>135</v>
       </c>
       <c r="D288" s="12"/>
-      <c r="E288" s="12" t="s">
-        <v>8</v>
-      </c>
+      <c r="E288" s="12"/>
       <c r="F288" s="12"/>
       <c r="G288" s="12"/>
       <c r="H288" s="12"/>
       <c r="I288" s="15" t="s">
         <v>224</v>
       </c>
-      <c r="J288" s="15">
-        <v>2</v>
-      </c>
+      <c r="J288" s="15"/>
     </row>
     <row r="289" spans="1:10" ht="18">
       <c r="A289" s="35"/>
       <c r="B289" s="37"/>
       <c r="C289" s="28" t="s">
-        <v>255</v>
+        <v>221</v>
       </c>
       <c r="D289" s="12"/>
       <c r="E289" s="12" t="s">
@@ -6390,19 +6393,19 @@
         <v>224</v>
       </c>
       <c r="J289" s="15">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="290" spans="1:10" ht="18">
       <c r="A290" s="35"/>
       <c r="B290" s="37"/>
       <c r="C290" s="28" t="s">
-        <v>222</v>
-      </c>
-      <c r="D290" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E290" s="12"/>
+        <v>255</v>
+      </c>
+      <c r="D290" s="12"/>
+      <c r="E290" s="12" t="s">
+        <v>8</v>
+      </c>
       <c r="F290" s="12"/>
       <c r="G290" s="12"/>
       <c r="H290" s="12"/>
@@ -6410,14 +6413,14 @@
         <v>224</v>
       </c>
       <c r="J290" s="15">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="291" spans="1:10" ht="18">
       <c r="A291" s="35"/>
       <c r="B291" s="37"/>
       <c r="C291" s="28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D291" s="12" t="s">
         <v>8</v>
@@ -6436,27 +6439,31 @@
     <row r="292" spans="1:10" ht="18">
       <c r="A292" s="35"/>
       <c r="B292" s="37"/>
-      <c r="C292" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="D292" s="12"/>
+      <c r="C292" s="28" t="s">
+        <v>223</v>
+      </c>
+      <c r="D292" s="12" t="s">
+        <v>8</v>
+      </c>
       <c r="E292" s="12"/>
       <c r="F292" s="12"/>
       <c r="G292" s="12"/>
       <c r="H292" s="12"/>
-      <c r="I292" s="15"/>
-      <c r="J292" s="15"/>
+      <c r="I292" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="J292" s="15">
+        <v>2</v>
+      </c>
     </row>
     <row r="293" spans="1:10" ht="18">
       <c r="A293" s="35"/>
       <c r="B293" s="37"/>
-      <c r="C293" s="22" t="s">
-        <v>44</v>
+      <c r="C293" s="16" t="s">
+        <v>34</v>
       </c>
       <c r="D293" s="12"/>
-      <c r="E293" s="12" t="s">
-        <v>8</v>
-      </c>
+      <c r="E293" s="12"/>
       <c r="F293" s="12"/>
       <c r="G293" s="12"/>
       <c r="H293" s="12"/>
@@ -6467,7 +6474,7 @@
       <c r="A294" s="35"/>
       <c r="B294" s="37"/>
       <c r="C294" s="22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D294" s="12"/>
       <c r="E294" s="12" t="s">
@@ -6482,15 +6489,15 @@
     <row r="295" spans="1:10" ht="18">
       <c r="A295" s="35"/>
       <c r="B295" s="37"/>
-      <c r="C295" s="14" t="s">
-        <v>46</v>
+      <c r="C295" s="22" t="s">
+        <v>45</v>
       </c>
       <c r="D295" s="12"/>
-      <c r="E295" s="12"/>
+      <c r="E295" s="12" t="s">
+        <v>8</v>
+      </c>
       <c r="F295" s="12"/>
-      <c r="G295" s="12" t="s">
-        <v>8</v>
-      </c>
+      <c r="G295" s="12"/>
       <c r="H295" s="12"/>
       <c r="I295" s="15"/>
       <c r="J295" s="15"/>
@@ -6498,13 +6505,15 @@
     <row r="296" spans="1:10" ht="18">
       <c r="A296" s="35"/>
       <c r="B296" s="37"/>
-      <c r="C296" s="16" t="s">
-        <v>262</v>
+      <c r="C296" s="14" t="s">
+        <v>46</v>
       </c>
       <c r="D296" s="12"/>
       <c r="E296" s="12"/>
       <c r="F296" s="12"/>
-      <c r="G296" s="12"/>
+      <c r="G296" s="12" t="s">
+        <v>8</v>
+      </c>
       <c r="H296" s="12"/>
       <c r="I296" s="15"/>
       <c r="J296" s="15"/>
@@ -6512,8 +6521,8 @@
     <row r="297" spans="1:10" ht="18">
       <c r="A297" s="35"/>
       <c r="B297" s="37"/>
-      <c r="C297" s="29" t="s">
-        <v>225</v>
+      <c r="C297" s="16" t="s">
+        <v>262</v>
       </c>
       <c r="D297" s="12"/>
       <c r="E297" s="12"/>
@@ -6526,12 +6535,10 @@
     <row r="298" spans="1:10" ht="18">
       <c r="A298" s="35"/>
       <c r="B298" s="37"/>
-      <c r="C298" s="28" t="s">
-        <v>226</v>
-      </c>
-      <c r="D298" s="12" t="s">
-        <v>8</v>
-      </c>
+      <c r="C298" s="29" t="s">
+        <v>225</v>
+      </c>
+      <c r="D298" s="12"/>
       <c r="E298" s="12"/>
       <c r="F298" s="12"/>
       <c r="G298" s="12"/>
@@ -6543,7 +6550,7 @@
       <c r="A299" s="35"/>
       <c r="B299" s="37"/>
       <c r="C299" s="28" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D299" s="12" t="s">
         <v>8</v>
@@ -6558,10 +6565,12 @@
     <row r="300" spans="1:10" ht="18">
       <c r="A300" s="35"/>
       <c r="B300" s="37"/>
-      <c r="C300" s="29" t="s">
-        <v>228</v>
-      </c>
-      <c r="D300" s="12"/>
+      <c r="C300" s="28" t="s">
+        <v>227</v>
+      </c>
+      <c r="D300" s="12" t="s">
+        <v>8</v>
+      </c>
       <c r="E300" s="12"/>
       <c r="F300" s="12"/>
       <c r="G300" s="12"/>
@@ -6572,16 +6581,14 @@
     <row r="301" spans="1:10" ht="18">
       <c r="A301" s="35"/>
       <c r="B301" s="37"/>
-      <c r="C301" s="28" t="s">
-        <v>229</v>
+      <c r="C301" s="29" t="s">
+        <v>228</v>
       </c>
       <c r="D301" s="12"/>
       <c r="E301" s="12"/>
       <c r="F301" s="12"/>
       <c r="G301" s="12"/>
-      <c r="H301" s="12" t="s">
-        <v>8</v>
-      </c>
+      <c r="H301" s="12"/>
       <c r="I301" s="15"/>
       <c r="J301" s="15"/>
     </row>
@@ -6589,7 +6596,7 @@
       <c r="A302" s="35"/>
       <c r="B302" s="37"/>
       <c r="C302" s="28" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D302" s="12"/>
       <c r="E302" s="12"/>
@@ -6605,15 +6612,15 @@
       <c r="A303" s="35"/>
       <c r="B303" s="37"/>
       <c r="C303" s="28" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D303" s="12"/>
       <c r="E303" s="12"/>
       <c r="F303" s="12"/>
-      <c r="G303" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="H303" s="12"/>
+      <c r="G303" s="12"/>
+      <c r="H303" s="12" t="s">
+        <v>8</v>
+      </c>
       <c r="I303" s="15"/>
       <c r="J303" s="15"/>
     </row>
@@ -6621,7 +6628,7 @@
       <c r="A304" s="35"/>
       <c r="B304" s="37"/>
       <c r="C304" s="28" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D304" s="12"/>
       <c r="E304" s="12"/>
@@ -6637,15 +6644,15 @@
       <c r="A305" s="35"/>
       <c r="B305" s="37"/>
       <c r="C305" s="28" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D305" s="12"/>
       <c r="E305" s="12"/>
       <c r="F305" s="12"/>
-      <c r="G305" s="12"/>
-      <c r="H305" s="12" t="s">
-        <v>8</v>
-      </c>
+      <c r="G305" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="H305" s="12"/>
       <c r="I305" s="15"/>
       <c r="J305" s="15"/>
     </row>
@@ -6653,7 +6660,7 @@
       <c r="A306" s="35"/>
       <c r="B306" s="37"/>
       <c r="C306" s="28" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D306" s="12"/>
       <c r="E306" s="12"/>
@@ -6669,7 +6676,7 @@
       <c r="A307" s="35"/>
       <c r="B307" s="37"/>
       <c r="C307" s="28" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D307" s="12"/>
       <c r="E307" s="12"/>
@@ -6685,7 +6692,7 @@
       <c r="A308" s="35"/>
       <c r="B308" s="37"/>
       <c r="C308" s="28" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D308" s="12"/>
       <c r="E308" s="12"/>
@@ -6701,7 +6708,7 @@
       <c r="A309" s="35"/>
       <c r="B309" s="37"/>
       <c r="C309" s="28" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D309" s="12"/>
       <c r="E309" s="12"/>
@@ -6717,7 +6724,7 @@
       <c r="A310" s="35"/>
       <c r="B310" s="37"/>
       <c r="C310" s="28" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D310" s="12"/>
       <c r="E310" s="12"/>
@@ -6733,17 +6740,15 @@
       <c r="A311" s="35"/>
       <c r="B311" s="37"/>
       <c r="C311" s="28" t="s">
-        <v>239</v>
-      </c>
-      <c r="D311" s="12" t="s">
-        <v>8</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="D311" s="12"/>
       <c r="E311" s="12"/>
       <c r="F311" s="12"/>
-      <c r="G311" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="H311" s="12"/>
+      <c r="G311" s="12"/>
+      <c r="H311" s="12" t="s">
+        <v>8</v>
+      </c>
       <c r="I311" s="15"/>
       <c r="J311" s="15"/>
     </row>
@@ -6751,7 +6756,7 @@
       <c r="A312" s="35"/>
       <c r="B312" s="37"/>
       <c r="C312" s="28" t="s">
-        <v>97</v>
+        <v>239</v>
       </c>
       <c r="D312" s="12" t="s">
         <v>8</v>
@@ -6768,13 +6773,17 @@
     <row r="313" spans="1:10" ht="18">
       <c r="A313" s="35"/>
       <c r="B313" s="37"/>
-      <c r="C313" s="29" t="s">
-        <v>240</v>
-      </c>
-      <c r="D313" s="12"/>
+      <c r="C313" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="D313" s="12" t="s">
+        <v>8</v>
+      </c>
       <c r="E313" s="12"/>
       <c r="F313" s="12"/>
-      <c r="G313" s="12"/>
+      <c r="G313" s="12" t="s">
+        <v>8</v>
+      </c>
       <c r="H313" s="12"/>
       <c r="I313" s="15"/>
       <c r="J313" s="15"/>
@@ -6782,14 +6791,12 @@
     <row r="314" spans="1:10" ht="18">
       <c r="A314" s="35"/>
       <c r="B314" s="37"/>
-      <c r="C314" s="28" t="s">
-        <v>241</v>
+      <c r="C314" s="29" t="s">
+        <v>240</v>
       </c>
       <c r="D314" s="12"/>
       <c r="E314" s="12"/>
-      <c r="F314" s="12" t="s">
-        <v>8</v>
-      </c>
+      <c r="F314" s="12"/>
       <c r="G314" s="12"/>
       <c r="H314" s="12"/>
       <c r="I314" s="15"/>
@@ -6799,7 +6806,7 @@
       <c r="A315" s="35"/>
       <c r="B315" s="37"/>
       <c r="C315" s="28" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D315" s="12"/>
       <c r="E315" s="12"/>
@@ -6815,7 +6822,7 @@
       <c r="A316" s="35"/>
       <c r="B316" s="37"/>
       <c r="C316" s="28" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D316" s="12"/>
       <c r="E316" s="12"/>
@@ -6831,7 +6838,7 @@
       <c r="A317" s="35"/>
       <c r="B317" s="37"/>
       <c r="C317" s="28" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
       <c r="D317" s="12"/>
       <c r="E317" s="12"/>
@@ -6847,7 +6854,7 @@
       <c r="A318" s="35"/>
       <c r="B318" s="37"/>
       <c r="C318" s="28" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D318" s="12"/>
       <c r="E318" s="12"/>
@@ -6863,14 +6870,14 @@
       <c r="A319" s="35"/>
       <c r="B319" s="37"/>
       <c r="C319" s="28" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D319" s="12"/>
       <c r="E319" s="12"/>
-      <c r="F319" s="12"/>
-      <c r="G319" s="12" t="s">
-        <v>8</v>
-      </c>
+      <c r="F319" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="G319" s="12"/>
       <c r="H319" s="12"/>
       <c r="I319" s="15"/>
       <c r="J319" s="15"/>
@@ -6879,14 +6886,14 @@
       <c r="A320" s="35"/>
       <c r="B320" s="37"/>
       <c r="C320" s="28" t="s">
-        <v>244</v>
+        <v>259</v>
       </c>
       <c r="D320" s="12"/>
       <c r="E320" s="12"/>
-      <c r="F320" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="G320" s="12"/>
+      <c r="F320" s="12"/>
+      <c r="G320" s="12" t="s">
+        <v>8</v>
+      </c>
       <c r="H320" s="12"/>
       <c r="I320" s="15"/>
       <c r="J320" s="15"/>
@@ -6895,7 +6902,7 @@
       <c r="A321" s="35"/>
       <c r="B321" s="37"/>
       <c r="C321" s="28" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D321" s="12"/>
       <c r="E321" s="12"/>
@@ -6910,12 +6917,14 @@
     <row r="322" spans="1:10" ht="18">
       <c r="A322" s="35"/>
       <c r="B322" s="37"/>
-      <c r="C322" s="29" t="s">
-        <v>246</v>
+      <c r="C322" s="28" t="s">
+        <v>245</v>
       </c>
       <c r="D322" s="12"/>
       <c r="E322" s="12"/>
-      <c r="F322" s="12"/>
+      <c r="F322" s="12" t="s">
+        <v>8</v>
+      </c>
       <c r="G322" s="12"/>
       <c r="H322" s="12"/>
       <c r="I322" s="15"/>
@@ -6924,15 +6933,13 @@
     <row r="323" spans="1:10" ht="18">
       <c r="A323" s="35"/>
       <c r="B323" s="37"/>
-      <c r="C323" s="28" t="s">
-        <v>248</v>
+      <c r="C323" s="29" t="s">
+        <v>246</v>
       </c>
       <c r="D323" s="12"/>
       <c r="E323" s="12"/>
       <c r="F323" s="12"/>
-      <c r="G323" s="12" t="s">
-        <v>8</v>
-      </c>
+      <c r="G323" s="12"/>
       <c r="H323" s="12"/>
       <c r="I323" s="15"/>
       <c r="J323" s="15"/>
@@ -6941,7 +6948,7 @@
       <c r="A324" s="35"/>
       <c r="B324" s="37"/>
       <c r="C324" s="28" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D324" s="12"/>
       <c r="E324" s="12"/>
@@ -6956,13 +6963,15 @@
     <row r="325" spans="1:10" ht="18">
       <c r="A325" s="35"/>
       <c r="B325" s="37"/>
-      <c r="C325" s="29" t="s">
-        <v>249</v>
+      <c r="C325" s="28" t="s">
+        <v>247</v>
       </c>
       <c r="D325" s="12"/>
       <c r="E325" s="12"/>
       <c r="F325" s="12"/>
-      <c r="G325" s="12"/>
+      <c r="G325" s="12" t="s">
+        <v>8</v>
+      </c>
       <c r="H325" s="12"/>
       <c r="I325" s="15"/>
       <c r="J325" s="15"/>
@@ -6970,13 +6979,11 @@
     <row r="326" spans="1:10" ht="18">
       <c r="A326" s="35"/>
       <c r="B326" s="37"/>
-      <c r="C326" s="28" t="s">
-        <v>254</v>
+      <c r="C326" s="29" t="s">
+        <v>249</v>
       </c>
       <c r="D326" s="12"/>
-      <c r="E326" s="12" t="s">
-        <v>8</v>
-      </c>
+      <c r="E326" s="12"/>
       <c r="F326" s="12"/>
       <c r="G326" s="12"/>
       <c r="H326" s="12"/>
@@ -6987,12 +6994,12 @@
       <c r="A327" s="35"/>
       <c r="B327" s="37"/>
       <c r="C327" s="28" t="s">
-        <v>250</v>
-      </c>
-      <c r="D327" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E327" s="12"/>
+        <v>254</v>
+      </c>
+      <c r="D327" s="12"/>
+      <c r="E327" s="12" t="s">
+        <v>8</v>
+      </c>
       <c r="F327" s="12"/>
       <c r="G327" s="12"/>
       <c r="H327" s="12"/>
@@ -7003,7 +7010,7 @@
       <c r="A328" s="35"/>
       <c r="B328" s="37"/>
       <c r="C328" s="28" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D328" s="12" t="s">
         <v>8</v>
@@ -7019,7 +7026,7 @@
       <c r="A329" s="35"/>
       <c r="B329" s="37"/>
       <c r="C329" s="28" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D329" s="12" t="s">
         <v>8</v>
@@ -7035,48 +7042,48 @@
       <c r="A330" s="35"/>
       <c r="B330" s="37"/>
       <c r="C330" s="28" t="s">
-        <v>253</v>
-      </c>
-      <c r="D330" s="12"/>
-      <c r="E330" s="12" t="s">
-        <v>8</v>
-      </c>
+        <v>252</v>
+      </c>
+      <c r="D330" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E330" s="12"/>
       <c r="F330" s="12"/>
       <c r="G330" s="12"/>
       <c r="H330" s="12"/>
       <c r="I330" s="15"/>
       <c r="J330" s="15"/>
     </row>
-    <row r="331" spans="1:10" ht="18" customHeight="1">
-      <c r="A331" s="34">
-        <v>6</v>
-      </c>
-      <c r="B331" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="C331" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="D331" s="30"/>
-      <c r="E331" s="30"/>
-      <c r="F331" s="30"/>
-      <c r="G331" s="30"/>
-      <c r="H331" s="30"/>
+    <row r="331" spans="1:10" ht="18">
+      <c r="A331" s="35"/>
+      <c r="B331" s="37"/>
+      <c r="C331" s="28" t="s">
+        <v>253</v>
+      </c>
+      <c r="D331" s="12"/>
+      <c r="E331" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F331" s="12"/>
+      <c r="G331" s="12"/>
+      <c r="H331" s="12"/>
       <c r="I331" s="15"/>
       <c r="J331" s="15"/>
     </row>
-    <row r="332" spans="1:10" ht="18">
-      <c r="A332" s="35"/>
-      <c r="B332" s="32"/>
-      <c r="C332" s="19" t="s">
-        <v>51</v>
+    <row r="332" spans="1:10" ht="18" customHeight="1">
+      <c r="A332" s="34">
+        <v>6</v>
+      </c>
+      <c r="B332" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="C332" s="16" t="s">
+        <v>53</v>
       </c>
       <c r="D332" s="30"/>
       <c r="E332" s="30"/>
       <c r="F332" s="30"/>
-      <c r="G332" s="30" t="s">
-        <v>8</v>
-      </c>
+      <c r="G332" s="30"/>
       <c r="H332" s="30"/>
       <c r="I332" s="15"/>
       <c r="J332" s="15"/>
@@ -7085,7 +7092,7 @@
       <c r="A333" s="35"/>
       <c r="B333" s="32"/>
       <c r="C333" s="19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D333" s="30"/>
       <c r="E333" s="30"/>
@@ -7100,13 +7107,15 @@
     <row r="334" spans="1:10" ht="18">
       <c r="A334" s="35"/>
       <c r="B334" s="32"/>
-      <c r="C334" s="16" t="s">
-        <v>54</v>
+      <c r="C334" s="19" t="s">
+        <v>52</v>
       </c>
       <c r="D334" s="30"/>
       <c r="E334" s="30"/>
       <c r="F334" s="30"/>
-      <c r="G334" s="30"/>
+      <c r="G334" s="30" t="s">
+        <v>8</v>
+      </c>
       <c r="H334" s="30"/>
       <c r="I334" s="15"/>
       <c r="J334" s="15"/>
@@ -7114,13 +7123,11 @@
     <row r="335" spans="1:10" ht="18">
       <c r="A335" s="35"/>
       <c r="B335" s="32"/>
-      <c r="C335" s="19" t="s">
-        <v>57</v>
+      <c r="C335" s="16" t="s">
+        <v>54</v>
       </c>
       <c r="D335" s="30"/>
-      <c r="E335" s="30" t="s">
-        <v>8</v>
-      </c>
+      <c r="E335" s="30"/>
       <c r="F335" s="30"/>
       <c r="G335" s="30"/>
       <c r="H335" s="30"/>
@@ -7130,13 +7137,13 @@
     <row r="336" spans="1:10" ht="18">
       <c r="A336" s="35"/>
       <c r="B336" s="32"/>
-      <c r="C336" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="D336" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="E336" s="30"/>
+      <c r="C336" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="D336" s="30"/>
+      <c r="E336" s="30" t="s">
+        <v>8</v>
+      </c>
       <c r="F336" s="30"/>
       <c r="G336" s="30"/>
       <c r="H336" s="30"/>
@@ -7147,15 +7154,15 @@
       <c r="A337" s="35"/>
       <c r="B337" s="32"/>
       <c r="C337" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="D337" s="30"/>
+        <v>55</v>
+      </c>
+      <c r="D337" s="30" t="s">
+        <v>8</v>
+      </c>
       <c r="E337" s="30"/>
       <c r="F337" s="30"/>
       <c r="G337" s="30"/>
-      <c r="H337" s="30" t="s">
-        <v>8</v>
-      </c>
+      <c r="H337" s="30"/>
       <c r="I337" s="15"/>
       <c r="J337" s="15"/>
     </row>
@@ -7163,15 +7170,15 @@
       <c r="A338" s="35"/>
       <c r="B338" s="32"/>
       <c r="C338" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D338" s="30"/>
       <c r="E338" s="30"/>
-      <c r="F338" s="30" t="s">
-        <v>8</v>
-      </c>
+      <c r="F338" s="30"/>
       <c r="G338" s="30"/>
-      <c r="H338" s="30"/>
+      <c r="H338" s="30" t="s">
+        <v>8</v>
+      </c>
       <c r="I338" s="15"/>
       <c r="J338" s="15"/>
     </row>
@@ -7179,14 +7186,14 @@
       <c r="A339" s="35"/>
       <c r="B339" s="32"/>
       <c r="C339" s="24" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D339" s="30"/>
       <c r="E339" s="30"/>
-      <c r="F339" s="30"/>
-      <c r="G339" s="30" t="s">
-        <v>8</v>
-      </c>
+      <c r="F339" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="G339" s="30"/>
       <c r="H339" s="30"/>
       <c r="I339" s="15"/>
       <c r="J339" s="15"/>
@@ -7195,39 +7202,47 @@
       <c r="A340" s="35"/>
       <c r="B340" s="32"/>
       <c r="C340" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D340" s="30"/>
-      <c r="E340" s="30" t="s">
-        <v>8</v>
-      </c>
+      <c r="E340" s="30"/>
       <c r="F340" s="30"/>
-      <c r="G340" s="30"/>
+      <c r="G340" s="30" t="s">
+        <v>8</v>
+      </c>
       <c r="H340" s="30"/>
       <c r="I340" s="15"/>
       <c r="J340" s="15"/>
     </row>
     <row r="341" spans="1:10" ht="18">
-      <c r="A341" s="36"/>
-      <c r="B341" s="33"/>
+      <c r="A341" s="35"/>
+      <c r="B341" s="32"/>
       <c r="C341" s="24" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D341" s="30"/>
-      <c r="E341" s="30"/>
+      <c r="E341" s="30" t="s">
+        <v>8</v>
+      </c>
       <c r="F341" s="30"/>
       <c r="G341" s="30"/>
       <c r="H341" s="30"/>
       <c r="I341" s="15"/>
       <c r="J341" s="15"/>
     </row>
-    <row r="342" spans="1:10">
-      <c r="D342" s="2"/>
-      <c r="E342" s="2"/>
-      <c r="F342" s="2"/>
-      <c r="G342" s="2"/>
-      <c r="H342" s="2"/>
-      <c r="J342" s="2"/>
+    <row r="342" spans="1:10" ht="18">
+      <c r="A342" s="36"/>
+      <c r="B342" s="33"/>
+      <c r="C342" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="D342" s="30"/>
+      <c r="E342" s="30"/>
+      <c r="F342" s="30"/>
+      <c r="G342" s="30"/>
+      <c r="H342" s="30"/>
+      <c r="I342" s="15"/>
+      <c r="J342" s="15"/>
     </row>
     <row r="343" spans="1:10">
       <c r="D343" s="2"/>
@@ -7239,104 +7254,112 @@
     </row>
     <row r="344" spans="1:10">
       <c r="D344" s="2"/>
+      <c r="E344" s="2"/>
+      <c r="F344" s="2"/>
+      <c r="G344" s="2"/>
+      <c r="H344" s="2"/>
+      <c r="J344" s="2"/>
     </row>
     <row r="345" spans="1:10">
       <c r="D345" s="2"/>
     </row>
     <row r="346" spans="1:10">
-      <c r="A346" s="3" t="s">
+      <c r="D346" s="2"/>
+    </row>
+    <row r="347" spans="1:10">
+      <c r="A347" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B346" s="2"/>
-      <c r="C346" s="1"/>
-      <c r="D346" s="2"/>
-    </row>
-    <row r="347" spans="1:10">
-      <c r="A347" s="7" t="s">
+      <c r="B347" s="2"/>
+      <c r="C347" s="1"/>
+      <c r="D347" s="2"/>
+    </row>
+    <row r="348" spans="1:10">
+      <c r="A348" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B347" s="7" t="s">
+      <c r="B348" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C347" s="8" t="s">
+      <c r="C348" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="D347" s="2"/>
-    </row>
-    <row r="348" spans="1:10" ht="60">
-      <c r="A348" s="5">
+      <c r="D348" s="2"/>
+    </row>
+    <row r="349" spans="1:10" ht="60">
+      <c r="A349" s="5">
         <v>1</v>
       </c>
-      <c r="B348" s="4" t="s">
+      <c r="B349" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C348" s="5">
+      <c r="C349" s="5">
         <v>1</v>
-      </c>
-      <c r="D348" s="2"/>
-    </row>
-    <row r="349" spans="1:10" ht="30">
-      <c r="A349" s="6">
-        <v>2</v>
-      </c>
-      <c r="B349" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C349" s="6">
-        <v>2</v>
       </c>
       <c r="D349" s="2"/>
     </row>
     <row r="350" spans="1:10" ht="30">
       <c r="A350" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B350" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C350" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D350" s="2"/>
     </row>
     <row r="351" spans="1:10" ht="30">
       <c r="A351" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B351" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C351" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D351" s="2"/>
     </row>
     <row r="352" spans="1:10" ht="30">
       <c r="A352" s="6">
+        <v>4</v>
+      </c>
+      <c r="B352" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C352" s="6">
+        <v>4</v>
+      </c>
+      <c r="D352" s="2"/>
+    </row>
+    <row r="353" spans="1:3" ht="30">
+      <c r="A353" s="6">
         <v>5</v>
       </c>
-      <c r="B352" s="4" t="s">
+      <c r="B353" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C352" s="6">
+      <c r="C353" s="6">
         <v>5</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="B331:B341"/>
-    <mergeCell ref="A331:A341"/>
+    <mergeCell ref="B332:B342"/>
+    <mergeCell ref="A332:A342"/>
     <mergeCell ref="B3:B6"/>
     <mergeCell ref="B7:B115"/>
     <mergeCell ref="A7:A115"/>
     <mergeCell ref="A3:A6"/>
-    <mergeCell ref="B194:B330"/>
-    <mergeCell ref="A194:A330"/>
+    <mergeCell ref="B194:B331"/>
+    <mergeCell ref="A194:A331"/>
     <mergeCell ref="B117:B193"/>
     <mergeCell ref="A117:A193"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D342:D349 D2:H341">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D343:D350 D2:H342">
       <formula1>"O, "</formula1>
     </dataValidation>
   </dataValidations>

--- a/trunk/TSMT_Tasksheet.xlsx
+++ b/trunk/TSMT_Tasksheet.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vinh\Desktop\group-22-tsmt\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tri Le Nguyen Huu\Desktop\TSMT\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="779" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="263">
   <si>
     <t>No.</t>
   </si>
@@ -810,9 +810,6 @@
   </si>
   <si>
     <t>Write Test case</t>
-  </si>
-  <si>
-    <t>Charity_ViewVolunteer</t>
   </si>
 </sst>
 </file>
@@ -1382,11 +1379,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J353"/>
+  <dimension ref="A1:J352"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A239" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M250" sqref="M250"/>
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E63" sqref="E63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5612,67 +5609,67 @@
       <c r="A250" s="35"/>
       <c r="B250" s="37"/>
       <c r="C250" s="28" t="s">
-        <v>263</v>
+        <v>188</v>
       </c>
       <c r="D250" s="12"/>
-      <c r="E250" s="12"/>
+      <c r="E250" s="12" t="s">
+        <v>8</v>
+      </c>
       <c r="F250" s="12"/>
       <c r="G250" s="12"/>
-      <c r="H250" s="12" t="s">
-        <v>8</v>
-      </c>
+      <c r="H250" s="12"/>
       <c r="I250" s="15" t="s">
         <v>224</v>
       </c>
       <c r="J250" s="15">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="251" spans="1:10" ht="18">
       <c r="A251" s="35"/>
       <c r="B251" s="37"/>
       <c r="C251" s="28" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D251" s="12"/>
-      <c r="E251" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F251" s="12"/>
+      <c r="E251" s="12"/>
+      <c r="F251" s="12" t="s">
+        <v>8</v>
+      </c>
       <c r="G251" s="12"/>
       <c r="H251" s="12"/>
       <c r="I251" s="15" t="s">
         <v>224</v>
       </c>
       <c r="J251" s="15">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="252" spans="1:10" ht="18">
       <c r="A252" s="35"/>
       <c r="B252" s="37"/>
       <c r="C252" s="28" t="s">
-        <v>189</v>
-      </c>
-      <c r="D252" s="12"/>
+        <v>256</v>
+      </c>
+      <c r="D252" s="12" t="s">
+        <v>8</v>
+      </c>
       <c r="E252" s="12"/>
-      <c r="F252" s="12" t="s">
-        <v>8</v>
-      </c>
+      <c r="F252" s="12"/>
       <c r="G252" s="12"/>
       <c r="H252" s="12"/>
       <c r="I252" s="15" t="s">
         <v>224</v>
       </c>
       <c r="J252" s="15">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="253" spans="1:10" ht="18">
       <c r="A253" s="35"/>
       <c r="B253" s="37"/>
       <c r="C253" s="28" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D253" s="12" t="s">
         <v>8</v>
@@ -5691,12 +5688,10 @@
     <row r="254" spans="1:10" ht="18">
       <c r="A254" s="35"/>
       <c r="B254" s="37"/>
-      <c r="C254" s="28" t="s">
-        <v>257</v>
-      </c>
-      <c r="D254" s="12" t="s">
-        <v>8</v>
-      </c>
+      <c r="C254" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="D254" s="12"/>
       <c r="E254" s="12"/>
       <c r="F254" s="12"/>
       <c r="G254" s="12"/>
@@ -5704,31 +5699,33 @@
       <c r="I254" s="15" t="s">
         <v>224</v>
       </c>
-      <c r="J254" s="15">
-        <v>5</v>
-      </c>
+      <c r="J254" s="15"/>
     </row>
     <row r="255" spans="1:10" ht="18">
       <c r="A255" s="35"/>
       <c r="B255" s="37"/>
-      <c r="C255" s="29" t="s">
-        <v>134</v>
+      <c r="C255" s="28" t="s">
+        <v>190</v>
       </c>
       <c r="D255" s="12"/>
       <c r="E255" s="12"/>
-      <c r="F255" s="12"/>
+      <c r="F255" s="12" t="s">
+        <v>8</v>
+      </c>
       <c r="G255" s="12"/>
       <c r="H255" s="12"/>
       <c r="I255" s="15" t="s">
         <v>224</v>
       </c>
-      <c r="J255" s="15"/>
+      <c r="J255" s="15">
+        <v>1</v>
+      </c>
     </row>
     <row r="256" spans="1:10" ht="18">
       <c r="A256" s="35"/>
       <c r="B256" s="37"/>
       <c r="C256" s="28" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D256" s="12"/>
       <c r="E256" s="12"/>
@@ -5741,14 +5738,14 @@
         <v>224</v>
       </c>
       <c r="J256" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="257" spans="1:10" ht="18">
       <c r="A257" s="35"/>
       <c r="B257" s="37"/>
       <c r="C257" s="28" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D257" s="12"/>
       <c r="E257" s="12"/>
@@ -5768,7 +5765,7 @@
       <c r="A258" s="35"/>
       <c r="B258" s="37"/>
       <c r="C258" s="28" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D258" s="12"/>
       <c r="E258" s="12"/>
@@ -5781,14 +5778,14 @@
         <v>224</v>
       </c>
       <c r="J258" s="15">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="259" spans="1:10" ht="18">
       <c r="A259" s="35"/>
       <c r="B259" s="37"/>
       <c r="C259" s="28" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D259" s="12"/>
       <c r="E259" s="12"/>
@@ -5801,14 +5798,14 @@
         <v>224</v>
       </c>
       <c r="J259" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="260" spans="1:10" ht="18">
       <c r="A260" s="35"/>
       <c r="B260" s="37"/>
       <c r="C260" s="28" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D260" s="12"/>
       <c r="E260" s="12"/>
@@ -5828,7 +5825,7 @@
       <c r="A261" s="35"/>
       <c r="B261" s="37"/>
       <c r="C261" s="28" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D261" s="12"/>
       <c r="E261" s="12"/>
@@ -5841,14 +5838,14 @@
         <v>224</v>
       </c>
       <c r="J261" s="15">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="262" spans="1:10" ht="18">
       <c r="A262" s="35"/>
       <c r="B262" s="37"/>
       <c r="C262" s="28" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D262" s="12"/>
       <c r="E262" s="12"/>
@@ -5868,7 +5865,7 @@
       <c r="A263" s="35"/>
       <c r="B263" s="37"/>
       <c r="C263" s="28" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D263" s="12"/>
       <c r="E263" s="12"/>
@@ -5881,14 +5878,14 @@
         <v>224</v>
       </c>
       <c r="J263" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="264" spans="1:10" ht="18">
       <c r="A264" s="35"/>
       <c r="B264" s="37"/>
       <c r="C264" s="28" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D264" s="12"/>
       <c r="E264" s="12"/>
@@ -5908,7 +5905,7 @@
       <c r="A265" s="35"/>
       <c r="B265" s="37"/>
       <c r="C265" s="28" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D265" s="12"/>
       <c r="E265" s="12"/>
@@ -5921,14 +5918,14 @@
         <v>224</v>
       </c>
       <c r="J265" s="15">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="266" spans="1:10" ht="18">
       <c r="A266" s="35"/>
       <c r="B266" s="37"/>
       <c r="C266" s="28" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D266" s="12"/>
       <c r="E266" s="12"/>
@@ -5948,7 +5945,7 @@
       <c r="A267" s="35"/>
       <c r="B267" s="37"/>
       <c r="C267" s="28" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D267" s="12"/>
       <c r="E267" s="12"/>
@@ -5968,34 +5965,34 @@
       <c r="A268" s="35"/>
       <c r="B268" s="37"/>
       <c r="C268" s="28" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D268" s="12"/>
       <c r="E268" s="12"/>
-      <c r="F268" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="G268" s="12"/>
+      <c r="F268" s="12"/>
+      <c r="G268" s="12" t="s">
+        <v>8</v>
+      </c>
       <c r="H268" s="12"/>
       <c r="I268" s="15" t="s">
         <v>224</v>
       </c>
       <c r="J268" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="269" spans="1:10" ht="18">
       <c r="A269" s="35"/>
       <c r="B269" s="37"/>
       <c r="C269" s="28" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D269" s="12"/>
       <c r="E269" s="12"/>
-      <c r="F269" s="12"/>
-      <c r="G269" s="12" t="s">
-        <v>8</v>
-      </c>
+      <c r="F269" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="G269" s="12"/>
       <c r="H269" s="12"/>
       <c r="I269" s="15" t="s">
         <v>224</v>
@@ -6008,7 +6005,7 @@
       <c r="A270" s="35"/>
       <c r="B270" s="37"/>
       <c r="C270" s="28" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D270" s="12"/>
       <c r="E270" s="12"/>
@@ -6028,7 +6025,7 @@
       <c r="A271" s="35"/>
       <c r="B271" s="37"/>
       <c r="C271" s="28" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D271" s="12"/>
       <c r="E271" s="12"/>
@@ -6048,7 +6045,7 @@
       <c r="A272" s="35"/>
       <c r="B272" s="37"/>
       <c r="C272" s="28" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D272" s="12"/>
       <c r="E272" s="12"/>
@@ -6068,7 +6065,7 @@
       <c r="A273" s="35"/>
       <c r="B273" s="37"/>
       <c r="C273" s="28" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D273" s="12"/>
       <c r="E273" s="12"/>
@@ -6081,21 +6078,21 @@
         <v>224</v>
       </c>
       <c r="J273" s="15">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="274" spans="1:10" ht="18">
       <c r="A274" s="35"/>
       <c r="B274" s="37"/>
       <c r="C274" s="28" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D274" s="12"/>
       <c r="E274" s="12"/>
-      <c r="F274" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="G274" s="12"/>
+      <c r="F274" s="12"/>
+      <c r="G274" s="12" t="s">
+        <v>8</v>
+      </c>
       <c r="H274" s="12"/>
       <c r="I274" s="15" t="s">
         <v>224</v>
@@ -6108,7 +6105,7 @@
       <c r="A275" s="35"/>
       <c r="B275" s="37"/>
       <c r="C275" s="28" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D275" s="12"/>
       <c r="E275" s="12"/>
@@ -6121,14 +6118,14 @@
         <v>224</v>
       </c>
       <c r="J275" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="276" spans="1:10" ht="18">
       <c r="A276" s="35"/>
       <c r="B276" s="37"/>
       <c r="C276" s="28" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D276" s="12"/>
       <c r="E276" s="12"/>
@@ -6148,7 +6145,7 @@
       <c r="A277" s="35"/>
       <c r="B277" s="37"/>
       <c r="C277" s="28" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D277" s="12"/>
       <c r="E277" s="12"/>
@@ -6168,27 +6165,27 @@
       <c r="A278" s="35"/>
       <c r="B278" s="37"/>
       <c r="C278" s="28" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D278" s="12"/>
       <c r="E278" s="12"/>
-      <c r="F278" s="12"/>
-      <c r="G278" s="12" t="s">
-        <v>8</v>
-      </c>
+      <c r="F278" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="G278" s="12"/>
       <c r="H278" s="12"/>
       <c r="I278" s="15" t="s">
         <v>224</v>
       </c>
       <c r="J278" s="15">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="279" spans="1:10" ht="18">
       <c r="A279" s="35"/>
       <c r="B279" s="37"/>
       <c r="C279" s="28" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D279" s="12"/>
       <c r="E279" s="12"/>
@@ -6207,44 +6204,44 @@
     <row r="280" spans="1:10" ht="18">
       <c r="A280" s="35"/>
       <c r="B280" s="37"/>
-      <c r="C280" s="28" t="s">
-        <v>214</v>
+      <c r="C280" s="29" t="s">
+        <v>133</v>
       </c>
       <c r="D280" s="12"/>
       <c r="E280" s="12"/>
-      <c r="F280" s="12" t="s">
-        <v>8</v>
-      </c>
+      <c r="F280" s="12"/>
       <c r="G280" s="12"/>
       <c r="H280" s="12"/>
       <c r="I280" s="15" t="s">
         <v>224</v>
       </c>
-      <c r="J280" s="15">
-        <v>3</v>
-      </c>
+      <c r="J280" s="15"/>
     </row>
     <row r="281" spans="1:10" ht="18">
       <c r="A281" s="35"/>
       <c r="B281" s="37"/>
-      <c r="C281" s="29" t="s">
-        <v>133</v>
+      <c r="C281" s="28" t="s">
+        <v>215</v>
       </c>
       <c r="D281" s="12"/>
       <c r="E281" s="12"/>
       <c r="F281" s="12"/>
-      <c r="G281" s="12"/>
+      <c r="G281" s="12" t="s">
+        <v>8</v>
+      </c>
       <c r="H281" s="12"/>
       <c r="I281" s="15" t="s">
         <v>224</v>
       </c>
-      <c r="J281" s="15"/>
+      <c r="J281" s="15">
+        <v>2</v>
+      </c>
     </row>
     <row r="282" spans="1:10" ht="18">
       <c r="A282" s="35"/>
       <c r="B282" s="37"/>
       <c r="C282" s="28" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D282" s="12"/>
       <c r="E282" s="12"/>
@@ -6264,7 +6261,7 @@
       <c r="A283" s="35"/>
       <c r="B283" s="37"/>
       <c r="C283" s="28" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D283" s="12"/>
       <c r="E283" s="12"/>
@@ -6277,22 +6274,22 @@
         <v>224</v>
       </c>
       <c r="J283" s="15">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="284" spans="1:10" ht="18">
       <c r="A284" s="35"/>
       <c r="B284" s="37"/>
       <c r="C284" s="28" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D284" s="12"/>
       <c r="E284" s="12"/>
       <c r="F284" s="12"/>
-      <c r="G284" s="12"/>
-      <c r="H284" s="12" t="s">
-        <v>8</v>
-      </c>
+      <c r="G284" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="H284" s="12"/>
       <c r="I284" s="15" t="s">
         <v>224</v>
       </c>
@@ -6304,7 +6301,7 @@
       <c r="A285" s="35"/>
       <c r="B285" s="37"/>
       <c r="C285" s="28" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D285" s="12"/>
       <c r="E285" s="12"/>
@@ -6324,7 +6321,7 @@
       <c r="A286" s="35"/>
       <c r="B286" s="37"/>
       <c r="C286" s="28" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D286" s="12"/>
       <c r="E286" s="12"/>
@@ -6337,50 +6334,50 @@
         <v>224</v>
       </c>
       <c r="J286" s="15">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="287" spans="1:10" ht="18">
       <c r="A287" s="35"/>
       <c r="B287" s="37"/>
-      <c r="C287" s="28" t="s">
-        <v>220</v>
+      <c r="C287" s="29" t="s">
+        <v>135</v>
       </c>
       <c r="D287" s="12"/>
       <c r="E287" s="12"/>
       <c r="F287" s="12"/>
-      <c r="G287" s="12" t="s">
-        <v>8</v>
-      </c>
+      <c r="G287" s="12"/>
       <c r="H287" s="12"/>
       <c r="I287" s="15" t="s">
         <v>224</v>
       </c>
-      <c r="J287" s="15">
-        <v>1</v>
-      </c>
+      <c r="J287" s="15"/>
     </row>
     <row r="288" spans="1:10" ht="18">
       <c r="A288" s="35"/>
       <c r="B288" s="37"/>
-      <c r="C288" s="29" t="s">
-        <v>135</v>
+      <c r="C288" s="28" t="s">
+        <v>221</v>
       </c>
       <c r="D288" s="12"/>
-      <c r="E288" s="12"/>
+      <c r="E288" s="12" t="s">
+        <v>8</v>
+      </c>
       <c r="F288" s="12"/>
       <c r="G288" s="12"/>
       <c r="H288" s="12"/>
       <c r="I288" s="15" t="s">
         <v>224</v>
       </c>
-      <c r="J288" s="15"/>
+      <c r="J288" s="15">
+        <v>2</v>
+      </c>
     </row>
     <row r="289" spans="1:10" ht="18">
       <c r="A289" s="35"/>
       <c r="B289" s="37"/>
       <c r="C289" s="28" t="s">
-        <v>221</v>
+        <v>255</v>
       </c>
       <c r="D289" s="12"/>
       <c r="E289" s="12" t="s">
@@ -6393,19 +6390,19 @@
         <v>224</v>
       </c>
       <c r="J289" s="15">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="290" spans="1:10" ht="18">
       <c r="A290" s="35"/>
       <c r="B290" s="37"/>
       <c r="C290" s="28" t="s">
-        <v>255</v>
-      </c>
-      <c r="D290" s="12"/>
-      <c r="E290" s="12" t="s">
-        <v>8</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="D290" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E290" s="12"/>
       <c r="F290" s="12"/>
       <c r="G290" s="12"/>
       <c r="H290" s="12"/>
@@ -6413,14 +6410,14 @@
         <v>224</v>
       </c>
       <c r="J290" s="15">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="291" spans="1:10" ht="18">
       <c r="A291" s="35"/>
       <c r="B291" s="37"/>
       <c r="C291" s="28" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D291" s="12" t="s">
         <v>8</v>
@@ -6439,31 +6436,27 @@
     <row r="292" spans="1:10" ht="18">
       <c r="A292" s="35"/>
       <c r="B292" s="37"/>
-      <c r="C292" s="28" t="s">
-        <v>223</v>
-      </c>
-      <c r="D292" s="12" t="s">
-        <v>8</v>
-      </c>
+      <c r="C292" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D292" s="12"/>
       <c r="E292" s="12"/>
       <c r="F292" s="12"/>
       <c r="G292" s="12"/>
       <c r="H292" s="12"/>
-      <c r="I292" s="15" t="s">
-        <v>224</v>
-      </c>
-      <c r="J292" s="15">
-        <v>2</v>
-      </c>
+      <c r="I292" s="15"/>
+      <c r="J292" s="15"/>
     </row>
     <row r="293" spans="1:10" ht="18">
       <c r="A293" s="35"/>
       <c r="B293" s="37"/>
-      <c r="C293" s="16" t="s">
-        <v>34</v>
+      <c r="C293" s="22" t="s">
+        <v>44</v>
       </c>
       <c r="D293" s="12"/>
-      <c r="E293" s="12"/>
+      <c r="E293" s="12" t="s">
+        <v>8</v>
+      </c>
       <c r="F293" s="12"/>
       <c r="G293" s="12"/>
       <c r="H293" s="12"/>
@@ -6474,7 +6467,7 @@
       <c r="A294" s="35"/>
       <c r="B294" s="37"/>
       <c r="C294" s="22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D294" s="12"/>
       <c r="E294" s="12" t="s">
@@ -6489,15 +6482,15 @@
     <row r="295" spans="1:10" ht="18">
       <c r="A295" s="35"/>
       <c r="B295" s="37"/>
-      <c r="C295" s="22" t="s">
-        <v>45</v>
+      <c r="C295" s="14" t="s">
+        <v>46</v>
       </c>
       <c r="D295" s="12"/>
-      <c r="E295" s="12" t="s">
-        <v>8</v>
-      </c>
+      <c r="E295" s="12"/>
       <c r="F295" s="12"/>
-      <c r="G295" s="12"/>
+      <c r="G295" s="12" t="s">
+        <v>8</v>
+      </c>
       <c r="H295" s="12"/>
       <c r="I295" s="15"/>
       <c r="J295" s="15"/>
@@ -6505,15 +6498,13 @@
     <row r="296" spans="1:10" ht="18">
       <c r="A296" s="35"/>
       <c r="B296" s="37"/>
-      <c r="C296" s="14" t="s">
-        <v>46</v>
+      <c r="C296" s="16" t="s">
+        <v>262</v>
       </c>
       <c r="D296" s="12"/>
       <c r="E296" s="12"/>
       <c r="F296" s="12"/>
-      <c r="G296" s="12" t="s">
-        <v>8</v>
-      </c>
+      <c r="G296" s="12"/>
       <c r="H296" s="12"/>
       <c r="I296" s="15"/>
       <c r="J296" s="15"/>
@@ -6521,8 +6512,8 @@
     <row r="297" spans="1:10" ht="18">
       <c r="A297" s="35"/>
       <c r="B297" s="37"/>
-      <c r="C297" s="16" t="s">
-        <v>262</v>
+      <c r="C297" s="29" t="s">
+        <v>225</v>
       </c>
       <c r="D297" s="12"/>
       <c r="E297" s="12"/>
@@ -6535,10 +6526,12 @@
     <row r="298" spans="1:10" ht="18">
       <c r="A298" s="35"/>
       <c r="B298" s="37"/>
-      <c r="C298" s="29" t="s">
-        <v>225</v>
-      </c>
-      <c r="D298" s="12"/>
+      <c r="C298" s="28" t="s">
+        <v>226</v>
+      </c>
+      <c r="D298" s="12" t="s">
+        <v>8</v>
+      </c>
       <c r="E298" s="12"/>
       <c r="F298" s="12"/>
       <c r="G298" s="12"/>
@@ -6550,7 +6543,7 @@
       <c r="A299" s="35"/>
       <c r="B299" s="37"/>
       <c r="C299" s="28" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D299" s="12" t="s">
         <v>8</v>
@@ -6565,12 +6558,10 @@
     <row r="300" spans="1:10" ht="18">
       <c r="A300" s="35"/>
       <c r="B300" s="37"/>
-      <c r="C300" s="28" t="s">
-        <v>227</v>
-      </c>
-      <c r="D300" s="12" t="s">
-        <v>8</v>
-      </c>
+      <c r="C300" s="29" t="s">
+        <v>228</v>
+      </c>
+      <c r="D300" s="12"/>
       <c r="E300" s="12"/>
       <c r="F300" s="12"/>
       <c r="G300" s="12"/>
@@ -6581,14 +6572,16 @@
     <row r="301" spans="1:10" ht="18">
       <c r="A301" s="35"/>
       <c r="B301" s="37"/>
-      <c r="C301" s="29" t="s">
-        <v>228</v>
+      <c r="C301" s="28" t="s">
+        <v>229</v>
       </c>
       <c r="D301" s="12"/>
       <c r="E301" s="12"/>
       <c r="F301" s="12"/>
       <c r="G301" s="12"/>
-      <c r="H301" s="12"/>
+      <c r="H301" s="12" t="s">
+        <v>8</v>
+      </c>
       <c r="I301" s="15"/>
       <c r="J301" s="15"/>
     </row>
@@ -6596,7 +6589,7 @@
       <c r="A302" s="35"/>
       <c r="B302" s="37"/>
       <c r="C302" s="28" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D302" s="12"/>
       <c r="E302" s="12"/>
@@ -6612,15 +6605,15 @@
       <c r="A303" s="35"/>
       <c r="B303" s="37"/>
       <c r="C303" s="28" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D303" s="12"/>
       <c r="E303" s="12"/>
       <c r="F303" s="12"/>
-      <c r="G303" s="12"/>
-      <c r="H303" s="12" t="s">
-        <v>8</v>
-      </c>
+      <c r="G303" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="H303" s="12"/>
       <c r="I303" s="15"/>
       <c r="J303" s="15"/>
     </row>
@@ -6628,7 +6621,7 @@
       <c r="A304" s="35"/>
       <c r="B304" s="37"/>
       <c r="C304" s="28" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D304" s="12"/>
       <c r="E304" s="12"/>
@@ -6644,15 +6637,15 @@
       <c r="A305" s="35"/>
       <c r="B305" s="37"/>
       <c r="C305" s="28" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D305" s="12"/>
       <c r="E305" s="12"/>
       <c r="F305" s="12"/>
-      <c r="G305" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="H305" s="12"/>
+      <c r="G305" s="12"/>
+      <c r="H305" s="12" t="s">
+        <v>8</v>
+      </c>
       <c r="I305" s="15"/>
       <c r="J305" s="15"/>
     </row>
@@ -6660,7 +6653,7 @@
       <c r="A306" s="35"/>
       <c r="B306" s="37"/>
       <c r="C306" s="28" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D306" s="12"/>
       <c r="E306" s="12"/>
@@ -6676,7 +6669,7 @@
       <c r="A307" s="35"/>
       <c r="B307" s="37"/>
       <c r="C307" s="28" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D307" s="12"/>
       <c r="E307" s="12"/>
@@ -6692,7 +6685,7 @@
       <c r="A308" s="35"/>
       <c r="B308" s="37"/>
       <c r="C308" s="28" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D308" s="12"/>
       <c r="E308" s="12"/>
@@ -6708,7 +6701,7 @@
       <c r="A309" s="35"/>
       <c r="B309" s="37"/>
       <c r="C309" s="28" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D309" s="12"/>
       <c r="E309" s="12"/>
@@ -6724,7 +6717,7 @@
       <c r="A310" s="35"/>
       <c r="B310" s="37"/>
       <c r="C310" s="28" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D310" s="12"/>
       <c r="E310" s="12"/>
@@ -6740,15 +6733,17 @@
       <c r="A311" s="35"/>
       <c r="B311" s="37"/>
       <c r="C311" s="28" t="s">
-        <v>238</v>
-      </c>
-      <c r="D311" s="12"/>
+        <v>239</v>
+      </c>
+      <c r="D311" s="12" t="s">
+        <v>8</v>
+      </c>
       <c r="E311" s="12"/>
       <c r="F311" s="12"/>
-      <c r="G311" s="12"/>
-      <c r="H311" s="12" t="s">
-        <v>8</v>
-      </c>
+      <c r="G311" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="H311" s="12"/>
       <c r="I311" s="15"/>
       <c r="J311" s="15"/>
     </row>
@@ -6756,7 +6751,7 @@
       <c r="A312" s="35"/>
       <c r="B312" s="37"/>
       <c r="C312" s="28" t="s">
-        <v>239</v>
+        <v>97</v>
       </c>
       <c r="D312" s="12" t="s">
         <v>8</v>
@@ -6773,17 +6768,13 @@
     <row r="313" spans="1:10" ht="18">
       <c r="A313" s="35"/>
       <c r="B313" s="37"/>
-      <c r="C313" s="28" t="s">
-        <v>97</v>
-      </c>
-      <c r="D313" s="12" t="s">
-        <v>8</v>
-      </c>
+      <c r="C313" s="29" t="s">
+        <v>240</v>
+      </c>
+      <c r="D313" s="12"/>
       <c r="E313" s="12"/>
       <c r="F313" s="12"/>
-      <c r="G313" s="12" t="s">
-        <v>8</v>
-      </c>
+      <c r="G313" s="12"/>
       <c r="H313" s="12"/>
       <c r="I313" s="15"/>
       <c r="J313" s="15"/>
@@ -6791,12 +6782,14 @@
     <row r="314" spans="1:10" ht="18">
       <c r="A314" s="35"/>
       <c r="B314" s="37"/>
-      <c r="C314" s="29" t="s">
-        <v>240</v>
+      <c r="C314" s="28" t="s">
+        <v>241</v>
       </c>
       <c r="D314" s="12"/>
       <c r="E314" s="12"/>
-      <c r="F314" s="12"/>
+      <c r="F314" s="12" t="s">
+        <v>8</v>
+      </c>
       <c r="G314" s="12"/>
       <c r="H314" s="12"/>
       <c r="I314" s="15"/>
@@ -6806,7 +6799,7 @@
       <c r="A315" s="35"/>
       <c r="B315" s="37"/>
       <c r="C315" s="28" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D315" s="12"/>
       <c r="E315" s="12"/>
@@ -6822,7 +6815,7 @@
       <c r="A316" s="35"/>
       <c r="B316" s="37"/>
       <c r="C316" s="28" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D316" s="12"/>
       <c r="E316" s="12"/>
@@ -6838,7 +6831,7 @@
       <c r="A317" s="35"/>
       <c r="B317" s="37"/>
       <c r="C317" s="28" t="s">
-        <v>243</v>
+        <v>258</v>
       </c>
       <c r="D317" s="12"/>
       <c r="E317" s="12"/>
@@ -6854,7 +6847,7 @@
       <c r="A318" s="35"/>
       <c r="B318" s="37"/>
       <c r="C318" s="28" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D318" s="12"/>
       <c r="E318" s="12"/>
@@ -6870,14 +6863,14 @@
       <c r="A319" s="35"/>
       <c r="B319" s="37"/>
       <c r="C319" s="28" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D319" s="12"/>
       <c r="E319" s="12"/>
-      <c r="F319" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="G319" s="12"/>
+      <c r="F319" s="12"/>
+      <c r="G319" s="12" t="s">
+        <v>8</v>
+      </c>
       <c r="H319" s="12"/>
       <c r="I319" s="15"/>
       <c r="J319" s="15"/>
@@ -6886,14 +6879,14 @@
       <c r="A320" s="35"/>
       <c r="B320" s="37"/>
       <c r="C320" s="28" t="s">
-        <v>259</v>
+        <v>244</v>
       </c>
       <c r="D320" s="12"/>
       <c r="E320" s="12"/>
-      <c r="F320" s="12"/>
-      <c r="G320" s="12" t="s">
-        <v>8</v>
-      </c>
+      <c r="F320" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="G320" s="12"/>
       <c r="H320" s="12"/>
       <c r="I320" s="15"/>
       <c r="J320" s="15"/>
@@ -6902,7 +6895,7 @@
       <c r="A321" s="35"/>
       <c r="B321" s="37"/>
       <c r="C321" s="28" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D321" s="12"/>
       <c r="E321" s="12"/>
@@ -6917,14 +6910,12 @@
     <row r="322" spans="1:10" ht="18">
       <c r="A322" s="35"/>
       <c r="B322" s="37"/>
-      <c r="C322" s="28" t="s">
-        <v>245</v>
+      <c r="C322" s="29" t="s">
+        <v>246</v>
       </c>
       <c r="D322" s="12"/>
       <c r="E322" s="12"/>
-      <c r="F322" s="12" t="s">
-        <v>8</v>
-      </c>
+      <c r="F322" s="12"/>
       <c r="G322" s="12"/>
       <c r="H322" s="12"/>
       <c r="I322" s="15"/>
@@ -6933,13 +6924,15 @@
     <row r="323" spans="1:10" ht="18">
       <c r="A323" s="35"/>
       <c r="B323" s="37"/>
-      <c r="C323" s="29" t="s">
-        <v>246</v>
+      <c r="C323" s="28" t="s">
+        <v>248</v>
       </c>
       <c r="D323" s="12"/>
       <c r="E323" s="12"/>
       <c r="F323" s="12"/>
-      <c r="G323" s="12"/>
+      <c r="G323" s="12" t="s">
+        <v>8</v>
+      </c>
       <c r="H323" s="12"/>
       <c r="I323" s="15"/>
       <c r="J323" s="15"/>
@@ -6948,7 +6941,7 @@
       <c r="A324" s="35"/>
       <c r="B324" s="37"/>
       <c r="C324" s="28" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D324" s="12"/>
       <c r="E324" s="12"/>
@@ -6963,15 +6956,13 @@
     <row r="325" spans="1:10" ht="18">
       <c r="A325" s="35"/>
       <c r="B325" s="37"/>
-      <c r="C325" s="28" t="s">
-        <v>247</v>
+      <c r="C325" s="29" t="s">
+        <v>249</v>
       </c>
       <c r="D325" s="12"/>
       <c r="E325" s="12"/>
       <c r="F325" s="12"/>
-      <c r="G325" s="12" t="s">
-        <v>8</v>
-      </c>
+      <c r="G325" s="12"/>
       <c r="H325" s="12"/>
       <c r="I325" s="15"/>
       <c r="J325" s="15"/>
@@ -6979,11 +6970,13 @@
     <row r="326" spans="1:10" ht="18">
       <c r="A326" s="35"/>
       <c r="B326" s="37"/>
-      <c r="C326" s="29" t="s">
-        <v>249</v>
+      <c r="C326" s="28" t="s">
+        <v>254</v>
       </c>
       <c r="D326" s="12"/>
-      <c r="E326" s="12"/>
+      <c r="E326" s="12" t="s">
+        <v>8</v>
+      </c>
       <c r="F326" s="12"/>
       <c r="G326" s="12"/>
       <c r="H326" s="12"/>
@@ -6994,12 +6987,12 @@
       <c r="A327" s="35"/>
       <c r="B327" s="37"/>
       <c r="C327" s="28" t="s">
-        <v>254</v>
-      </c>
-      <c r="D327" s="12"/>
-      <c r="E327" s="12" t="s">
-        <v>8</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="D327" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E327" s="12"/>
       <c r="F327" s="12"/>
       <c r="G327" s="12"/>
       <c r="H327" s="12"/>
@@ -7010,7 +7003,7 @@
       <c r="A328" s="35"/>
       <c r="B328" s="37"/>
       <c r="C328" s="28" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D328" s="12" t="s">
         <v>8</v>
@@ -7026,7 +7019,7 @@
       <c r="A329" s="35"/>
       <c r="B329" s="37"/>
       <c r="C329" s="28" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D329" s="12" t="s">
         <v>8</v>
@@ -7042,48 +7035,48 @@
       <c r="A330" s="35"/>
       <c r="B330" s="37"/>
       <c r="C330" s="28" t="s">
-        <v>252</v>
-      </c>
-      <c r="D330" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E330" s="12"/>
+        <v>253</v>
+      </c>
+      <c r="D330" s="12"/>
+      <c r="E330" s="12" t="s">
+        <v>8</v>
+      </c>
       <c r="F330" s="12"/>
       <c r="G330" s="12"/>
       <c r="H330" s="12"/>
       <c r="I330" s="15"/>
       <c r="J330" s="15"/>
     </row>
-    <row r="331" spans="1:10" ht="18">
-      <c r="A331" s="35"/>
-      <c r="B331" s="37"/>
-      <c r="C331" s="28" t="s">
-        <v>253</v>
-      </c>
-      <c r="D331" s="12"/>
-      <c r="E331" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F331" s="12"/>
-      <c r="G331" s="12"/>
-      <c r="H331" s="12"/>
+    <row r="331" spans="1:10" ht="18" customHeight="1">
+      <c r="A331" s="34">
+        <v>6</v>
+      </c>
+      <c r="B331" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="C331" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D331" s="30"/>
+      <c r="E331" s="30"/>
+      <c r="F331" s="30"/>
+      <c r="G331" s="30"/>
+      <c r="H331" s="30"/>
       <c r="I331" s="15"/>
       <c r="J331" s="15"/>
     </row>
-    <row r="332" spans="1:10" ht="18" customHeight="1">
-      <c r="A332" s="34">
-        <v>6</v>
-      </c>
-      <c r="B332" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="C332" s="16" t="s">
-        <v>53</v>
+    <row r="332" spans="1:10" ht="18">
+      <c r="A332" s="35"/>
+      <c r="B332" s="32"/>
+      <c r="C332" s="19" t="s">
+        <v>51</v>
       </c>
       <c r="D332" s="30"/>
       <c r="E332" s="30"/>
       <c r="F332" s="30"/>
-      <c r="G332" s="30"/>
+      <c r="G332" s="30" t="s">
+        <v>8</v>
+      </c>
       <c r="H332" s="30"/>
       <c r="I332" s="15"/>
       <c r="J332" s="15"/>
@@ -7092,7 +7085,7 @@
       <c r="A333" s="35"/>
       <c r="B333" s="32"/>
       <c r="C333" s="19" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D333" s="30"/>
       <c r="E333" s="30"/>
@@ -7107,15 +7100,13 @@
     <row r="334" spans="1:10" ht="18">
       <c r="A334" s="35"/>
       <c r="B334" s="32"/>
-      <c r="C334" s="19" t="s">
-        <v>52</v>
+      <c r="C334" s="16" t="s">
+        <v>54</v>
       </c>
       <c r="D334" s="30"/>
       <c r="E334" s="30"/>
       <c r="F334" s="30"/>
-      <c r="G334" s="30" t="s">
-        <v>8</v>
-      </c>
+      <c r="G334" s="30"/>
       <c r="H334" s="30"/>
       <c r="I334" s="15"/>
       <c r="J334" s="15"/>
@@ -7123,11 +7114,13 @@
     <row r="335" spans="1:10" ht="18">
       <c r="A335" s="35"/>
       <c r="B335" s="32"/>
-      <c r="C335" s="16" t="s">
-        <v>54</v>
+      <c r="C335" s="19" t="s">
+        <v>57</v>
       </c>
       <c r="D335" s="30"/>
-      <c r="E335" s="30"/>
+      <c r="E335" s="30" t="s">
+        <v>8</v>
+      </c>
       <c r="F335" s="30"/>
       <c r="G335" s="30"/>
       <c r="H335" s="30"/>
@@ -7137,13 +7130,13 @@
     <row r="336" spans="1:10" ht="18">
       <c r="A336" s="35"/>
       <c r="B336" s="32"/>
-      <c r="C336" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="D336" s="30"/>
-      <c r="E336" s="30" t="s">
-        <v>8</v>
-      </c>
+      <c r="C336" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="D336" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="E336" s="30"/>
       <c r="F336" s="30"/>
       <c r="G336" s="30"/>
       <c r="H336" s="30"/>
@@ -7154,15 +7147,15 @@
       <c r="A337" s="35"/>
       <c r="B337" s="32"/>
       <c r="C337" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="D337" s="30" t="s">
-        <v>8</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="D337" s="30"/>
       <c r="E337" s="30"/>
       <c r="F337" s="30"/>
       <c r="G337" s="30"/>
-      <c r="H337" s="30"/>
+      <c r="H337" s="30" t="s">
+        <v>8</v>
+      </c>
       <c r="I337" s="15"/>
       <c r="J337" s="15"/>
     </row>
@@ -7170,15 +7163,15 @@
       <c r="A338" s="35"/>
       <c r="B338" s="32"/>
       <c r="C338" s="24" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D338" s="30"/>
       <c r="E338" s="30"/>
-      <c r="F338" s="30"/>
+      <c r="F338" s="30" t="s">
+        <v>8</v>
+      </c>
       <c r="G338" s="30"/>
-      <c r="H338" s="30" t="s">
-        <v>8</v>
-      </c>
+      <c r="H338" s="30"/>
       <c r="I338" s="15"/>
       <c r="J338" s="15"/>
     </row>
@@ -7186,14 +7179,14 @@
       <c r="A339" s="35"/>
       <c r="B339" s="32"/>
       <c r="C339" s="24" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D339" s="30"/>
       <c r="E339" s="30"/>
-      <c r="F339" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="G339" s="30"/>
+      <c r="F339" s="30"/>
+      <c r="G339" s="30" t="s">
+        <v>8</v>
+      </c>
       <c r="H339" s="30"/>
       <c r="I339" s="15"/>
       <c r="J339" s="15"/>
@@ -7202,47 +7195,39 @@
       <c r="A340" s="35"/>
       <c r="B340" s="32"/>
       <c r="C340" s="24" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D340" s="30"/>
-      <c r="E340" s="30"/>
+      <c r="E340" s="30" t="s">
+        <v>8</v>
+      </c>
       <c r="F340" s="30"/>
-      <c r="G340" s="30" t="s">
-        <v>8</v>
-      </c>
+      <c r="G340" s="30"/>
       <c r="H340" s="30"/>
       <c r="I340" s="15"/>
       <c r="J340" s="15"/>
     </row>
     <row r="341" spans="1:10" ht="18">
-      <c r="A341" s="35"/>
-      <c r="B341" s="32"/>
+      <c r="A341" s="36"/>
+      <c r="B341" s="33"/>
       <c r="C341" s="24" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D341" s="30"/>
-      <c r="E341" s="30" t="s">
-        <v>8</v>
-      </c>
+      <c r="E341" s="30"/>
       <c r="F341" s="30"/>
       <c r="G341" s="30"/>
       <c r="H341" s="30"/>
       <c r="I341" s="15"/>
       <c r="J341" s="15"/>
     </row>
-    <row r="342" spans="1:10" ht="18">
-      <c r="A342" s="36"/>
-      <c r="B342" s="33"/>
-      <c r="C342" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="D342" s="30"/>
-      <c r="E342" s="30"/>
-      <c r="F342" s="30"/>
-      <c r="G342" s="30"/>
-      <c r="H342" s="30"/>
-      <c r="I342" s="15"/>
-      <c r="J342" s="15"/>
+    <row r="342" spans="1:10">
+      <c r="D342" s="2"/>
+      <c r="E342" s="2"/>
+      <c r="F342" s="2"/>
+      <c r="G342" s="2"/>
+      <c r="H342" s="2"/>
+      <c r="J342" s="2"/>
     </row>
     <row r="343" spans="1:10">
       <c r="D343" s="2"/>
@@ -7254,112 +7239,104 @@
     </row>
     <row r="344" spans="1:10">
       <c r="D344" s="2"/>
-      <c r="E344" s="2"/>
-      <c r="F344" s="2"/>
-      <c r="G344" s="2"/>
-      <c r="H344" s="2"/>
-      <c r="J344" s="2"/>
     </row>
     <row r="345" spans="1:10">
       <c r="D345" s="2"/>
     </row>
     <row r="346" spans="1:10">
+      <c r="A346" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B346" s="2"/>
+      <c r="C346" s="1"/>
       <c r="D346" s="2"/>
     </row>
     <row r="347" spans="1:10">
-      <c r="A347" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B347" s="2"/>
-      <c r="C347" s="1"/>
+      <c r="A347" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B347" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C347" s="8" t="s">
+        <v>28</v>
+      </c>
       <c r="D347" s="2"/>
     </row>
-    <row r="348" spans="1:10">
-      <c r="A348" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B348" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C348" s="8" t="s">
-        <v>28</v>
+    <row r="348" spans="1:10" ht="60">
+      <c r="A348" s="5">
+        <v>1</v>
+      </c>
+      <c r="B348" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C348" s="5">
+        <v>1</v>
       </c>
       <c r="D348" s="2"/>
     </row>
-    <row r="349" spans="1:10" ht="60">
-      <c r="A349" s="5">
-        <v>1</v>
+    <row r="349" spans="1:10" ht="30">
+      <c r="A349" s="6">
+        <v>2</v>
       </c>
       <c r="B349" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C349" s="5">
-        <v>1</v>
+        <v>29</v>
+      </c>
+      <c r="C349" s="6">
+        <v>2</v>
       </c>
       <c r="D349" s="2"/>
     </row>
     <row r="350" spans="1:10" ht="30">
       <c r="A350" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B350" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C350" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D350" s="2"/>
     </row>
     <row r="351" spans="1:10" ht="30">
       <c r="A351" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B351" s="4" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C351" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D351" s="2"/>
     </row>
     <row r="352" spans="1:10" ht="30">
       <c r="A352" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B352" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C352" s="6">
-        <v>4</v>
-      </c>
-      <c r="D352" s="2"/>
-    </row>
-    <row r="353" spans="1:3" ht="30">
-      <c r="A353" s="6">
-        <v>5</v>
-      </c>
-      <c r="B353" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C353" s="6">
         <v>5</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="B332:B342"/>
-    <mergeCell ref="A332:A342"/>
+    <mergeCell ref="B331:B341"/>
+    <mergeCell ref="A331:A341"/>
     <mergeCell ref="B3:B6"/>
     <mergeCell ref="B7:B115"/>
     <mergeCell ref="A7:A115"/>
     <mergeCell ref="A3:A6"/>
-    <mergeCell ref="B194:B331"/>
-    <mergeCell ref="A194:A331"/>
+    <mergeCell ref="B194:B330"/>
+    <mergeCell ref="A194:A330"/>
     <mergeCell ref="B117:B193"/>
     <mergeCell ref="A117:A193"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D343:D350 D2:H342">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D342:D349 D2:H341">
       <formula1>"O, "</formula1>
     </dataValidation>
   </dataValidations>

--- a/trunk/TSMT_Tasksheet.xlsx
+++ b/trunk/TSMT_Tasksheet.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tri Le Nguyen Huu\Desktop\TSMT\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9045"/>
   </bookViews>
@@ -21,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="274">
   <si>
     <t>No.</t>
   </si>
@@ -810,6 +805,39 @@
   </si>
   <si>
     <t>Write Test case</t>
+  </si>
+  <si>
+    <t>Gest_ViewStatistic</t>
+  </si>
+  <si>
+    <t>Choose Lodge For Charity Exam</t>
+  </si>
+  <si>
+    <t>Charity_Notification</t>
+  </si>
+  <si>
+    <t>Sponsor_Notification</t>
+  </si>
+  <si>
+    <t>Volunteer_Notification</t>
+  </si>
+  <si>
+    <t>Candaite_Notification</t>
+  </si>
+  <si>
+    <t>Guest_View Statistic</t>
+  </si>
+  <si>
+    <t>Candidate_Notification</t>
+  </si>
+  <si>
+    <t>Charity_Pick up Candidate</t>
+  </si>
+  <si>
+    <t>Candaite_Pick up</t>
+  </si>
+  <si>
+    <t>Candidate_Pick up</t>
   </si>
 </sst>
 </file>
@@ -1135,7 +1163,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1170,7 +1198,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1379,11 +1407,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J352"/>
+  <dimension ref="A1:J368"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E63" sqref="E63"/>
+      <pane ySplit="1" topLeftCell="A236" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M313" sqref="M313"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1397,7 +1425,7 @@
     <col min="9" max="9" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="59.25">
+    <row r="1" spans="1:10" ht="60">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -1744,12 +1772,14 @@
     <row r="21" spans="1:10" ht="18">
       <c r="A21" s="37"/>
       <c r="B21" s="37"/>
-      <c r="C21" s="27" t="s">
-        <v>131</v>
+      <c r="C21" s="28" t="s">
+        <v>263</v>
       </c>
       <c r="D21" s="12"/>
       <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
+      <c r="F21" s="12" t="s">
+        <v>8</v>
+      </c>
       <c r="G21" s="12"/>
       <c r="H21" s="12"/>
       <c r="I21" s="15"/>
@@ -1758,12 +1788,10 @@
     <row r="22" spans="1:10" ht="18">
       <c r="A22" s="37"/>
       <c r="B22" s="37"/>
-      <c r="C22" s="28" t="s">
-        <v>145</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>8</v>
-      </c>
+      <c r="C22" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="D22" s="12"/>
       <c r="E22" s="12"/>
       <c r="F22" s="12"/>
       <c r="G22" s="12"/>
@@ -1775,7 +1803,7 @@
       <c r="A23" s="37"/>
       <c r="B23" s="37"/>
       <c r="C23" s="28" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D23" s="12" t="s">
         <v>8</v>
@@ -1791,7 +1819,7 @@
       <c r="A24" s="37"/>
       <c r="B24" s="37"/>
       <c r="C24" s="28" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D24" s="12" t="s">
         <v>8</v>
@@ -1807,7 +1835,7 @@
       <c r="A25" s="37"/>
       <c r="B25" s="37"/>
       <c r="C25" s="28" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D25" s="12" t="s">
         <v>8</v>
@@ -1823,7 +1851,7 @@
       <c r="A26" s="37"/>
       <c r="B26" s="37"/>
       <c r="C26" s="28" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D26" s="12" t="s">
         <v>8</v>
@@ -1839,7 +1867,7 @@
       <c r="A27" s="37"/>
       <c r="B27" s="37"/>
       <c r="C27" s="28" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D27" s="12" t="s">
         <v>8</v>
@@ -1855,7 +1883,7 @@
       <c r="A28" s="37"/>
       <c r="B28" s="37"/>
       <c r="C28" s="28" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D28" s="12" t="s">
         <v>8</v>
@@ -1871,14 +1899,14 @@
       <c r="A29" s="37"/>
       <c r="B29" s="37"/>
       <c r="C29" s="28" t="s">
-        <v>152</v>
-      </c>
-      <c r="D29" s="12"/>
+        <v>151</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>8</v>
+      </c>
       <c r="E29" s="12"/>
       <c r="F29" s="12"/>
-      <c r="G29" s="12" t="s">
-        <v>8</v>
-      </c>
+      <c r="G29" s="12"/>
       <c r="H29" s="12"/>
       <c r="I29" s="15"/>
       <c r="J29" s="15"/>
@@ -1886,13 +1914,15 @@
     <row r="30" spans="1:10" ht="18">
       <c r="A30" s="37"/>
       <c r="B30" s="37"/>
-      <c r="C30" s="29" t="s">
-        <v>132</v>
+      <c r="C30" s="28" t="s">
+        <v>152</v>
       </c>
       <c r="D30" s="12"/>
       <c r="E30" s="12"/>
       <c r="F30" s="12"/>
-      <c r="G30" s="12"/>
+      <c r="G30" s="12" t="s">
+        <v>8</v>
+      </c>
       <c r="H30" s="12"/>
       <c r="I30" s="15"/>
       <c r="J30" s="15"/>
@@ -1900,16 +1930,14 @@
     <row r="31" spans="1:10" ht="18">
       <c r="A31" s="37"/>
       <c r="B31" s="37"/>
-      <c r="C31" s="28" t="s">
-        <v>153</v>
+      <c r="C31" s="29" t="s">
+        <v>132</v>
       </c>
       <c r="D31" s="12"/>
       <c r="E31" s="12"/>
       <c r="F31" s="12"/>
       <c r="G31" s="12"/>
-      <c r="H31" s="12" t="s">
-        <v>8</v>
-      </c>
+      <c r="H31" s="12"/>
       <c r="I31" s="15"/>
       <c r="J31" s="15"/>
     </row>
@@ -1917,7 +1945,7 @@
       <c r="A32" s="37"/>
       <c r="B32" s="37"/>
       <c r="C32" s="28" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D32" s="12"/>
       <c r="E32" s="12"/>
@@ -1933,7 +1961,7 @@
       <c r="A33" s="37"/>
       <c r="B33" s="37"/>
       <c r="C33" s="28" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D33" s="12"/>
       <c r="E33" s="12"/>
@@ -1949,7 +1977,7 @@
       <c r="A34" s="37"/>
       <c r="B34" s="37"/>
       <c r="C34" s="28" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D34" s="12"/>
       <c r="E34" s="12"/>
@@ -1965,7 +1993,7 @@
       <c r="A35" s="37"/>
       <c r="B35" s="37"/>
       <c r="C35" s="28" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D35" s="12"/>
       <c r="E35" s="12"/>
@@ -1981,7 +2009,7 @@
       <c r="A36" s="37"/>
       <c r="B36" s="37"/>
       <c r="C36" s="28" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D36" s="12"/>
       <c r="E36" s="12"/>
@@ -1997,7 +2025,7 @@
       <c r="A37" s="37"/>
       <c r="B37" s="37"/>
       <c r="C37" s="28" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D37" s="12"/>
       <c r="E37" s="12"/>
@@ -2013,15 +2041,15 @@
       <c r="A38" s="37"/>
       <c r="B38" s="37"/>
       <c r="C38" s="28" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D38" s="12"/>
       <c r="E38" s="12"/>
-      <c r="F38" s="12"/>
+      <c r="F38" s="12" t="s">
+        <v>8</v>
+      </c>
       <c r="G38" s="12"/>
-      <c r="H38" s="12" t="s">
-        <v>8</v>
-      </c>
+      <c r="H38" s="12"/>
       <c r="I38" s="15"/>
       <c r="J38" s="15"/>
     </row>
@@ -2029,7 +2057,7 @@
       <c r="A39" s="37"/>
       <c r="B39" s="37"/>
       <c r="C39" s="28" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D39" s="12"/>
       <c r="E39" s="12"/>
@@ -2045,7 +2073,7 @@
       <c r="A40" s="37"/>
       <c r="B40" s="37"/>
       <c r="C40" s="28" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D40" s="12"/>
       <c r="E40" s="12"/>
@@ -2061,7 +2089,7 @@
       <c r="A41" s="37"/>
       <c r="B41" s="37"/>
       <c r="C41" s="28" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D41" s="12"/>
       <c r="E41" s="12"/>
@@ -2077,7 +2105,7 @@
       <c r="A42" s="37"/>
       <c r="B42" s="37"/>
       <c r="C42" s="28" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D42" s="12"/>
       <c r="E42" s="12"/>
@@ -2093,7 +2121,7 @@
       <c r="A43" s="37"/>
       <c r="B43" s="37"/>
       <c r="C43" s="28" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D43" s="12"/>
       <c r="E43" s="12"/>
@@ -2109,7 +2137,7 @@
       <c r="A44" s="37"/>
       <c r="B44" s="37"/>
       <c r="C44" s="28" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D44" s="12"/>
       <c r="E44" s="12"/>
@@ -2125,15 +2153,15 @@
       <c r="A45" s="37"/>
       <c r="B45" s="37"/>
       <c r="C45" s="28" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D45" s="12"/>
       <c r="E45" s="12"/>
       <c r="F45" s="12"/>
-      <c r="G45" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="H45" s="12"/>
+      <c r="G45" s="12"/>
+      <c r="H45" s="12" t="s">
+        <v>8</v>
+      </c>
       <c r="I45" s="15"/>
       <c r="J45" s="15"/>
     </row>
@@ -2141,14 +2169,14 @@
       <c r="A46" s="37"/>
       <c r="B46" s="37"/>
       <c r="C46" s="28" t="s">
-        <v>168</v>
+        <v>264</v>
       </c>
       <c r="D46" s="12"/>
       <c r="E46" s="12"/>
-      <c r="F46" s="12"/>
-      <c r="G46" s="12" t="s">
-        <v>8</v>
-      </c>
+      <c r="F46" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="G46" s="12"/>
       <c r="H46" s="12"/>
       <c r="I46" s="15"/>
       <c r="J46" s="15"/>
@@ -2157,7 +2185,7 @@
       <c r="A47" s="37"/>
       <c r="B47" s="37"/>
       <c r="C47" s="28" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D47" s="12"/>
       <c r="E47" s="12"/>
@@ -2173,7 +2201,7 @@
       <c r="A48" s="37"/>
       <c r="B48" s="37"/>
       <c r="C48" s="28" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D48" s="12"/>
       <c r="E48" s="12"/>
@@ -2189,15 +2217,15 @@
       <c r="A49" s="37"/>
       <c r="B49" s="37"/>
       <c r="C49" s="28" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D49" s="12"/>
       <c r="E49" s="12"/>
       <c r="F49" s="12"/>
-      <c r="G49" s="12"/>
-      <c r="H49" s="12" t="s">
-        <v>8</v>
-      </c>
+      <c r="G49" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="H49" s="12"/>
       <c r="I49" s="15"/>
       <c r="J49" s="15"/>
     </row>
@@ -2205,15 +2233,15 @@
       <c r="A50" s="37"/>
       <c r="B50" s="37"/>
       <c r="C50" s="28" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D50" s="12"/>
       <c r="E50" s="12"/>
       <c r="F50" s="12"/>
-      <c r="G50" s="12"/>
-      <c r="H50" s="12" t="s">
-        <v>8</v>
-      </c>
+      <c r="G50" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="H50" s="12"/>
       <c r="I50" s="15"/>
       <c r="J50" s="15"/>
     </row>
@@ -2221,7 +2249,7 @@
       <c r="A51" s="37"/>
       <c r="B51" s="37"/>
       <c r="C51" s="28" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D51" s="12"/>
       <c r="E51" s="12"/>
@@ -2237,7 +2265,7 @@
       <c r="A52" s="37"/>
       <c r="B52" s="37"/>
       <c r="C52" s="28" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D52" s="12"/>
       <c r="E52" s="12"/>
@@ -2253,7 +2281,7 @@
       <c r="A53" s="37"/>
       <c r="B53" s="37"/>
       <c r="C53" s="28" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D53" s="12"/>
       <c r="E53" s="12"/>
@@ -2269,7 +2297,7 @@
       <c r="A54" s="37"/>
       <c r="B54" s="37"/>
       <c r="C54" s="28" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D54" s="12"/>
       <c r="E54" s="12"/>
@@ -2285,7 +2313,7 @@
       <c r="A55" s="37"/>
       <c r="B55" s="37"/>
       <c r="C55" s="28" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D55" s="12"/>
       <c r="E55" s="12"/>
@@ -2301,7 +2329,7 @@
       <c r="A56" s="37"/>
       <c r="B56" s="37"/>
       <c r="C56" s="28" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D56" s="12"/>
       <c r="E56" s="12"/>
@@ -2317,7 +2345,7 @@
       <c r="A57" s="37"/>
       <c r="B57" s="37"/>
       <c r="C57" s="28" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D57" s="12"/>
       <c r="E57" s="12"/>
@@ -2333,7 +2361,7 @@
       <c r="A58" s="37"/>
       <c r="B58" s="37"/>
       <c r="C58" s="28" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D58" s="12"/>
       <c r="E58" s="12"/>
@@ -2349,15 +2377,15 @@
       <c r="A59" s="37"/>
       <c r="B59" s="37"/>
       <c r="C59" s="28" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D59" s="12"/>
       <c r="E59" s="12"/>
       <c r="F59" s="12"/>
-      <c r="G59" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="H59" s="12"/>
+      <c r="G59" s="12"/>
+      <c r="H59" s="12" t="s">
+        <v>8</v>
+      </c>
       <c r="I59" s="15"/>
       <c r="J59" s="15"/>
     </row>
@@ -2365,15 +2393,15 @@
       <c r="A60" s="37"/>
       <c r="B60" s="37"/>
       <c r="C60" s="28" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D60" s="12"/>
       <c r="E60" s="12"/>
       <c r="F60" s="12"/>
-      <c r="G60" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="H60" s="12"/>
+      <c r="G60" s="12"/>
+      <c r="H60" s="12" t="s">
+        <v>8</v>
+      </c>
       <c r="I60" s="15"/>
       <c r="J60" s="15"/>
     </row>
@@ -2524,12 +2552,14 @@
     <row r="70" spans="1:10" ht="18">
       <c r="A70" s="37"/>
       <c r="B70" s="37"/>
-      <c r="C70" s="29" t="s">
-        <v>134</v>
+      <c r="C70" s="28" t="s">
+        <v>265</v>
       </c>
       <c r="D70" s="12"/>
       <c r="E70" s="12"/>
-      <c r="F70" s="12"/>
+      <c r="F70" s="12" t="s">
+        <v>8</v>
+      </c>
       <c r="G70" s="12"/>
       <c r="H70" s="12"/>
       <c r="I70" s="15"/>
@@ -2539,14 +2569,16 @@
       <c r="A71" s="37"/>
       <c r="B71" s="37"/>
       <c r="C71" s="28" t="s">
-        <v>190</v>
+        <v>271</v>
       </c>
       <c r="D71" s="12"/>
       <c r="E71" s="12"/>
       <c r="F71" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="G71" s="12"/>
+      <c r="G71" s="12" t="s">
+        <v>8</v>
+      </c>
       <c r="H71" s="12"/>
       <c r="I71" s="15"/>
       <c r="J71" s="15"/>
@@ -2555,14 +2587,14 @@
       <c r="A72" s="37"/>
       <c r="B72" s="37"/>
       <c r="C72" s="28" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="D72" s="12"/>
       <c r="E72" s="12"/>
-      <c r="F72" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="G72" s="12"/>
+      <c r="F72" s="12"/>
+      <c r="G72" s="12" t="s">
+        <v>8</v>
+      </c>
       <c r="H72" s="12"/>
       <c r="I72" s="15"/>
       <c r="J72" s="15"/>
@@ -2571,14 +2603,14 @@
       <c r="A73" s="37"/>
       <c r="B73" s="37"/>
       <c r="C73" s="28" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="D73" s="12"/>
       <c r="E73" s="12"/>
-      <c r="F73" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="G73" s="12"/>
+      <c r="F73" s="12"/>
+      <c r="G73" s="12" t="s">
+        <v>8</v>
+      </c>
       <c r="H73" s="12"/>
       <c r="I73" s="15"/>
       <c r="J73" s="15"/>
@@ -2586,14 +2618,12 @@
     <row r="74" spans="1:10" ht="18">
       <c r="A74" s="37"/>
       <c r="B74" s="37"/>
-      <c r="C74" s="28" t="s">
-        <v>193</v>
+      <c r="C74" s="29" t="s">
+        <v>134</v>
       </c>
       <c r="D74" s="12"/>
       <c r="E74" s="12"/>
-      <c r="F74" s="12" t="s">
-        <v>8</v>
-      </c>
+      <c r="F74" s="12"/>
       <c r="G74" s="12"/>
       <c r="H74" s="12"/>
       <c r="I74" s="15"/>
@@ -2603,7 +2633,7 @@
       <c r="A75" s="37"/>
       <c r="B75" s="37"/>
       <c r="C75" s="28" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="D75" s="12"/>
       <c r="E75" s="12"/>
@@ -2619,7 +2649,7 @@
       <c r="A76" s="37"/>
       <c r="B76" s="37"/>
       <c r="C76" s="28" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D76" s="12"/>
       <c r="E76" s="12"/>
@@ -2635,7 +2665,7 @@
       <c r="A77" s="37"/>
       <c r="B77" s="37"/>
       <c r="C77" s="28" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="D77" s="12"/>
       <c r="E77" s="12"/>
@@ -2651,7 +2681,7 @@
       <c r="A78" s="37"/>
       <c r="B78" s="37"/>
       <c r="C78" s="28" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D78" s="12"/>
       <c r="E78" s="12"/>
@@ -2667,7 +2697,7 @@
       <c r="A79" s="37"/>
       <c r="B79" s="37"/>
       <c r="C79" s="28" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="D79" s="12"/>
       <c r="E79" s="12"/>
@@ -2683,7 +2713,7 @@
       <c r="A80" s="37"/>
       <c r="B80" s="37"/>
       <c r="C80" s="28" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="D80" s="12"/>
       <c r="E80" s="12"/>
@@ -2699,7 +2729,7 @@
       <c r="A81" s="37"/>
       <c r="B81" s="37"/>
       <c r="C81" s="28" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="D81" s="12"/>
       <c r="E81" s="12"/>
@@ -2715,7 +2745,7 @@
       <c r="A82" s="37"/>
       <c r="B82" s="37"/>
       <c r="C82" s="28" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D82" s="12"/>
       <c r="E82" s="12"/>
@@ -2731,7 +2761,7 @@
       <c r="A83" s="37"/>
       <c r="B83" s="37"/>
       <c r="C83" s="28" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="D83" s="12"/>
       <c r="E83" s="12"/>
@@ -2747,14 +2777,14 @@
       <c r="A84" s="37"/>
       <c r="B84" s="37"/>
       <c r="C84" s="28" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D84" s="12"/>
       <c r="E84" s="12"/>
-      <c r="F84" s="12"/>
-      <c r="G84" s="12" t="s">
-        <v>8</v>
-      </c>
+      <c r="F84" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="G84" s="12"/>
       <c r="H84" s="12"/>
       <c r="I84" s="15"/>
       <c r="J84" s="15"/>
@@ -2763,7 +2793,7 @@
       <c r="A85" s="37"/>
       <c r="B85" s="37"/>
       <c r="C85" s="28" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D85" s="12"/>
       <c r="E85" s="12"/>
@@ -2779,7 +2809,7 @@
       <c r="A86" s="37"/>
       <c r="B86" s="37"/>
       <c r="C86" s="28" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D86" s="12"/>
       <c r="E86" s="12"/>
@@ -2795,7 +2825,7 @@
       <c r="A87" s="37"/>
       <c r="B87" s="37"/>
       <c r="C87" s="28" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="D87" s="12"/>
       <c r="E87" s="12"/>
@@ -2811,14 +2841,14 @@
       <c r="A88" s="37"/>
       <c r="B88" s="37"/>
       <c r="C88" s="28" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D88" s="12"/>
       <c r="E88" s="12"/>
-      <c r="F88" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="G88" s="12"/>
+      <c r="F88" s="12"/>
+      <c r="G88" s="12" t="s">
+        <v>8</v>
+      </c>
       <c r="H88" s="12"/>
       <c r="I88" s="15"/>
       <c r="J88" s="15"/>
@@ -2827,7 +2857,7 @@
       <c r="A89" s="37"/>
       <c r="B89" s="37"/>
       <c r="C89" s="28" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="D89" s="12"/>
       <c r="E89" s="12"/>
@@ -2843,14 +2873,14 @@
       <c r="A90" s="37"/>
       <c r="B90" s="37"/>
       <c r="C90" s="28" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D90" s="12"/>
       <c r="E90" s="12"/>
-      <c r="F90" s="12"/>
-      <c r="G90" s="12" t="s">
-        <v>8</v>
-      </c>
+      <c r="F90" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="G90" s="12"/>
       <c r="H90" s="12"/>
       <c r="I90" s="15"/>
       <c r="J90" s="15"/>
@@ -2859,14 +2889,14 @@
       <c r="A91" s="37"/>
       <c r="B91" s="37"/>
       <c r="C91" s="28" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="D91" s="12"/>
       <c r="E91" s="12"/>
-      <c r="F91" s="12"/>
-      <c r="G91" s="12" t="s">
-        <v>8</v>
-      </c>
+      <c r="F91" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="G91" s="12"/>
       <c r="H91" s="12"/>
       <c r="I91" s="15"/>
       <c r="J91" s="15"/>
@@ -2875,14 +2905,14 @@
       <c r="A92" s="37"/>
       <c r="B92" s="37"/>
       <c r="C92" s="28" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="D92" s="12"/>
       <c r="E92" s="12"/>
-      <c r="F92" s="12"/>
-      <c r="G92" s="12" t="s">
-        <v>8</v>
-      </c>
+      <c r="F92" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="G92" s="12"/>
       <c r="H92" s="12"/>
       <c r="I92" s="15"/>
       <c r="J92" s="15"/>
@@ -2891,14 +2921,14 @@
       <c r="A93" s="37"/>
       <c r="B93" s="37"/>
       <c r="C93" s="28" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="D93" s="12"/>
       <c r="E93" s="12"/>
-      <c r="F93" s="12"/>
-      <c r="G93" s="12" t="s">
-        <v>8</v>
-      </c>
+      <c r="F93" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="G93" s="12"/>
       <c r="H93" s="12"/>
       <c r="I93" s="15"/>
       <c r="J93" s="15"/>
@@ -2907,14 +2937,14 @@
       <c r="A94" s="37"/>
       <c r="B94" s="37"/>
       <c r="C94" s="28" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D94" s="12"/>
       <c r="E94" s="12"/>
-      <c r="F94" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="G94" s="12"/>
+      <c r="F94" s="12"/>
+      <c r="G94" s="12" t="s">
+        <v>8</v>
+      </c>
       <c r="H94" s="12"/>
       <c r="I94" s="15"/>
       <c r="J94" s="15"/>
@@ -2923,14 +2953,14 @@
       <c r="A95" s="37"/>
       <c r="B95" s="37"/>
       <c r="C95" s="28" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="D95" s="12"/>
       <c r="E95" s="12"/>
-      <c r="F95" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="G95" s="12"/>
+      <c r="F95" s="12"/>
+      <c r="G95" s="12" t="s">
+        <v>8</v>
+      </c>
       <c r="H95" s="12"/>
       <c r="I95" s="15"/>
       <c r="J95" s="15"/>
@@ -2938,13 +2968,15 @@
     <row r="96" spans="1:10" ht="18">
       <c r="A96" s="37"/>
       <c r="B96" s="37"/>
-      <c r="C96" s="29" t="s">
-        <v>133</v>
+      <c r="C96" s="28" t="s">
+        <v>211</v>
       </c>
       <c r="D96" s="12"/>
       <c r="E96" s="12"/>
       <c r="F96" s="12"/>
-      <c r="G96" s="12"/>
+      <c r="G96" s="12" t="s">
+        <v>8</v>
+      </c>
       <c r="H96" s="12"/>
       <c r="I96" s="15"/>
       <c r="J96" s="15"/>
@@ -2953,7 +2985,7 @@
       <c r="A97" s="37"/>
       <c r="B97" s="37"/>
       <c r="C97" s="28" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D97" s="12"/>
       <c r="E97" s="12"/>
@@ -2969,14 +3001,14 @@
       <c r="A98" s="37"/>
       <c r="B98" s="37"/>
       <c r="C98" s="28" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D98" s="12"/>
       <c r="E98" s="12"/>
-      <c r="F98" s="12"/>
-      <c r="G98" s="12" t="s">
-        <v>8</v>
-      </c>
+      <c r="F98" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="G98" s="12"/>
       <c r="H98" s="12"/>
       <c r="I98" s="15"/>
       <c r="J98" s="15"/>
@@ -2985,14 +3017,14 @@
       <c r="A99" s="37"/>
       <c r="B99" s="37"/>
       <c r="C99" s="28" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D99" s="12"/>
       <c r="E99" s="12"/>
-      <c r="F99" s="12"/>
-      <c r="G99" s="12" t="s">
-        <v>8</v>
-      </c>
+      <c r="F99" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="G99" s="12"/>
       <c r="H99" s="12"/>
       <c r="I99" s="15"/>
       <c r="J99" s="15"/>
@@ -3001,14 +3033,14 @@
       <c r="A100" s="37"/>
       <c r="B100" s="37"/>
       <c r="C100" s="28" t="s">
-        <v>218</v>
+        <v>266</v>
       </c>
       <c r="D100" s="12"/>
       <c r="E100" s="12"/>
-      <c r="F100" s="12"/>
-      <c r="G100" s="12" t="s">
-        <v>8</v>
-      </c>
+      <c r="F100" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="G100" s="12"/>
       <c r="H100" s="12"/>
       <c r="I100" s="15"/>
       <c r="J100" s="15"/>
@@ -3016,15 +3048,13 @@
     <row r="101" spans="1:10" ht="18">
       <c r="A101" s="37"/>
       <c r="B101" s="37"/>
-      <c r="C101" s="28" t="s">
-        <v>219</v>
+      <c r="C101" s="29" t="s">
+        <v>133</v>
       </c>
       <c r="D101" s="12"/>
       <c r="E101" s="12"/>
       <c r="F101" s="12"/>
-      <c r="G101" s="12" t="s">
-        <v>8</v>
-      </c>
+      <c r="G101" s="12"/>
       <c r="H101" s="12"/>
       <c r="I101" s="15"/>
       <c r="J101" s="15"/>
@@ -3033,7 +3063,7 @@
       <c r="A102" s="37"/>
       <c r="B102" s="37"/>
       <c r="C102" s="28" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="D102" s="12"/>
       <c r="E102" s="12"/>
@@ -3048,13 +3078,15 @@
     <row r="103" spans="1:10" ht="18">
       <c r="A103" s="37"/>
       <c r="B103" s="37"/>
-      <c r="C103" s="29" t="s">
-        <v>135</v>
+      <c r="C103" s="28" t="s">
+        <v>216</v>
       </c>
       <c r="D103" s="12"/>
       <c r="E103" s="12"/>
       <c r="F103" s="12"/>
-      <c r="G103" s="12"/>
+      <c r="G103" s="12" t="s">
+        <v>8</v>
+      </c>
       <c r="H103" s="12"/>
       <c r="I103" s="15"/>
       <c r="J103" s="15"/>
@@ -3063,14 +3095,14 @@
       <c r="A104" s="37"/>
       <c r="B104" s="37"/>
       <c r="C104" s="28" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D104" s="12"/>
-      <c r="E104" s="12" t="s">
-        <v>8</v>
-      </c>
+      <c r="E104" s="12"/>
       <c r="F104" s="12"/>
-      <c r="G104" s="12"/>
+      <c r="G104" s="12" t="s">
+        <v>8</v>
+      </c>
       <c r="H104" s="12"/>
       <c r="I104" s="15"/>
       <c r="J104" s="15"/>
@@ -3079,14 +3111,14 @@
       <c r="A105" s="37"/>
       <c r="B105" s="37"/>
       <c r="C105" s="28" t="s">
-        <v>255</v>
+        <v>218</v>
       </c>
       <c r="D105" s="12"/>
-      <c r="E105" s="12" t="s">
-        <v>8</v>
-      </c>
+      <c r="E105" s="12"/>
       <c r="F105" s="12"/>
-      <c r="G105" s="12"/>
+      <c r="G105" s="12" t="s">
+        <v>8</v>
+      </c>
       <c r="H105" s="12"/>
       <c r="I105" s="15"/>
       <c r="J105" s="15"/>
@@ -3095,14 +3127,14 @@
       <c r="A106" s="37"/>
       <c r="B106" s="37"/>
       <c r="C106" s="28" t="s">
-        <v>222</v>
-      </c>
-      <c r="D106" s="12" t="s">
-        <v>8</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="D106" s="12"/>
       <c r="E106" s="12"/>
       <c r="F106" s="12"/>
-      <c r="G106" s="12"/>
+      <c r="G106" s="12" t="s">
+        <v>8</v>
+      </c>
       <c r="H106" s="12"/>
       <c r="I106" s="15"/>
       <c r="J106" s="15"/>
@@ -3111,14 +3143,14 @@
       <c r="A107" s="37"/>
       <c r="B107" s="37"/>
       <c r="C107" s="28" t="s">
-        <v>223</v>
-      </c>
-      <c r="D107" s="12" t="s">
-        <v>8</v>
-      </c>
+        <v>220</v>
+      </c>
+      <c r="D107" s="12"/>
       <c r="E107" s="12"/>
       <c r="F107" s="12"/>
-      <c r="G107" s="12"/>
+      <c r="G107" s="12" t="s">
+        <v>8</v>
+      </c>
       <c r="H107" s="12"/>
       <c r="I107" s="15"/>
       <c r="J107" s="15"/>
@@ -3126,13 +3158,15 @@
     <row r="108" spans="1:10" ht="18">
       <c r="A108" s="37"/>
       <c r="B108" s="37"/>
-      <c r="C108" s="23" t="s">
-        <v>14</v>
+      <c r="C108" s="28" t="s">
+        <v>267</v>
       </c>
       <c r="D108" s="12"/>
       <c r="E108" s="12"/>
       <c r="F108" s="12"/>
-      <c r="G108" s="12"/>
+      <c r="G108" s="12" t="s">
+        <v>8</v>
+      </c>
       <c r="H108" s="12"/>
       <c r="I108" s="15"/>
       <c r="J108" s="15"/>
@@ -3140,13 +3174,11 @@
     <row r="109" spans="1:10" ht="18">
       <c r="A109" s="37"/>
       <c r="B109" s="37"/>
-      <c r="C109" s="28" t="s">
-        <v>15</v>
+      <c r="C109" s="29" t="s">
+        <v>135</v>
       </c>
       <c r="D109" s="12"/>
-      <c r="E109" s="12" t="s">
-        <v>8</v>
-      </c>
+      <c r="E109" s="12"/>
       <c r="F109" s="12"/>
       <c r="G109" s="12"/>
       <c r="H109" s="12"/>
@@ -3157,7 +3189,7 @@
       <c r="A110" s="37"/>
       <c r="B110" s="37"/>
       <c r="C110" s="28" t="s">
-        <v>16</v>
+        <v>221</v>
       </c>
       <c r="D110" s="12"/>
       <c r="E110" s="12" t="s">
@@ -3173,7 +3205,7 @@
       <c r="A111" s="37"/>
       <c r="B111" s="37"/>
       <c r="C111" s="28" t="s">
-        <v>36</v>
+        <v>255</v>
       </c>
       <c r="D111" s="12"/>
       <c r="E111" s="12" t="s">
@@ -3189,12 +3221,12 @@
       <c r="A112" s="37"/>
       <c r="B112" s="37"/>
       <c r="C112" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="D112" s="12"/>
-      <c r="E112" s="12" t="s">
-        <v>8</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="D112" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E112" s="12"/>
       <c r="F112" s="12"/>
       <c r="G112" s="12"/>
       <c r="H112" s="12"/>
@@ -3205,12 +3237,12 @@
       <c r="A113" s="37"/>
       <c r="B113" s="37"/>
       <c r="C113" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="D113" s="12"/>
-      <c r="E113" s="12" t="s">
-        <v>8</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="D113" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E113" s="12"/>
       <c r="F113" s="12"/>
       <c r="G113" s="12"/>
       <c r="H113" s="12"/>
@@ -3221,14 +3253,14 @@
       <c r="A114" s="37"/>
       <c r="B114" s="37"/>
       <c r="C114" s="28" t="s">
-        <v>39</v>
+        <v>268</v>
       </c>
       <c r="D114" s="12"/>
-      <c r="E114" s="12" t="s">
-        <v>8</v>
-      </c>
+      <c r="E114" s="12"/>
       <c r="F114" s="12"/>
-      <c r="G114" s="12"/>
+      <c r="G114" s="12" t="s">
+        <v>8</v>
+      </c>
       <c r="H114" s="12"/>
       <c r="I114" s="15"/>
       <c r="J114" s="15"/>
@@ -3236,33 +3268,29 @@
     <row r="115" spans="1:10" ht="18">
       <c r="A115" s="37"/>
       <c r="B115" s="37"/>
-      <c r="C115" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="D115" s="12" t="s">
-        <v>8</v>
-      </c>
+      <c r="C115" s="28" t="s">
+        <v>272</v>
+      </c>
+      <c r="D115" s="12"/>
       <c r="E115" s="12"/>
-      <c r="F115" s="12"/>
-      <c r="G115" s="12"/>
+      <c r="F115" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="G115" s="12" t="s">
+        <v>8</v>
+      </c>
       <c r="H115" s="12"/>
-      <c r="I115" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="J115" s="15">
-        <v>24</v>
-      </c>
+      <c r="I115" s="15"/>
+      <c r="J115" s="15"/>
     </row>
     <row r="116" spans="1:10" ht="18">
-      <c r="A116" s="17"/>
-      <c r="B116" s="17"/>
-      <c r="C116" s="18" t="s">
-        <v>41</v>
+      <c r="A116" s="37"/>
+      <c r="B116" s="37"/>
+      <c r="C116" s="23" t="s">
+        <v>14</v>
       </c>
       <c r="D116" s="12"/>
-      <c r="E116" s="12" t="s">
-        <v>8</v>
-      </c>
+      <c r="E116" s="12"/>
       <c r="F116" s="12"/>
       <c r="G116" s="12"/>
       <c r="H116" s="12"/>
@@ -3270,14 +3298,10 @@
       <c r="J116" s="15"/>
     </row>
     <row r="117" spans="1:10" ht="18">
-      <c r="A117" s="32">
-        <v>4</v>
-      </c>
-      <c r="B117" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="C117" s="14" t="s">
-        <v>40</v>
+      <c r="A117" s="37"/>
+      <c r="B117" s="37"/>
+      <c r="C117" s="28" t="s">
+        <v>15</v>
       </c>
       <c r="D117" s="12"/>
       <c r="E117" s="12" t="s">
@@ -3290,67 +3314,63 @@
       <c r="J117" s="15"/>
     </row>
     <row r="118" spans="1:10" ht="18">
-      <c r="A118" s="32"/>
-      <c r="B118" s="32"/>
-      <c r="C118" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="D118" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E118" s="12"/>
+      <c r="A118" s="37"/>
+      <c r="B118" s="37"/>
+      <c r="C118" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="D118" s="12"/>
+      <c r="E118" s="12" t="s">
+        <v>8</v>
+      </c>
       <c r="F118" s="12"/>
-      <c r="G118" s="12" t="s">
-        <v>8</v>
-      </c>
+      <c r="G118" s="12"/>
       <c r="H118" s="12"/>
       <c r="I118" s="15"/>
       <c r="J118" s="15"/>
     </row>
     <row r="119" spans="1:10" ht="18">
-      <c r="A119" s="32"/>
-      <c r="B119" s="32"/>
-      <c r="C119" s="16" t="s">
-        <v>22</v>
+      <c r="A119" s="37"/>
+      <c r="B119" s="37"/>
+      <c r="C119" s="28" t="s">
+        <v>36</v>
       </c>
       <c r="D119" s="12"/>
-      <c r="E119" s="12"/>
+      <c r="E119" s="12" t="s">
+        <v>8</v>
+      </c>
       <c r="F119" s="12"/>
-      <c r="G119" s="12" t="s">
-        <v>8</v>
-      </c>
+      <c r="G119" s="12"/>
       <c r="H119" s="12"/>
       <c r="I119" s="15"/>
       <c r="J119" s="15"/>
     </row>
     <row r="120" spans="1:10" ht="18">
-      <c r="A120" s="32"/>
-      <c r="B120" s="32"/>
-      <c r="C120" s="14" t="s">
-        <v>18</v>
+      <c r="A120" s="37"/>
+      <c r="B120" s="37"/>
+      <c r="C120" s="28" t="s">
+        <v>37</v>
       </c>
       <c r="D120" s="12"/>
-      <c r="E120" s="12"/>
+      <c r="E120" s="12" t="s">
+        <v>8</v>
+      </c>
       <c r="F120" s="12"/>
-      <c r="G120" s="12" t="s">
-        <v>8</v>
-      </c>
+      <c r="G120" s="12"/>
       <c r="H120" s="12"/>
-      <c r="I120" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="J120" s="15">
-        <v>7</v>
-      </c>
+      <c r="I120" s="15"/>
+      <c r="J120" s="15"/>
     </row>
     <row r="121" spans="1:10" ht="18">
-      <c r="A121" s="32"/>
-      <c r="B121" s="32"/>
-      <c r="C121" s="18" t="s">
-        <v>19</v>
+      <c r="A121" s="37"/>
+      <c r="B121" s="37"/>
+      <c r="C121" s="28" t="s">
+        <v>38</v>
       </c>
       <c r="D121" s="12"/>
-      <c r="E121" s="12"/>
+      <c r="E121" s="12" t="s">
+        <v>8</v>
+      </c>
       <c r="F121" s="12"/>
       <c r="G121" s="12"/>
       <c r="H121" s="12"/>
@@ -3358,13 +3378,15 @@
       <c r="J121" s="15"/>
     </row>
     <row r="122" spans="1:10" ht="18">
-      <c r="A122" s="32"/>
-      <c r="B122" s="32"/>
-      <c r="C122" s="29" t="s">
-        <v>69</v>
+      <c r="A122" s="37"/>
+      <c r="B122" s="37"/>
+      <c r="C122" s="28" t="s">
+        <v>39</v>
       </c>
       <c r="D122" s="12"/>
-      <c r="E122" s="12"/>
+      <c r="E122" s="12" t="s">
+        <v>8</v>
+      </c>
       <c r="F122" s="12"/>
       <c r="G122" s="12"/>
       <c r="H122" s="12"/>
@@ -3372,26 +3394,30 @@
       <c r="J122" s="15"/>
     </row>
     <row r="123" spans="1:10" ht="18">
-      <c r="A123" s="32"/>
-      <c r="B123" s="32"/>
-      <c r="C123" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="D123" s="12"/>
-      <c r="E123" s="12" t="s">
-        <v>8</v>
-      </c>
+      <c r="A123" s="37"/>
+      <c r="B123" s="37"/>
+      <c r="C123" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D123" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E123" s="12"/>
       <c r="F123" s="12"/>
       <c r="G123" s="12"/>
       <c r="H123" s="12"/>
-      <c r="I123" s="15"/>
-      <c r="J123" s="15"/>
+      <c r="I123" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="J123" s="15">
+        <v>24</v>
+      </c>
     </row>
     <row r="124" spans="1:10" ht="18">
-      <c r="A124" s="32"/>
-      <c r="B124" s="32"/>
-      <c r="C124" s="28" t="s">
-        <v>71</v>
+      <c r="A124" s="17"/>
+      <c r="B124" s="17"/>
+      <c r="C124" s="18" t="s">
+        <v>41</v>
       </c>
       <c r="D124" s="12"/>
       <c r="E124" s="12" t="s">
@@ -3404,10 +3430,14 @@
       <c r="J124" s="15"/>
     </row>
     <row r="125" spans="1:10" ht="18">
-      <c r="A125" s="32"/>
-      <c r="B125" s="32"/>
-      <c r="C125" s="28" t="s">
-        <v>72</v>
+      <c r="A125" s="32">
+        <v>4</v>
+      </c>
+      <c r="B125" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="C125" s="14" t="s">
+        <v>40</v>
       </c>
       <c r="D125" s="12"/>
       <c r="E125" s="12" t="s">
@@ -3422,15 +3452,17 @@
     <row r="126" spans="1:10" ht="18">
       <c r="A126" s="32"/>
       <c r="B126" s="32"/>
-      <c r="C126" s="28" t="s">
-        <v>73</v>
-      </c>
-      <c r="D126" s="12"/>
-      <c r="E126" s="12" t="s">
-        <v>8</v>
-      </c>
+      <c r="C126" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D126" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E126" s="12"/>
       <c r="F126" s="12"/>
-      <c r="G126" s="12"/>
+      <c r="G126" s="12" t="s">
+        <v>8</v>
+      </c>
       <c r="H126" s="12"/>
       <c r="I126" s="15"/>
       <c r="J126" s="15"/>
@@ -3438,15 +3470,15 @@
     <row r="127" spans="1:10" ht="18">
       <c r="A127" s="32"/>
       <c r="B127" s="32"/>
-      <c r="C127" s="28" t="s">
-        <v>74</v>
+      <c r="C127" s="16" t="s">
+        <v>22</v>
       </c>
       <c r="D127" s="12"/>
-      <c r="E127" s="12" t="s">
-        <v>8</v>
-      </c>
+      <c r="E127" s="12"/>
       <c r="F127" s="12"/>
-      <c r="G127" s="12"/>
+      <c r="G127" s="12" t="s">
+        <v>8</v>
+      </c>
       <c r="H127" s="12"/>
       <c r="I127" s="15"/>
       <c r="J127" s="15"/>
@@ -3454,29 +3486,31 @@
     <row r="128" spans="1:10" ht="18">
       <c r="A128" s="32"/>
       <c r="B128" s="32"/>
-      <c r="C128" s="28" t="s">
-        <v>75</v>
+      <c r="C128" s="14" t="s">
+        <v>18</v>
       </c>
       <c r="D128" s="12"/>
-      <c r="E128" s="12" t="s">
-        <v>8</v>
-      </c>
+      <c r="E128" s="12"/>
       <c r="F128" s="12"/>
-      <c r="G128" s="12"/>
+      <c r="G128" s="12" t="s">
+        <v>8</v>
+      </c>
       <c r="H128" s="12"/>
-      <c r="I128" s="15"/>
-      <c r="J128" s="15"/>
+      <c r="I128" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="J128" s="15">
+        <v>7</v>
+      </c>
     </row>
     <row r="129" spans="1:10" ht="18">
       <c r="A129" s="32"/>
       <c r="B129" s="32"/>
-      <c r="C129" s="28" t="s">
-        <v>76</v>
+      <c r="C129" s="18" t="s">
+        <v>19</v>
       </c>
       <c r="D129" s="12"/>
-      <c r="E129" s="12" t="s">
-        <v>8</v>
-      </c>
+      <c r="E129" s="12"/>
       <c r="F129" s="12"/>
       <c r="G129" s="12"/>
       <c r="H129" s="12"/>
@@ -3486,13 +3520,11 @@
     <row r="130" spans="1:10" ht="18">
       <c r="A130" s="32"/>
       <c r="B130" s="32"/>
-      <c r="C130" s="28" t="s">
-        <v>77</v>
+      <c r="C130" s="29" t="s">
+        <v>69</v>
       </c>
       <c r="D130" s="12"/>
-      <c r="E130" s="12" t="s">
-        <v>8</v>
-      </c>
+      <c r="E130" s="12"/>
       <c r="F130" s="12"/>
       <c r="G130" s="12"/>
       <c r="H130" s="12"/>
@@ -3503,7 +3535,7 @@
       <c r="A131" s="32"/>
       <c r="B131" s="32"/>
       <c r="C131" s="28" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="D131" s="12"/>
       <c r="E131" s="12" t="s">
@@ -3519,7 +3551,7 @@
       <c r="A132" s="32"/>
       <c r="B132" s="32"/>
       <c r="C132" s="28" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="D132" s="12"/>
       <c r="E132" s="12" t="s">
@@ -3535,7 +3567,7 @@
       <c r="A133" s="32"/>
       <c r="B133" s="32"/>
       <c r="C133" s="28" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="D133" s="12"/>
       <c r="E133" s="12" t="s">
@@ -3551,7 +3583,7 @@
       <c r="A134" s="32"/>
       <c r="B134" s="32"/>
       <c r="C134" s="28" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="D134" s="12"/>
       <c r="E134" s="12" t="s">
@@ -3567,7 +3599,7 @@
       <c r="A135" s="32"/>
       <c r="B135" s="32"/>
       <c r="C135" s="28" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="D135" s="12"/>
       <c r="E135" s="12" t="s">
@@ -3583,7 +3615,7 @@
       <c r="A136" s="32"/>
       <c r="B136" s="32"/>
       <c r="C136" s="28" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="D136" s="12"/>
       <c r="E136" s="12" t="s">
@@ -3599,7 +3631,7 @@
       <c r="A137" s="32"/>
       <c r="B137" s="32"/>
       <c r="C137" s="28" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="D137" s="12"/>
       <c r="E137" s="12" t="s">
@@ -3615,7 +3647,7 @@
       <c r="A138" s="32"/>
       <c r="B138" s="32"/>
       <c r="C138" s="28" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="D138" s="12"/>
       <c r="E138" s="12" t="s">
@@ -3631,7 +3663,7 @@
       <c r="A139" s="32"/>
       <c r="B139" s="32"/>
       <c r="C139" s="28" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="D139" s="12"/>
       <c r="E139" s="12" t="s">
@@ -3647,7 +3679,7 @@
       <c r="A140" s="32"/>
       <c r="B140" s="32"/>
       <c r="C140" s="28" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="D140" s="12"/>
       <c r="E140" s="12" t="s">
@@ -3662,11 +3694,13 @@
     <row r="141" spans="1:10" ht="18">
       <c r="A141" s="32"/>
       <c r="B141" s="32"/>
-      <c r="C141" s="29" t="s">
-        <v>67</v>
+      <c r="C141" s="28" t="s">
+        <v>80</v>
       </c>
       <c r="D141" s="12"/>
-      <c r="E141" s="12"/>
+      <c r="E141" s="12" t="s">
+        <v>8</v>
+      </c>
       <c r="F141" s="12"/>
       <c r="G141" s="12"/>
       <c r="H141" s="12"/>
@@ -3677,15 +3711,15 @@
       <c r="A142" s="32"/>
       <c r="B142" s="32"/>
       <c r="C142" s="28" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="D142" s="12"/>
-      <c r="E142" s="12"/>
+      <c r="E142" s="12" t="s">
+        <v>8</v>
+      </c>
       <c r="F142" s="12"/>
       <c r="G142" s="12"/>
-      <c r="H142" s="12" t="s">
-        <v>8</v>
-      </c>
+      <c r="H142" s="12"/>
       <c r="I142" s="15"/>
       <c r="J142" s="15"/>
     </row>
@@ -3693,15 +3727,15 @@
       <c r="A143" s="32"/>
       <c r="B143" s="32"/>
       <c r="C143" s="28" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="D143" s="12"/>
-      <c r="E143" s="12"/>
+      <c r="E143" s="12" t="s">
+        <v>8</v>
+      </c>
       <c r="F143" s="12"/>
       <c r="G143" s="12"/>
-      <c r="H143" s="12" t="s">
-        <v>8</v>
-      </c>
+      <c r="H143" s="12"/>
       <c r="I143" s="15"/>
       <c r="J143" s="15"/>
     </row>
@@ -3709,15 +3743,15 @@
       <c r="A144" s="32"/>
       <c r="B144" s="32"/>
       <c r="C144" s="28" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="D144" s="12"/>
-      <c r="E144" s="12"/>
+      <c r="E144" s="12" t="s">
+        <v>8</v>
+      </c>
       <c r="F144" s="12"/>
       <c r="G144" s="12"/>
-      <c r="H144" s="12" t="s">
-        <v>8</v>
-      </c>
+      <c r="H144" s="12"/>
       <c r="I144" s="15"/>
       <c r="J144" s="15"/>
     </row>
@@ -3725,15 +3759,15 @@
       <c r="A145" s="32"/>
       <c r="B145" s="32"/>
       <c r="C145" s="28" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="D145" s="12"/>
-      <c r="E145" s="12"/>
+      <c r="E145" s="12" t="s">
+        <v>8</v>
+      </c>
       <c r="F145" s="12"/>
       <c r="G145" s="12"/>
-      <c r="H145" s="12" t="s">
-        <v>8</v>
-      </c>
+      <c r="H145" s="12"/>
       <c r="I145" s="15"/>
       <c r="J145" s="15"/>
     </row>
@@ -3741,15 +3775,15 @@
       <c r="A146" s="32"/>
       <c r="B146" s="32"/>
       <c r="C146" s="28" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="D146" s="12"/>
-      <c r="E146" s="12"/>
+      <c r="E146" s="12" t="s">
+        <v>8</v>
+      </c>
       <c r="F146" s="12"/>
       <c r="G146" s="12"/>
-      <c r="H146" s="12" t="s">
-        <v>8</v>
-      </c>
+      <c r="H146" s="12"/>
       <c r="I146" s="15"/>
       <c r="J146" s="15"/>
     </row>
@@ -3757,15 +3791,15 @@
       <c r="A147" s="32"/>
       <c r="B147" s="32"/>
       <c r="C147" s="28" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="D147" s="12"/>
-      <c r="E147" s="12"/>
+      <c r="E147" s="12" t="s">
+        <v>8</v>
+      </c>
       <c r="F147" s="12"/>
       <c r="G147" s="12"/>
-      <c r="H147" s="12" t="s">
-        <v>8</v>
-      </c>
+      <c r="H147" s="12"/>
       <c r="I147" s="15"/>
       <c r="J147" s="15"/>
     </row>
@@ -3773,31 +3807,29 @@
       <c r="A148" s="32"/>
       <c r="B148" s="32"/>
       <c r="C148" s="28" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="D148" s="12"/>
-      <c r="E148" s="12"/>
+      <c r="E148" s="12" t="s">
+        <v>8</v>
+      </c>
       <c r="F148" s="12"/>
       <c r="G148" s="12"/>
-      <c r="H148" s="12" t="s">
-        <v>8</v>
-      </c>
+      <c r="H148" s="12"/>
       <c r="I148" s="15"/>
       <c r="J148" s="15"/>
     </row>
     <row r="149" spans="1:10" ht="18">
       <c r="A149" s="32"/>
       <c r="B149" s="32"/>
-      <c r="C149" s="28" t="s">
-        <v>95</v>
+      <c r="C149" s="29" t="s">
+        <v>67</v>
       </c>
       <c r="D149" s="12"/>
       <c r="E149" s="12"/>
       <c r="F149" s="12"/>
       <c r="G149" s="12"/>
-      <c r="H149" s="12" t="s">
-        <v>8</v>
-      </c>
+      <c r="H149" s="12"/>
       <c r="I149" s="15"/>
       <c r="J149" s="15"/>
     </row>
@@ -3805,7 +3837,7 @@
       <c r="A150" s="32"/>
       <c r="B150" s="32"/>
       <c r="C150" s="28" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="D150" s="12"/>
       <c r="E150" s="12"/>
@@ -3821,7 +3853,7 @@
       <c r="A151" s="32"/>
       <c r="B151" s="32"/>
       <c r="C151" s="28" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="D151" s="12"/>
       <c r="E151" s="12"/>
@@ -3837,7 +3869,7 @@
       <c r="A152" s="32"/>
       <c r="B152" s="32"/>
       <c r="C152" s="28" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="D152" s="12"/>
       <c r="E152" s="12"/>
@@ -3853,7 +3885,7 @@
       <c r="A153" s="32"/>
       <c r="B153" s="32"/>
       <c r="C153" s="28" t="s">
-        <v>117</v>
+        <v>91</v>
       </c>
       <c r="D153" s="12"/>
       <c r="E153" s="12"/>
@@ -3869,7 +3901,7 @@
       <c r="A154" s="32"/>
       <c r="B154" s="32"/>
       <c r="C154" s="28" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="D154" s="12"/>
       <c r="E154" s="12"/>
@@ -3885,7 +3917,7 @@
       <c r="A155" s="32"/>
       <c r="B155" s="32"/>
       <c r="C155" s="28" t="s">
-        <v>118</v>
+        <v>93</v>
       </c>
       <c r="D155" s="12"/>
       <c r="E155" s="12"/>
@@ -3901,7 +3933,7 @@
       <c r="A156" s="32"/>
       <c r="B156" s="32"/>
       <c r="C156" s="28" t="s">
-        <v>119</v>
+        <v>94</v>
       </c>
       <c r="D156" s="12"/>
       <c r="E156" s="12"/>
@@ -3917,7 +3949,7 @@
       <c r="A157" s="32"/>
       <c r="B157" s="32"/>
       <c r="C157" s="28" t="s">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="D157" s="12"/>
       <c r="E157" s="12"/>
@@ -3933,7 +3965,7 @@
       <c r="A158" s="32"/>
       <c r="B158" s="32"/>
       <c r="C158" s="28" t="s">
-        <v>121</v>
+        <v>96</v>
       </c>
       <c r="D158" s="12"/>
       <c r="E158" s="12"/>
@@ -3949,15 +3981,15 @@
       <c r="A159" s="32"/>
       <c r="B159" s="32"/>
       <c r="C159" s="28" t="s">
-        <v>122</v>
+        <v>97</v>
       </c>
       <c r="D159" s="12"/>
       <c r="E159" s="12"/>
       <c r="F159" s="12"/>
-      <c r="G159" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="H159" s="12"/>
+      <c r="G159" s="12"/>
+      <c r="H159" s="12" t="s">
+        <v>8</v>
+      </c>
       <c r="I159" s="15"/>
       <c r="J159" s="15"/>
     </row>
@@ -3965,29 +3997,31 @@
       <c r="A160" s="32"/>
       <c r="B160" s="32"/>
       <c r="C160" s="28" t="s">
-        <v>123</v>
+        <v>98</v>
       </c>
       <c r="D160" s="12"/>
       <c r="E160" s="12"/>
       <c r="F160" s="12"/>
-      <c r="G160" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="H160" s="12"/>
+      <c r="G160" s="12"/>
+      <c r="H160" s="12" t="s">
+        <v>8</v>
+      </c>
       <c r="I160" s="15"/>
       <c r="J160" s="15"/>
     </row>
     <row r="161" spans="1:10" ht="18">
       <c r="A161" s="32"/>
       <c r="B161" s="32"/>
-      <c r="C161" s="29" t="s">
-        <v>68</v>
+      <c r="C161" s="28" t="s">
+        <v>117</v>
       </c>
       <c r="D161" s="12"/>
       <c r="E161" s="12"/>
       <c r="F161" s="12"/>
       <c r="G161" s="12"/>
-      <c r="H161" s="12"/>
+      <c r="H161" s="12" t="s">
+        <v>8</v>
+      </c>
       <c r="I161" s="15"/>
       <c r="J161" s="15"/>
     </row>
@@ -3995,15 +4029,15 @@
       <c r="A162" s="32"/>
       <c r="B162" s="32"/>
       <c r="C162" s="28" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="D162" s="12"/>
       <c r="E162" s="12"/>
-      <c r="F162" s="12" t="s">
-        <v>8</v>
-      </c>
+      <c r="F162" s="12"/>
       <c r="G162" s="12"/>
-      <c r="H162" s="12"/>
+      <c r="H162" s="12" t="s">
+        <v>8</v>
+      </c>
       <c r="I162" s="15"/>
       <c r="J162" s="15"/>
     </row>
@@ -4011,15 +4045,15 @@
       <c r="A163" s="32"/>
       <c r="B163" s="32"/>
       <c r="C163" s="28" t="s">
-        <v>89</v>
+        <v>118</v>
       </c>
       <c r="D163" s="12"/>
       <c r="E163" s="12"/>
-      <c r="F163" s="12" t="s">
-        <v>8</v>
-      </c>
+      <c r="F163" s="12"/>
       <c r="G163" s="12"/>
-      <c r="H163" s="12"/>
+      <c r="H163" s="12" t="s">
+        <v>8</v>
+      </c>
       <c r="I163" s="15"/>
       <c r="J163" s="15"/>
     </row>
@@ -4027,15 +4061,15 @@
       <c r="A164" s="32"/>
       <c r="B164" s="32"/>
       <c r="C164" s="28" t="s">
-        <v>90</v>
+        <v>119</v>
       </c>
       <c r="D164" s="12"/>
       <c r="E164" s="12"/>
-      <c r="F164" s="12" t="s">
-        <v>8</v>
-      </c>
+      <c r="F164" s="12"/>
       <c r="G164" s="12"/>
-      <c r="H164" s="12"/>
+      <c r="H164" s="12" t="s">
+        <v>8</v>
+      </c>
       <c r="I164" s="15"/>
       <c r="J164" s="15"/>
     </row>
@@ -4043,15 +4077,15 @@
       <c r="A165" s="32"/>
       <c r="B165" s="32"/>
       <c r="C165" s="28" t="s">
-        <v>91</v>
+        <v>120</v>
       </c>
       <c r="D165" s="12"/>
       <c r="E165" s="12"/>
-      <c r="F165" s="12" t="s">
-        <v>8</v>
-      </c>
+      <c r="F165" s="12"/>
       <c r="G165" s="12"/>
-      <c r="H165" s="12"/>
+      <c r="H165" s="12" t="s">
+        <v>8</v>
+      </c>
       <c r="I165" s="15"/>
       <c r="J165" s="15"/>
     </row>
@@ -4059,15 +4093,15 @@
       <c r="A166" s="32"/>
       <c r="B166" s="32"/>
       <c r="C166" s="28" t="s">
-        <v>92</v>
+        <v>121</v>
       </c>
       <c r="D166" s="12"/>
       <c r="E166" s="12"/>
-      <c r="F166" s="12" t="s">
-        <v>8</v>
-      </c>
+      <c r="F166" s="12"/>
       <c r="G166" s="12"/>
-      <c r="H166" s="12"/>
+      <c r="H166" s="12" t="s">
+        <v>8</v>
+      </c>
       <c r="I166" s="15"/>
       <c r="J166" s="15"/>
     </row>
@@ -4075,14 +4109,14 @@
       <c r="A167" s="32"/>
       <c r="B167" s="32"/>
       <c r="C167" s="28" t="s">
-        <v>101</v>
+        <v>122</v>
       </c>
       <c r="D167" s="12"/>
       <c r="E167" s="12"/>
-      <c r="F167" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="G167" s="12"/>
+      <c r="F167" s="12"/>
+      <c r="G167" s="12" t="s">
+        <v>8</v>
+      </c>
       <c r="H167" s="12"/>
       <c r="I167" s="15"/>
       <c r="J167" s="15"/>
@@ -4091,14 +4125,14 @@
       <c r="A168" s="32"/>
       <c r="B168" s="32"/>
       <c r="C168" s="28" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="D168" s="12"/>
       <c r="E168" s="12"/>
-      <c r="F168" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="G168" s="12"/>
+      <c r="F168" s="12"/>
+      <c r="G168" s="12" t="s">
+        <v>8</v>
+      </c>
       <c r="H168" s="12"/>
       <c r="I168" s="15"/>
       <c r="J168" s="15"/>
@@ -4106,14 +4140,12 @@
     <row r="169" spans="1:10" ht="18">
       <c r="A169" s="32"/>
       <c r="B169" s="32"/>
-      <c r="C169" s="28" t="s">
-        <v>100</v>
+      <c r="C169" s="29" t="s">
+        <v>68</v>
       </c>
       <c r="D169" s="12"/>
       <c r="E169" s="12"/>
-      <c r="F169" s="12" t="s">
-        <v>8</v>
-      </c>
+      <c r="F169" s="12"/>
       <c r="G169" s="12"/>
       <c r="H169" s="12"/>
       <c r="I169" s="15"/>
@@ -4123,7 +4155,7 @@
       <c r="A170" s="32"/>
       <c r="B170" s="32"/>
       <c r="C170" s="28" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="D170" s="12"/>
       <c r="E170" s="12"/>
@@ -4139,7 +4171,7 @@
       <c r="A171" s="32"/>
       <c r="B171" s="32"/>
       <c r="C171" s="28" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="D171" s="12"/>
       <c r="E171" s="12"/>
@@ -4155,7 +4187,7 @@
       <c r="A172" s="32"/>
       <c r="B172" s="32"/>
       <c r="C172" s="28" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="D172" s="12"/>
       <c r="E172" s="12"/>
@@ -4171,7 +4203,7 @@
       <c r="A173" s="32"/>
       <c r="B173" s="32"/>
       <c r="C173" s="28" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="D173" s="12"/>
       <c r="E173" s="12"/>
@@ -4187,7 +4219,7 @@
       <c r="A174" s="32"/>
       <c r="B174" s="32"/>
       <c r="C174" s="28" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="D174" s="12"/>
       <c r="E174" s="12"/>
@@ -4203,7 +4235,7 @@
       <c r="A175" s="32"/>
       <c r="B175" s="32"/>
       <c r="C175" s="28" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="D175" s="12"/>
       <c r="E175" s="12"/>
@@ -4219,7 +4251,7 @@
       <c r="A176" s="32"/>
       <c r="B176" s="32"/>
       <c r="C176" s="28" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="D176" s="12"/>
       <c r="E176" s="12"/>
@@ -4235,7 +4267,7 @@
       <c r="A177" s="32"/>
       <c r="B177" s="32"/>
       <c r="C177" s="28" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="D177" s="12"/>
       <c r="E177" s="12"/>
@@ -4251,7 +4283,7 @@
       <c r="A178" s="32"/>
       <c r="B178" s="32"/>
       <c r="C178" s="28" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="D178" s="12"/>
       <c r="E178" s="12"/>
@@ -4267,7 +4299,7 @@
       <c r="A179" s="32"/>
       <c r="B179" s="32"/>
       <c r="C179" s="28" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="D179" s="12"/>
       <c r="E179" s="12"/>
@@ -4282,12 +4314,14 @@
     <row r="180" spans="1:10" ht="18">
       <c r="A180" s="32"/>
       <c r="B180" s="32"/>
-      <c r="C180" s="29" t="s">
-        <v>112</v>
+      <c r="C180" s="28" t="s">
+        <v>104</v>
       </c>
       <c r="D180" s="12"/>
       <c r="E180" s="12"/>
-      <c r="F180" s="12"/>
+      <c r="F180" s="12" t="s">
+        <v>8</v>
+      </c>
       <c r="G180" s="12"/>
       <c r="H180" s="12"/>
       <c r="I180" s="15"/>
@@ -4297,14 +4331,14 @@
       <c r="A181" s="32"/>
       <c r="B181" s="32"/>
       <c r="C181" s="28" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="D181" s="12"/>
       <c r="E181" s="12"/>
-      <c r="F181" s="12"/>
-      <c r="G181" s="12" t="s">
-        <v>8</v>
-      </c>
+      <c r="F181" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="G181" s="12"/>
       <c r="H181" s="12"/>
       <c r="I181" s="15"/>
       <c r="J181" s="15"/>
@@ -4313,14 +4347,14 @@
       <c r="A182" s="32"/>
       <c r="B182" s="32"/>
       <c r="C182" s="28" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="D182" s="12"/>
       <c r="E182" s="12"/>
-      <c r="F182" s="12"/>
-      <c r="G182" s="12" t="s">
-        <v>8</v>
-      </c>
+      <c r="F182" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="G182" s="12"/>
       <c r="H182" s="12"/>
       <c r="I182" s="15"/>
       <c r="J182" s="15"/>
@@ -4328,12 +4362,14 @@
     <row r="183" spans="1:10" ht="18">
       <c r="A183" s="32"/>
       <c r="B183" s="32"/>
-      <c r="C183" s="29" t="s">
-        <v>113</v>
+      <c r="C183" s="28" t="s">
+        <v>107</v>
       </c>
       <c r="D183" s="12"/>
       <c r="E183" s="12"/>
-      <c r="F183" s="12"/>
+      <c r="F183" s="12" t="s">
+        <v>8</v>
+      </c>
       <c r="G183" s="12"/>
       <c r="H183" s="12"/>
       <c r="I183" s="15"/>
@@ -4343,13 +4379,13 @@
       <c r="A184" s="32"/>
       <c r="B184" s="32"/>
       <c r="C184" s="28" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="D184" s="12"/>
-      <c r="E184" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F184" s="12"/>
+      <c r="E184" s="12"/>
+      <c r="F184" s="12" t="s">
+        <v>8</v>
+      </c>
       <c r="G184" s="12"/>
       <c r="H184" s="12"/>
       <c r="I184" s="15"/>
@@ -4359,13 +4395,13 @@
       <c r="A185" s="32"/>
       <c r="B185" s="32"/>
       <c r="C185" s="28" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="D185" s="12"/>
-      <c r="E185" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F185" s="12"/>
+      <c r="E185" s="12"/>
+      <c r="F185" s="12" t="s">
+        <v>8</v>
+      </c>
       <c r="G185" s="12"/>
       <c r="H185" s="12"/>
       <c r="I185" s="15"/>
@@ -4375,13 +4411,13 @@
       <c r="A186" s="32"/>
       <c r="B186" s="32"/>
       <c r="C186" s="28" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="D186" s="12"/>
-      <c r="E186" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F186" s="12"/>
+      <c r="E186" s="12"/>
+      <c r="F186" s="12" t="s">
+        <v>8</v>
+      </c>
       <c r="G186" s="12"/>
       <c r="H186" s="12"/>
       <c r="I186" s="15"/>
@@ -4391,13 +4427,13 @@
       <c r="A187" s="32"/>
       <c r="B187" s="32"/>
       <c r="C187" s="28" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="D187" s="12"/>
-      <c r="E187" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F187" s="12"/>
+      <c r="E187" s="12"/>
+      <c r="F187" s="12" t="s">
+        <v>8</v>
+      </c>
       <c r="G187" s="12"/>
       <c r="H187" s="12"/>
       <c r="I187" s="15"/>
@@ -4406,13 +4442,11 @@
     <row r="188" spans="1:10" ht="18">
       <c r="A188" s="32"/>
       <c r="B188" s="32"/>
-      <c r="C188" s="28" t="s">
-        <v>126</v>
+      <c r="C188" s="29" t="s">
+        <v>112</v>
       </c>
       <c r="D188" s="12"/>
-      <c r="E188" s="12" t="s">
-        <v>8</v>
-      </c>
+      <c r="E188" s="12"/>
       <c r="F188" s="12"/>
       <c r="G188" s="12"/>
       <c r="H188" s="12"/>
@@ -4423,14 +4457,14 @@
       <c r="A189" s="32"/>
       <c r="B189" s="32"/>
       <c r="C189" s="28" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="D189" s="12"/>
-      <c r="E189" s="12" t="s">
-        <v>8</v>
-      </c>
+      <c r="E189" s="12"/>
       <c r="F189" s="12"/>
-      <c r="G189" s="12"/>
+      <c r="G189" s="12" t="s">
+        <v>8</v>
+      </c>
       <c r="H189" s="12"/>
       <c r="I189" s="15"/>
       <c r="J189" s="15"/>
@@ -4439,14 +4473,14 @@
       <c r="A190" s="32"/>
       <c r="B190" s="32"/>
       <c r="C190" s="28" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="D190" s="12"/>
-      <c r="E190" s="12" t="s">
-        <v>8</v>
-      </c>
+      <c r="E190" s="12"/>
       <c r="F190" s="12"/>
-      <c r="G190" s="12"/>
+      <c r="G190" s="12" t="s">
+        <v>8</v>
+      </c>
       <c r="H190" s="12"/>
       <c r="I190" s="15"/>
       <c r="J190" s="15"/>
@@ -4454,13 +4488,11 @@
     <row r="191" spans="1:10" ht="18">
       <c r="A191" s="32"/>
       <c r="B191" s="32"/>
-      <c r="C191" s="28" t="s">
-        <v>129</v>
+      <c r="C191" s="29" t="s">
+        <v>113</v>
       </c>
       <c r="D191" s="12"/>
-      <c r="E191" s="12" t="s">
-        <v>8</v>
-      </c>
+      <c r="E191" s="12"/>
       <c r="F191" s="12"/>
       <c r="G191" s="12"/>
       <c r="H191" s="12"/>
@@ -4470,8 +4502,8 @@
     <row r="192" spans="1:10" ht="18">
       <c r="A192" s="32"/>
       <c r="B192" s="32"/>
-      <c r="C192" s="18" t="s">
-        <v>42</v>
+      <c r="C192" s="28" t="s">
+        <v>115</v>
       </c>
       <c r="D192" s="12"/>
       <c r="E192" s="12" t="s">
@@ -4486,33 +4518,29 @@
     <row r="193" spans="1:10" ht="18">
       <c r="A193" s="32"/>
       <c r="B193" s="32"/>
-      <c r="C193" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="D193" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E193" s="12"/>
+      <c r="C193" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="D193" s="12"/>
+      <c r="E193" s="12" t="s">
+        <v>8</v>
+      </c>
       <c r="F193" s="12"/>
       <c r="G193" s="12"/>
       <c r="H193" s="12"/>
-      <c r="I193" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="J193" s="15">
-        <v>26</v>
-      </c>
+      <c r="I193" s="15"/>
+      <c r="J193" s="15"/>
     </row>
     <row r="194" spans="1:10" ht="18">
-      <c r="A194" s="34"/>
-      <c r="B194" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="C194" s="16" t="s">
-        <v>261</v>
+      <c r="A194" s="32"/>
+      <c r="B194" s="32"/>
+      <c r="C194" s="28" t="s">
+        <v>124</v>
       </c>
       <c r="D194" s="12"/>
-      <c r="E194" s="12"/>
+      <c r="E194" s="12" t="s">
+        <v>8</v>
+      </c>
       <c r="F194" s="12"/>
       <c r="G194" s="12"/>
       <c r="H194" s="12"/>
@@ -4520,13 +4548,15 @@
       <c r="J194" s="15"/>
     </row>
     <row r="195" spans="1:10" ht="18">
-      <c r="A195" s="35"/>
-      <c r="B195" s="37"/>
-      <c r="C195" s="27" t="s">
-        <v>130</v>
+      <c r="A195" s="32"/>
+      <c r="B195" s="32"/>
+      <c r="C195" s="28" t="s">
+        <v>125</v>
       </c>
       <c r="D195" s="12"/>
-      <c r="E195" s="12"/>
+      <c r="E195" s="12" t="s">
+        <v>8</v>
+      </c>
       <c r="F195" s="12"/>
       <c r="G195" s="12"/>
       <c r="H195" s="12"/>
@@ -4534,10 +4564,10 @@
       <c r="J195" s="15"/>
     </row>
     <row r="196" spans="1:10" ht="18">
-      <c r="A196" s="35"/>
-      <c r="B196" s="37"/>
+      <c r="A196" s="32"/>
+      <c r="B196" s="32"/>
       <c r="C196" s="28" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="D196" s="12"/>
       <c r="E196" s="12" t="s">
@@ -4546,18 +4576,14 @@
       <c r="F196" s="12"/>
       <c r="G196" s="12"/>
       <c r="H196" s="12"/>
-      <c r="I196" s="15" t="s">
-        <v>224</v>
-      </c>
-      <c r="J196" s="15">
-        <v>2</v>
-      </c>
+      <c r="I196" s="15"/>
+      <c r="J196" s="15"/>
     </row>
     <row r="197" spans="1:10" ht="18">
-      <c r="A197" s="35"/>
-      <c r="B197" s="37"/>
+      <c r="A197" s="32"/>
+      <c r="B197" s="32"/>
       <c r="C197" s="28" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="D197" s="12"/>
       <c r="E197" s="12" t="s">
@@ -4566,18 +4592,14 @@
       <c r="F197" s="12"/>
       <c r="G197" s="12"/>
       <c r="H197" s="12"/>
-      <c r="I197" s="15" t="s">
-        <v>224</v>
-      </c>
-      <c r="J197" s="15">
-        <v>1</v>
-      </c>
+      <c r="I197" s="15"/>
+      <c r="J197" s="15"/>
     </row>
     <row r="198" spans="1:10" ht="18">
-      <c r="A198" s="35"/>
-      <c r="B198" s="37"/>
+      <c r="A198" s="32"/>
+      <c r="B198" s="32"/>
       <c r="C198" s="28" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="D198" s="12"/>
       <c r="E198" s="12" t="s">
@@ -4586,18 +4608,14 @@
       <c r="F198" s="12"/>
       <c r="G198" s="12"/>
       <c r="H198" s="12"/>
-      <c r="I198" s="15" t="s">
-        <v>224</v>
-      </c>
-      <c r="J198" s="15">
-        <v>2</v>
-      </c>
+      <c r="I198" s="15"/>
+      <c r="J198" s="15"/>
     </row>
     <row r="199" spans="1:10" ht="18">
-      <c r="A199" s="35"/>
-      <c r="B199" s="37"/>
+      <c r="A199" s="32"/>
+      <c r="B199" s="32"/>
       <c r="C199" s="28" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="D199" s="12"/>
       <c r="E199" s="12" t="s">
@@ -4606,18 +4624,14 @@
       <c r="F199" s="12"/>
       <c r="G199" s="12"/>
       <c r="H199" s="12"/>
-      <c r="I199" s="15" t="s">
-        <v>224</v>
-      </c>
-      <c r="J199" s="15">
-        <v>1</v>
-      </c>
+      <c r="I199" s="15"/>
+      <c r="J199" s="15"/>
     </row>
     <row r="200" spans="1:10" ht="18">
-      <c r="A200" s="35"/>
-      <c r="B200" s="37"/>
-      <c r="C200" s="28" t="s">
-        <v>140</v>
+      <c r="A200" s="32"/>
+      <c r="B200" s="32"/>
+      <c r="C200" s="18" t="s">
+        <v>42</v>
       </c>
       <c r="D200" s="12"/>
       <c r="E200" s="12" t="s">
@@ -4626,119 +4640,109 @@
       <c r="F200" s="12"/>
       <c r="G200" s="12"/>
       <c r="H200" s="12"/>
-      <c r="I200" s="15" t="s">
-        <v>224</v>
-      </c>
-      <c r="J200" s="15">
-        <v>1</v>
-      </c>
+      <c r="I200" s="15"/>
+      <c r="J200" s="15"/>
     </row>
     <row r="201" spans="1:10" ht="18">
-      <c r="A201" s="35"/>
-      <c r="B201" s="37"/>
-      <c r="C201" s="28" t="s">
-        <v>141</v>
-      </c>
-      <c r="D201" s="12"/>
-      <c r="E201" s="12" t="s">
-        <v>8</v>
-      </c>
+      <c r="A201" s="32"/>
+      <c r="B201" s="32"/>
+      <c r="C201" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="D201" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E201" s="12"/>
       <c r="F201" s="12"/>
       <c r="G201" s="12"/>
       <c r="H201" s="12"/>
       <c r="I201" s="15" t="s">
-        <v>224</v>
+        <v>49</v>
       </c>
       <c r="J201" s="15">
-        <v>2</v>
+        <v>26</v>
       </c>
     </row>
     <row r="202" spans="1:10" ht="18">
-      <c r="A202" s="35"/>
-      <c r="B202" s="37"/>
-      <c r="C202" s="28" t="s">
-        <v>142</v>
+      <c r="A202" s="34"/>
+      <c r="B202" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="C202" s="16" t="s">
+        <v>261</v>
       </c>
       <c r="D202" s="12"/>
-      <c r="E202" s="12" t="s">
-        <v>8</v>
-      </c>
+      <c r="E202" s="12"/>
       <c r="F202" s="12"/>
       <c r="G202" s="12"/>
       <c r="H202" s="12"/>
-      <c r="I202" s="15" t="s">
-        <v>224</v>
-      </c>
-      <c r="J202" s="15">
-        <v>2</v>
-      </c>
+      <c r="I202" s="15"/>
+      <c r="J202" s="15"/>
     </row>
     <row r="203" spans="1:10" ht="18">
       <c r="A203" s="35"/>
       <c r="B203" s="37"/>
-      <c r="C203" s="28" t="s">
-        <v>143</v>
+      <c r="C203" s="27" t="s">
+        <v>130</v>
       </c>
       <c r="D203" s="12"/>
       <c r="E203" s="12"/>
       <c r="F203" s="12"/>
-      <c r="G203" s="12" t="s">
-        <v>8</v>
-      </c>
+      <c r="G203" s="12"/>
       <c r="H203" s="12"/>
-      <c r="I203" s="15" t="s">
-        <v>224</v>
-      </c>
-      <c r="J203" s="15">
-        <v>1</v>
-      </c>
+      <c r="I203" s="15"/>
+      <c r="J203" s="15"/>
     </row>
     <row r="204" spans="1:10" ht="18">
       <c r="A204" s="35"/>
       <c r="B204" s="37"/>
       <c r="C204" s="28" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="D204" s="12"/>
-      <c r="E204" s="12"/>
+      <c r="E204" s="12" t="s">
+        <v>8</v>
+      </c>
       <c r="F204" s="12"/>
-      <c r="G204" s="12" t="s">
-        <v>8</v>
-      </c>
+      <c r="G204" s="12"/>
       <c r="H204" s="12"/>
       <c r="I204" s="15" t="s">
         <v>224</v>
       </c>
       <c r="J204" s="15">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:10" ht="18">
       <c r="A205" s="35"/>
       <c r="B205" s="37"/>
-      <c r="C205" s="27" t="s">
-        <v>131</v>
+      <c r="C205" s="28" t="s">
+        <v>137</v>
       </c>
       <c r="D205" s="12"/>
-      <c r="E205" s="12"/>
+      <c r="E205" s="12" t="s">
+        <v>8</v>
+      </c>
       <c r="F205" s="12"/>
       <c r="G205" s="12"/>
       <c r="H205" s="12"/>
       <c r="I205" s="15" t="s">
         <v>224</v>
       </c>
-      <c r="J205" s="15"/>
+      <c r="J205" s="15">
+        <v>1</v>
+      </c>
     </row>
     <row r="206" spans="1:10" ht="18">
       <c r="A206" s="35"/>
       <c r="B206" s="37"/>
       <c r="C206" s="28" t="s">
-        <v>145</v>
-      </c>
-      <c r="D206" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E206" s="12"/>
+        <v>138</v>
+      </c>
+      <c r="D206" s="12"/>
+      <c r="E206" s="12" t="s">
+        <v>8</v>
+      </c>
       <c r="F206" s="12"/>
       <c r="G206" s="12"/>
       <c r="H206" s="12"/>
@@ -4753,12 +4757,12 @@
       <c r="A207" s="35"/>
       <c r="B207" s="37"/>
       <c r="C207" s="28" t="s">
-        <v>146</v>
-      </c>
-      <c r="D207" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E207" s="12"/>
+        <v>139</v>
+      </c>
+      <c r="D207" s="12"/>
+      <c r="E207" s="12" t="s">
+        <v>8</v>
+      </c>
       <c r="F207" s="12"/>
       <c r="G207" s="12"/>
       <c r="H207" s="12"/>
@@ -4766,19 +4770,19 @@
         <v>224</v>
       </c>
       <c r="J207" s="15">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208" spans="1:10" ht="18">
       <c r="A208" s="35"/>
       <c r="B208" s="37"/>
       <c r="C208" s="28" t="s">
-        <v>147</v>
-      </c>
-      <c r="D208" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E208" s="12"/>
+        <v>140</v>
+      </c>
+      <c r="D208" s="12"/>
+      <c r="E208" s="12" t="s">
+        <v>8</v>
+      </c>
       <c r="F208" s="12"/>
       <c r="G208" s="12"/>
       <c r="H208" s="12"/>
@@ -4786,19 +4790,19 @@
         <v>224</v>
       </c>
       <c r="J208" s="15">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209" spans="1:10" ht="18">
       <c r="A209" s="35"/>
       <c r="B209" s="37"/>
       <c r="C209" s="28" t="s">
-        <v>148</v>
-      </c>
-      <c r="D209" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E209" s="12"/>
+        <v>141</v>
+      </c>
+      <c r="D209" s="12"/>
+      <c r="E209" s="12" t="s">
+        <v>8</v>
+      </c>
       <c r="F209" s="12"/>
       <c r="G209" s="12"/>
       <c r="H209" s="12"/>
@@ -4813,12 +4817,12 @@
       <c r="A210" s="35"/>
       <c r="B210" s="37"/>
       <c r="C210" s="28" t="s">
-        <v>149</v>
-      </c>
-      <c r="D210" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E210" s="12"/>
+        <v>142</v>
+      </c>
+      <c r="D210" s="12"/>
+      <c r="E210" s="12" t="s">
+        <v>8</v>
+      </c>
       <c r="F210" s="12"/>
       <c r="G210" s="12"/>
       <c r="H210" s="12"/>
@@ -4826,74 +4830,74 @@
         <v>224</v>
       </c>
       <c r="J210" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="211" spans="1:10" ht="18">
       <c r="A211" s="35"/>
       <c r="B211" s="37"/>
       <c r="C211" s="28" t="s">
-        <v>150</v>
-      </c>
-      <c r="D211" s="12" t="s">
-        <v>8</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="D211" s="12"/>
       <c r="E211" s="12"/>
       <c r="F211" s="12"/>
-      <c r="G211" s="12"/>
+      <c r="G211" s="12" t="s">
+        <v>8</v>
+      </c>
       <c r="H211" s="12"/>
       <c r="I211" s="15" t="s">
         <v>224</v>
       </c>
       <c r="J211" s="15">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="212" spans="1:10" ht="18">
       <c r="A212" s="35"/>
       <c r="B212" s="37"/>
       <c r="C212" s="28" t="s">
-        <v>151</v>
-      </c>
-      <c r="D212" s="12" t="s">
-        <v>8</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="D212" s="12"/>
       <c r="E212" s="12"/>
       <c r="F212" s="12"/>
-      <c r="G212" s="12"/>
+      <c r="G212" s="12" t="s">
+        <v>8</v>
+      </c>
       <c r="H212" s="12"/>
       <c r="I212" s="15" t="s">
         <v>224</v>
       </c>
       <c r="J212" s="15">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="213" spans="1:10" ht="18">
       <c r="A213" s="35"/>
       <c r="B213" s="37"/>
       <c r="C213" s="28" t="s">
-        <v>152</v>
+        <v>269</v>
       </c>
       <c r="D213" s="12"/>
       <c r="E213" s="12"/>
-      <c r="F213" s="12"/>
-      <c r="G213" s="12" t="s">
-        <v>8</v>
-      </c>
+      <c r="F213" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="G213" s="12"/>
       <c r="H213" s="12"/>
       <c r="I213" s="15" t="s">
         <v>224</v>
       </c>
       <c r="J213" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214" spans="1:10" ht="18">
       <c r="A214" s="35"/>
       <c r="B214" s="37"/>
-      <c r="C214" s="29" t="s">
-        <v>132</v>
+      <c r="C214" s="27" t="s">
+        <v>131</v>
       </c>
       <c r="D214" s="12"/>
       <c r="E214" s="12"/>
@@ -4909,15 +4913,15 @@
       <c r="A215" s="35"/>
       <c r="B215" s="37"/>
       <c r="C215" s="28" t="s">
-        <v>153</v>
-      </c>
-      <c r="D215" s="12"/>
+        <v>145</v>
+      </c>
+      <c r="D215" s="12" t="s">
+        <v>8</v>
+      </c>
       <c r="E215" s="12"/>
       <c r="F215" s="12"/>
       <c r="G215" s="12"/>
-      <c r="H215" s="12" t="s">
-        <v>8</v>
-      </c>
+      <c r="H215" s="12"/>
       <c r="I215" s="15" t="s">
         <v>224</v>
       </c>
@@ -4929,15 +4933,15 @@
       <c r="A216" s="35"/>
       <c r="B216" s="37"/>
       <c r="C216" s="28" t="s">
-        <v>154</v>
-      </c>
-      <c r="D216" s="12"/>
+        <v>146</v>
+      </c>
+      <c r="D216" s="12" t="s">
+        <v>8</v>
+      </c>
       <c r="E216" s="12"/>
       <c r="F216" s="12"/>
       <c r="G216" s="12"/>
-      <c r="H216" s="12" t="s">
-        <v>8</v>
-      </c>
+      <c r="H216" s="12"/>
       <c r="I216" s="15" t="s">
         <v>224</v>
       </c>
@@ -4949,15 +4953,15 @@
       <c r="A217" s="35"/>
       <c r="B217" s="37"/>
       <c r="C217" s="28" t="s">
-        <v>155</v>
-      </c>
-      <c r="D217" s="12"/>
+        <v>147</v>
+      </c>
+      <c r="D217" s="12" t="s">
+        <v>8</v>
+      </c>
       <c r="E217" s="12"/>
       <c r="F217" s="12"/>
       <c r="G217" s="12"/>
-      <c r="H217" s="12" t="s">
-        <v>8</v>
-      </c>
+      <c r="H217" s="12"/>
       <c r="I217" s="15" t="s">
         <v>224</v>
       </c>
@@ -4969,15 +4973,15 @@
       <c r="A218" s="35"/>
       <c r="B218" s="37"/>
       <c r="C218" s="28" t="s">
-        <v>156</v>
-      </c>
-      <c r="D218" s="12"/>
+        <v>148</v>
+      </c>
+      <c r="D218" s="12" t="s">
+        <v>8</v>
+      </c>
       <c r="E218" s="12"/>
       <c r="F218" s="12"/>
       <c r="G218" s="12"/>
-      <c r="H218" s="12" t="s">
-        <v>8</v>
-      </c>
+      <c r="H218" s="12"/>
       <c r="I218" s="15" t="s">
         <v>224</v>
       </c>
@@ -4989,35 +4993,35 @@
       <c r="A219" s="35"/>
       <c r="B219" s="37"/>
       <c r="C219" s="28" t="s">
-        <v>157</v>
-      </c>
-      <c r="D219" s="12"/>
+        <v>149</v>
+      </c>
+      <c r="D219" s="12" t="s">
+        <v>8</v>
+      </c>
       <c r="E219" s="12"/>
       <c r="F219" s="12"/>
       <c r="G219" s="12"/>
-      <c r="H219" s="12" t="s">
-        <v>8</v>
-      </c>
+      <c r="H219" s="12"/>
       <c r="I219" s="15" t="s">
         <v>224</v>
       </c>
       <c r="J219" s="15">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="220" spans="1:10" ht="18">
       <c r="A220" s="35"/>
       <c r="B220" s="37"/>
       <c r="C220" s="28" t="s">
-        <v>158</v>
-      </c>
-      <c r="D220" s="12"/>
+        <v>150</v>
+      </c>
+      <c r="D220" s="12" t="s">
+        <v>8</v>
+      </c>
       <c r="E220" s="12"/>
       <c r="F220" s="12"/>
       <c r="G220" s="12"/>
-      <c r="H220" s="12" t="s">
-        <v>8</v>
-      </c>
+      <c r="H220" s="12"/>
       <c r="I220" s="15" t="s">
         <v>224</v>
       </c>
@@ -5029,35 +5033,35 @@
       <c r="A221" s="35"/>
       <c r="B221" s="37"/>
       <c r="C221" s="28" t="s">
-        <v>159</v>
-      </c>
-      <c r="D221" s="12"/>
+        <v>151</v>
+      </c>
+      <c r="D221" s="12" t="s">
+        <v>8</v>
+      </c>
       <c r="E221" s="12"/>
       <c r="F221" s="12"/>
       <c r="G221" s="12"/>
-      <c r="H221" s="12" t="s">
-        <v>8</v>
-      </c>
+      <c r="H221" s="12"/>
       <c r="I221" s="15" t="s">
         <v>224</v>
       </c>
       <c r="J221" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="222" spans="1:10" ht="18">
       <c r="A222" s="35"/>
       <c r="B222" s="37"/>
       <c r="C222" s="28" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="D222" s="12"/>
       <c r="E222" s="12"/>
       <c r="F222" s="12"/>
-      <c r="G222" s="12"/>
-      <c r="H222" s="12" t="s">
-        <v>8</v>
-      </c>
+      <c r="G222" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="H222" s="12"/>
       <c r="I222" s="15" t="s">
         <v>224</v>
       </c>
@@ -5068,28 +5072,24 @@
     <row r="223" spans="1:10" ht="18">
       <c r="A223" s="35"/>
       <c r="B223" s="37"/>
-      <c r="C223" s="28" t="s">
-        <v>161</v>
+      <c r="C223" s="29" t="s">
+        <v>132</v>
       </c>
       <c r="D223" s="12"/>
       <c r="E223" s="12"/>
       <c r="F223" s="12"/>
       <c r="G223" s="12"/>
-      <c r="H223" s="12" t="s">
-        <v>8</v>
-      </c>
+      <c r="H223" s="12"/>
       <c r="I223" s="15" t="s">
         <v>224</v>
       </c>
-      <c r="J223" s="15">
-        <v>1</v>
-      </c>
+      <c r="J223" s="15"/>
     </row>
     <row r="224" spans="1:10" ht="18">
       <c r="A224" s="35"/>
       <c r="B224" s="37"/>
       <c r="C224" s="28" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="D224" s="12"/>
       <c r="E224" s="12"/>
@@ -5109,7 +5109,7 @@
       <c r="A225" s="35"/>
       <c r="B225" s="37"/>
       <c r="C225" s="28" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="D225" s="12"/>
       <c r="E225" s="12"/>
@@ -5122,14 +5122,14 @@
         <v>224</v>
       </c>
       <c r="J225" s="15">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="226" spans="1:10" ht="18">
       <c r="A226" s="35"/>
       <c r="B226" s="37"/>
       <c r="C226" s="28" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="D226" s="12"/>
       <c r="E226" s="12"/>
@@ -5142,14 +5142,14 @@
         <v>224</v>
       </c>
       <c r="J226" s="15">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="227" spans="1:10" ht="18">
       <c r="A227" s="35"/>
       <c r="B227" s="37"/>
       <c r="C227" s="28" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="D227" s="12"/>
       <c r="E227" s="12"/>
@@ -5169,7 +5169,7 @@
       <c r="A228" s="35"/>
       <c r="B228" s="37"/>
       <c r="C228" s="28" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="D228" s="12"/>
       <c r="E228" s="12"/>
@@ -5182,22 +5182,22 @@
         <v>224</v>
       </c>
       <c r="J228" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="229" spans="1:10" ht="18">
       <c r="A229" s="35"/>
       <c r="B229" s="37"/>
       <c r="C229" s="28" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="D229" s="12"/>
       <c r="E229" s="12"/>
       <c r="F229" s="12"/>
-      <c r="G229" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="H229" s="12"/>
+      <c r="G229" s="12"/>
+      <c r="H229" s="12" t="s">
+        <v>8</v>
+      </c>
       <c r="I229" s="15" t="s">
         <v>224</v>
       </c>
@@ -5209,14 +5209,14 @@
       <c r="A230" s="35"/>
       <c r="B230" s="37"/>
       <c r="C230" s="28" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="D230" s="12"/>
       <c r="E230" s="12"/>
-      <c r="F230" s="12"/>
-      <c r="G230" s="12" t="s">
-        <v>8</v>
-      </c>
+      <c r="F230" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="G230" s="12"/>
       <c r="H230" s="12"/>
       <c r="I230" s="15" t="s">
         <v>224</v>
@@ -5229,15 +5229,15 @@
       <c r="A231" s="35"/>
       <c r="B231" s="37"/>
       <c r="C231" s="28" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="D231" s="12"/>
       <c r="E231" s="12"/>
       <c r="F231" s="12"/>
-      <c r="G231" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="H231" s="12"/>
+      <c r="G231" s="12"/>
+      <c r="H231" s="12" t="s">
+        <v>8</v>
+      </c>
       <c r="I231" s="15" t="s">
         <v>224</v>
       </c>
@@ -5249,15 +5249,15 @@
       <c r="A232" s="35"/>
       <c r="B232" s="37"/>
       <c r="C232" s="28" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="D232" s="12"/>
       <c r="E232" s="12"/>
       <c r="F232" s="12"/>
-      <c r="G232" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="H232" s="12"/>
+      <c r="G232" s="12"/>
+      <c r="H232" s="12" t="s">
+        <v>8</v>
+      </c>
       <c r="I232" s="15" t="s">
         <v>224</v>
       </c>
@@ -5269,7 +5269,7 @@
       <c r="A233" s="35"/>
       <c r="B233" s="37"/>
       <c r="C233" s="28" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="D233" s="12"/>
       <c r="E233" s="12"/>
@@ -5282,14 +5282,14 @@
         <v>224</v>
       </c>
       <c r="J233" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="234" spans="1:10" ht="18">
       <c r="A234" s="35"/>
       <c r="B234" s="37"/>
       <c r="C234" s="28" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="D234" s="12"/>
       <c r="E234" s="12"/>
@@ -5302,14 +5302,14 @@
         <v>224</v>
       </c>
       <c r="J234" s="15">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="235" spans="1:10" ht="18">
       <c r="A235" s="35"/>
       <c r="B235" s="37"/>
       <c r="C235" s="28" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="D235" s="12"/>
       <c r="E235" s="12"/>
@@ -5322,14 +5322,14 @@
         <v>224</v>
       </c>
       <c r="J235" s="15">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="236" spans="1:10" ht="18">
       <c r="A236" s="35"/>
       <c r="B236" s="37"/>
       <c r="C236" s="28" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="D236" s="12"/>
       <c r="E236" s="12"/>
@@ -5342,14 +5342,14 @@
         <v>224</v>
       </c>
       <c r="J236" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="237" spans="1:10" ht="18">
       <c r="A237" s="35"/>
       <c r="B237" s="37"/>
       <c r="C237" s="28" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="D237" s="12"/>
       <c r="E237" s="12"/>
@@ -5362,62 +5362,62 @@
         <v>224</v>
       </c>
       <c r="J237" s="15">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="238" spans="1:10" ht="18">
       <c r="A238" s="35"/>
       <c r="B238" s="37"/>
       <c r="C238" s="28" t="s">
-        <v>176</v>
+        <v>264</v>
       </c>
       <c r="D238" s="12"/>
       <c r="E238" s="12"/>
-      <c r="F238" s="12"/>
+      <c r="F238" s="12" t="s">
+        <v>8</v>
+      </c>
       <c r="G238" s="12"/>
-      <c r="H238" s="12" t="s">
-        <v>8</v>
-      </c>
+      <c r="H238" s="12"/>
       <c r="I238" s="15" t="s">
         <v>224</v>
       </c>
       <c r="J238" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="239" spans="1:10" ht="18">
       <c r="A239" s="35"/>
       <c r="B239" s="37"/>
       <c r="C239" s="28" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="D239" s="12"/>
       <c r="E239" s="12"/>
       <c r="F239" s="12"/>
-      <c r="G239" s="12"/>
-      <c r="H239" s="12" t="s">
-        <v>8</v>
-      </c>
+      <c r="G239" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="H239" s="12"/>
       <c r="I239" s="15" t="s">
         <v>224</v>
       </c>
       <c r="J239" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="240" spans="1:10" ht="18">
       <c r="A240" s="35"/>
       <c r="B240" s="37"/>
       <c r="C240" s="28" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="D240" s="12"/>
       <c r="E240" s="12"/>
       <c r="F240" s="12"/>
-      <c r="G240" s="12"/>
-      <c r="H240" s="12" t="s">
-        <v>8</v>
-      </c>
+      <c r="G240" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="H240" s="12"/>
       <c r="I240" s="15" t="s">
         <v>224</v>
       </c>
@@ -5429,15 +5429,15 @@
       <c r="A241" s="35"/>
       <c r="B241" s="37"/>
       <c r="C241" s="28" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="D241" s="12"/>
       <c r="E241" s="12"/>
       <c r="F241" s="12"/>
-      <c r="G241" s="12"/>
-      <c r="H241" s="12" t="s">
-        <v>8</v>
-      </c>
+      <c r="G241" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="H241" s="12"/>
       <c r="I241" s="15" t="s">
         <v>224</v>
       </c>
@@ -5449,15 +5449,15 @@
       <c r="A242" s="35"/>
       <c r="B242" s="37"/>
       <c r="C242" s="28" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="D242" s="12"/>
       <c r="E242" s="12"/>
       <c r="F242" s="12"/>
-      <c r="G242" s="12"/>
-      <c r="H242" s="12" t="s">
-        <v>8</v>
-      </c>
+      <c r="G242" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="H242" s="12"/>
       <c r="I242" s="15" t="s">
         <v>224</v>
       </c>
@@ -5469,55 +5469,55 @@
       <c r="A243" s="35"/>
       <c r="B243" s="37"/>
       <c r="C243" s="28" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="D243" s="12"/>
       <c r="E243" s="12"/>
       <c r="F243" s="12"/>
-      <c r="G243" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="H243" s="12"/>
+      <c r="G243" s="12"/>
+      <c r="H243" s="12" t="s">
+        <v>8</v>
+      </c>
       <c r="I243" s="15" t="s">
         <v>224</v>
       </c>
       <c r="J243" s="15">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="244" spans="1:10" ht="18">
       <c r="A244" s="35"/>
       <c r="B244" s="37"/>
       <c r="C244" s="28" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="D244" s="12"/>
       <c r="E244" s="12"/>
       <c r="F244" s="12"/>
-      <c r="G244" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="H244" s="12"/>
+      <c r="G244" s="12"/>
+      <c r="H244" s="12" t="s">
+        <v>8</v>
+      </c>
       <c r="I244" s="15" t="s">
         <v>224</v>
       </c>
       <c r="J244" s="15">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="245" spans="1:10" ht="18">
       <c r="A245" s="35"/>
       <c r="B245" s="37"/>
       <c r="C245" s="28" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="D245" s="12"/>
       <c r="E245" s="12"/>
       <c r="F245" s="12"/>
-      <c r="G245" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="H245" s="12"/>
+      <c r="G245" s="12"/>
+      <c r="H245" s="12" t="s">
+        <v>8</v>
+      </c>
       <c r="I245" s="15" t="s">
         <v>224</v>
       </c>
@@ -5529,15 +5529,15 @@
       <c r="A246" s="35"/>
       <c r="B246" s="37"/>
       <c r="C246" s="28" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="D246" s="12"/>
       <c r="E246" s="12"/>
       <c r="F246" s="12"/>
-      <c r="G246" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="H246" s="12"/>
+      <c r="G246" s="12"/>
+      <c r="H246" s="12" t="s">
+        <v>8</v>
+      </c>
       <c r="I246" s="15" t="s">
         <v>224</v>
       </c>
@@ -5549,35 +5549,35 @@
       <c r="A247" s="35"/>
       <c r="B247" s="37"/>
       <c r="C247" s="28" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="D247" s="12"/>
       <c r="E247" s="12"/>
       <c r="F247" s="12"/>
-      <c r="G247" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="H247" s="12"/>
+      <c r="G247" s="12"/>
+      <c r="H247" s="12" t="s">
+        <v>8</v>
+      </c>
       <c r="I247" s="15" t="s">
         <v>224</v>
       </c>
       <c r="J247" s="15">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="248" spans="1:10" ht="18">
       <c r="A248" s="35"/>
       <c r="B248" s="37"/>
       <c r="C248" s="28" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="D248" s="12"/>
       <c r="E248" s="12"/>
       <c r="F248" s="12"/>
-      <c r="G248" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="H248" s="12"/>
+      <c r="G248" s="12"/>
+      <c r="H248" s="12" t="s">
+        <v>8</v>
+      </c>
       <c r="I248" s="15" t="s">
         <v>224</v>
       </c>
@@ -5589,15 +5589,15 @@
       <c r="A249" s="35"/>
       <c r="B249" s="37"/>
       <c r="C249" s="28" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="D249" s="12"/>
       <c r="E249" s="12"/>
       <c r="F249" s="12"/>
-      <c r="G249" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="H249" s="12"/>
+      <c r="G249" s="12"/>
+      <c r="H249" s="12" t="s">
+        <v>8</v>
+      </c>
       <c r="I249" s="15" t="s">
         <v>224</v>
       </c>
@@ -5609,15 +5609,15 @@
       <c r="A250" s="35"/>
       <c r="B250" s="37"/>
       <c r="C250" s="28" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="D250" s="12"/>
-      <c r="E250" s="12" t="s">
-        <v>8</v>
-      </c>
+      <c r="E250" s="12"/>
       <c r="F250" s="12"/>
       <c r="G250" s="12"/>
-      <c r="H250" s="12"/>
+      <c r="H250" s="12" t="s">
+        <v>8</v>
+      </c>
       <c r="I250" s="15" t="s">
         <v>224</v>
       </c>
@@ -5629,90 +5629,94 @@
       <c r="A251" s="35"/>
       <c r="B251" s="37"/>
       <c r="C251" s="28" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="D251" s="12"/>
       <c r="E251" s="12"/>
-      <c r="F251" s="12" t="s">
-        <v>8</v>
-      </c>
+      <c r="F251" s="12"/>
       <c r="G251" s="12"/>
-      <c r="H251" s="12"/>
+      <c r="H251" s="12" t="s">
+        <v>8</v>
+      </c>
       <c r="I251" s="15" t="s">
         <v>224</v>
       </c>
       <c r="J251" s="15">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="252" spans="1:10" ht="18">
       <c r="A252" s="35"/>
       <c r="B252" s="37"/>
       <c r="C252" s="28" t="s">
-        <v>256</v>
-      </c>
-      <c r="D252" s="12" t="s">
-        <v>8</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="D252" s="12"/>
       <c r="E252" s="12"/>
       <c r="F252" s="12"/>
       <c r="G252" s="12"/>
-      <c r="H252" s="12"/>
+      <c r="H252" s="12" t="s">
+        <v>8</v>
+      </c>
       <c r="I252" s="15" t="s">
         <v>224</v>
       </c>
       <c r="J252" s="15">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="253" spans="1:10" ht="18">
       <c r="A253" s="35"/>
       <c r="B253" s="37"/>
       <c r="C253" s="28" t="s">
-        <v>257</v>
-      </c>
-      <c r="D253" s="12" t="s">
-        <v>8</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="D253" s="12"/>
       <c r="E253" s="12"/>
       <c r="F253" s="12"/>
-      <c r="G253" s="12"/>
+      <c r="G253" s="12" t="s">
+        <v>8</v>
+      </c>
       <c r="H253" s="12"/>
       <c r="I253" s="15" t="s">
         <v>224</v>
       </c>
       <c r="J253" s="15">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="254" spans="1:10" ht="18">
       <c r="A254" s="35"/>
       <c r="B254" s="37"/>
-      <c r="C254" s="29" t="s">
-        <v>134</v>
+      <c r="C254" s="28" t="s">
+        <v>184</v>
       </c>
       <c r="D254" s="12"/>
       <c r="E254" s="12"/>
       <c r="F254" s="12"/>
-      <c r="G254" s="12"/>
+      <c r="G254" s="12" t="s">
+        <v>8</v>
+      </c>
       <c r="H254" s="12"/>
       <c r="I254" s="15" t="s">
         <v>224</v>
       </c>
-      <c r="J254" s="15"/>
+      <c r="J254" s="15">
+        <v>1</v>
+      </c>
     </row>
     <row r="255" spans="1:10" ht="18">
       <c r="A255" s="35"/>
       <c r="B255" s="37"/>
       <c r="C255" s="28" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="D255" s="12"/>
       <c r="E255" s="12"/>
-      <c r="F255" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="G255" s="12"/>
+      <c r="F255" s="12"/>
+      <c r="G255" s="12" t="s">
+        <v>8</v>
+      </c>
       <c r="H255" s="12"/>
       <c r="I255" s="15" t="s">
         <v>224</v>
@@ -5725,53 +5729,53 @@
       <c r="A256" s="35"/>
       <c r="B256" s="37"/>
       <c r="C256" s="28" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="D256" s="12"/>
       <c r="E256" s="12"/>
-      <c r="F256" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="G256" s="12"/>
+      <c r="F256" s="12"/>
+      <c r="G256" s="12" t="s">
+        <v>8</v>
+      </c>
       <c r="H256" s="12"/>
       <c r="I256" s="15" t="s">
         <v>224</v>
       </c>
       <c r="J256" s="15">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="257" spans="1:10" ht="18">
       <c r="A257" s="35"/>
       <c r="B257" s="37"/>
       <c r="C257" s="28" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="D257" s="12"/>
       <c r="E257" s="12"/>
-      <c r="F257" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="G257" s="12"/>
+      <c r="F257" s="12"/>
+      <c r="G257" s="12" t="s">
+        <v>8</v>
+      </c>
       <c r="H257" s="12"/>
       <c r="I257" s="15" t="s">
         <v>224</v>
       </c>
       <c r="J257" s="15">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="258" spans="1:10" ht="18">
       <c r="A258" s="35"/>
       <c r="B258" s="37"/>
       <c r="C258" s="28" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="D258" s="12"/>
-      <c r="E258" s="12"/>
-      <c r="F258" s="12" t="s">
-        <v>8</v>
-      </c>
+      <c r="E258" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F258" s="12"/>
       <c r="G258" s="12"/>
       <c r="H258" s="12"/>
       <c r="I258" s="15" t="s">
@@ -5785,7 +5789,7 @@
       <c r="A259" s="35"/>
       <c r="B259" s="37"/>
       <c r="C259" s="28" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D259" s="12"/>
       <c r="E259" s="12"/>
@@ -5798,94 +5802,94 @@
         <v>224</v>
       </c>
       <c r="J259" s="15">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="260" spans="1:10" ht="18">
       <c r="A260" s="35"/>
       <c r="B260" s="37"/>
       <c r="C260" s="28" t="s">
-        <v>195</v>
-      </c>
-      <c r="D260" s="12"/>
+        <v>256</v>
+      </c>
+      <c r="D260" s="12" t="s">
+        <v>8</v>
+      </c>
       <c r="E260" s="12"/>
-      <c r="F260" s="12" t="s">
-        <v>8</v>
-      </c>
+      <c r="F260" s="12"/>
       <c r="G260" s="12"/>
       <c r="H260" s="12"/>
       <c r="I260" s="15" t="s">
         <v>224</v>
       </c>
       <c r="J260" s="15">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="261" spans="1:10" ht="18">
       <c r="A261" s="35"/>
       <c r="B261" s="37"/>
       <c r="C261" s="28" t="s">
-        <v>196</v>
-      </c>
-      <c r="D261" s="12"/>
+        <v>257</v>
+      </c>
+      <c r="D261" s="12" t="s">
+        <v>8</v>
+      </c>
       <c r="E261" s="12"/>
-      <c r="F261" s="12" t="s">
-        <v>8</v>
-      </c>
+      <c r="F261" s="12"/>
       <c r="G261" s="12"/>
       <c r="H261" s="12"/>
       <c r="I261" s="15" t="s">
         <v>224</v>
       </c>
       <c r="J261" s="15">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="262" spans="1:10" ht="18">
       <c r="A262" s="35"/>
       <c r="B262" s="37"/>
       <c r="C262" s="28" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
       <c r="D262" s="12"/>
       <c r="E262" s="12"/>
-      <c r="F262" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="G262" s="12"/>
+      <c r="F262" s="12"/>
+      <c r="G262" s="12" t="s">
+        <v>8</v>
+      </c>
       <c r="H262" s="12"/>
       <c r="I262" s="15" t="s">
         <v>224</v>
       </c>
       <c r="J262" s="15">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="263" spans="1:10" ht="18">
       <c r="A263" s="35"/>
       <c r="B263" s="37"/>
       <c r="C263" s="28" t="s">
-        <v>198</v>
+        <v>182</v>
       </c>
       <c r="D263" s="12"/>
       <c r="E263" s="12"/>
-      <c r="F263" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="G263" s="12"/>
+      <c r="F263" s="12"/>
+      <c r="G263" s="12" t="s">
+        <v>8</v>
+      </c>
       <c r="H263" s="12"/>
       <c r="I263" s="15" t="s">
         <v>224</v>
       </c>
       <c r="J263" s="15">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="264" spans="1:10" ht="18">
       <c r="A264" s="35"/>
       <c r="B264" s="37"/>
       <c r="C264" s="28" t="s">
-        <v>199</v>
+        <v>265</v>
       </c>
       <c r="D264" s="12"/>
       <c r="E264" s="12"/>
@@ -5898,54 +5902,52 @@
         <v>224</v>
       </c>
       <c r="J264" s="15">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="265" spans="1:10" ht="18">
       <c r="A265" s="35"/>
       <c r="B265" s="37"/>
       <c r="C265" s="28" t="s">
-        <v>200</v>
+        <v>271</v>
       </c>
       <c r="D265" s="12"/>
       <c r="E265" s="12"/>
       <c r="F265" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="G265" s="12"/>
+      <c r="G265" s="12" t="s">
+        <v>8</v>
+      </c>
       <c r="H265" s="12"/>
       <c r="I265" s="15" t="s">
         <v>224</v>
       </c>
       <c r="J265" s="15">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="266" spans="1:10" ht="18">
       <c r="A266" s="35"/>
       <c r="B266" s="37"/>
-      <c r="C266" s="28" t="s">
-        <v>201</v>
+      <c r="C266" s="29" t="s">
+        <v>134</v>
       </c>
       <c r="D266" s="12"/>
       <c r="E266" s="12"/>
-      <c r="F266" s="12" t="s">
-        <v>8</v>
-      </c>
+      <c r="F266" s="12"/>
       <c r="G266" s="12"/>
       <c r="H266" s="12"/>
       <c r="I266" s="15" t="s">
         <v>224</v>
       </c>
-      <c r="J266" s="15">
-        <v>1</v>
-      </c>
+      <c r="J266" s="15"/>
     </row>
     <row r="267" spans="1:10" ht="18">
       <c r="A267" s="35"/>
       <c r="B267" s="37"/>
       <c r="C267" s="28" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="D267" s="12"/>
       <c r="E267" s="12"/>
@@ -5965,14 +5967,14 @@
       <c r="A268" s="35"/>
       <c r="B268" s="37"/>
       <c r="C268" s="28" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="D268" s="12"/>
       <c r="E268" s="12"/>
-      <c r="F268" s="12"/>
-      <c r="G268" s="12" t="s">
-        <v>8</v>
-      </c>
+      <c r="F268" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="G268" s="12"/>
       <c r="H268" s="12"/>
       <c r="I268" s="15" t="s">
         <v>224</v>
@@ -5985,7 +5987,7 @@
       <c r="A269" s="35"/>
       <c r="B269" s="37"/>
       <c r="C269" s="28" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="D269" s="12"/>
       <c r="E269" s="12"/>
@@ -6005,7 +6007,7 @@
       <c r="A270" s="35"/>
       <c r="B270" s="37"/>
       <c r="C270" s="28" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="D270" s="12"/>
       <c r="E270" s="12"/>
@@ -6018,14 +6020,14 @@
         <v>224</v>
       </c>
       <c r="J270" s="15">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="271" spans="1:10" ht="18">
       <c r="A271" s="35"/>
       <c r="B271" s="37"/>
       <c r="C271" s="28" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="D271" s="12"/>
       <c r="E271" s="12"/>
@@ -6045,7 +6047,7 @@
       <c r="A272" s="35"/>
       <c r="B272" s="37"/>
       <c r="C272" s="28" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="D272" s="12"/>
       <c r="E272" s="12"/>
@@ -6065,7 +6067,7 @@
       <c r="A273" s="35"/>
       <c r="B273" s="37"/>
       <c r="C273" s="28" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="D273" s="12"/>
       <c r="E273" s="12"/>
@@ -6085,14 +6087,14 @@
       <c r="A274" s="35"/>
       <c r="B274" s="37"/>
       <c r="C274" s="28" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="D274" s="12"/>
       <c r="E274" s="12"/>
-      <c r="F274" s="12"/>
-      <c r="G274" s="12" t="s">
-        <v>8</v>
-      </c>
+      <c r="F274" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="G274" s="12"/>
       <c r="H274" s="12"/>
       <c r="I274" s="15" t="s">
         <v>224</v>
@@ -6105,14 +6107,14 @@
       <c r="A275" s="35"/>
       <c r="B275" s="37"/>
       <c r="C275" s="28" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="D275" s="12"/>
       <c r="E275" s="12"/>
-      <c r="F275" s="12"/>
-      <c r="G275" s="12" t="s">
-        <v>8</v>
-      </c>
+      <c r="F275" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="G275" s="12"/>
       <c r="H275" s="12"/>
       <c r="I275" s="15" t="s">
         <v>224</v>
@@ -6125,14 +6127,14 @@
       <c r="A276" s="35"/>
       <c r="B276" s="37"/>
       <c r="C276" s="28" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="D276" s="12"/>
       <c r="E276" s="12"/>
-      <c r="F276" s="12"/>
-      <c r="G276" s="12" t="s">
-        <v>8</v>
-      </c>
+      <c r="F276" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="G276" s="12"/>
       <c r="H276" s="12"/>
       <c r="I276" s="15" t="s">
         <v>224</v>
@@ -6145,27 +6147,27 @@
       <c r="A277" s="35"/>
       <c r="B277" s="37"/>
       <c r="C277" s="28" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="D277" s="12"/>
       <c r="E277" s="12"/>
-      <c r="F277" s="12"/>
-      <c r="G277" s="12" t="s">
-        <v>8</v>
-      </c>
+      <c r="F277" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="G277" s="12"/>
       <c r="H277" s="12"/>
       <c r="I277" s="15" t="s">
         <v>224</v>
       </c>
       <c r="J277" s="15">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="278" spans="1:10" ht="18">
       <c r="A278" s="35"/>
       <c r="B278" s="37"/>
       <c r="C278" s="28" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="D278" s="12"/>
       <c r="E278" s="12"/>
@@ -6178,14 +6180,14 @@
         <v>224</v>
       </c>
       <c r="J278" s="15">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="279" spans="1:10" ht="18">
       <c r="A279" s="35"/>
       <c r="B279" s="37"/>
       <c r="C279" s="28" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="D279" s="12"/>
       <c r="E279" s="12"/>
@@ -6198,37 +6200,41 @@
         <v>224</v>
       </c>
       <c r="J279" s="15">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="280" spans="1:10" ht="18">
       <c r="A280" s="35"/>
       <c r="B280" s="37"/>
-      <c r="C280" s="29" t="s">
-        <v>133</v>
+      <c r="C280" s="28" t="s">
+        <v>203</v>
       </c>
       <c r="D280" s="12"/>
       <c r="E280" s="12"/>
       <c r="F280" s="12"/>
-      <c r="G280" s="12"/>
+      <c r="G280" s="12" t="s">
+        <v>8</v>
+      </c>
       <c r="H280" s="12"/>
       <c r="I280" s="15" t="s">
         <v>224</v>
       </c>
-      <c r="J280" s="15"/>
+      <c r="J280" s="15">
+        <v>2</v>
+      </c>
     </row>
     <row r="281" spans="1:10" ht="18">
       <c r="A281" s="35"/>
       <c r="B281" s="37"/>
       <c r="C281" s="28" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="D281" s="12"/>
       <c r="E281" s="12"/>
-      <c r="F281" s="12"/>
-      <c r="G281" s="12" t="s">
-        <v>8</v>
-      </c>
+      <c r="F281" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="G281" s="12"/>
       <c r="H281" s="12"/>
       <c r="I281" s="15" t="s">
         <v>224</v>
@@ -6241,14 +6247,14 @@
       <c r="A282" s="35"/>
       <c r="B282" s="37"/>
       <c r="C282" s="28" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="D282" s="12"/>
       <c r="E282" s="12"/>
-      <c r="F282" s="12"/>
-      <c r="G282" s="12" t="s">
-        <v>8</v>
-      </c>
+      <c r="F282" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="G282" s="12"/>
       <c r="H282" s="12"/>
       <c r="I282" s="15" t="s">
         <v>224</v>
@@ -6261,67 +6267,67 @@
       <c r="A283" s="35"/>
       <c r="B283" s="37"/>
       <c r="C283" s="28" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="D283" s="12"/>
       <c r="E283" s="12"/>
-      <c r="F283" s="12"/>
-      <c r="G283" s="12" t="s">
-        <v>8</v>
-      </c>
+      <c r="F283" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="G283" s="12"/>
       <c r="H283" s="12"/>
       <c r="I283" s="15" t="s">
         <v>224</v>
       </c>
       <c r="J283" s="15">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="284" spans="1:10" ht="18">
       <c r="A284" s="35"/>
       <c r="B284" s="37"/>
       <c r="C284" s="28" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="D284" s="12"/>
       <c r="E284" s="12"/>
-      <c r="F284" s="12"/>
-      <c r="G284" s="12" t="s">
-        <v>8</v>
-      </c>
+      <c r="F284" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="G284" s="12"/>
       <c r="H284" s="12"/>
       <c r="I284" s="15" t="s">
         <v>224</v>
       </c>
       <c r="J284" s="15">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="285" spans="1:10" ht="18">
       <c r="A285" s="35"/>
       <c r="B285" s="37"/>
       <c r="C285" s="28" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="D285" s="12"/>
       <c r="E285" s="12"/>
-      <c r="F285" s="12"/>
-      <c r="G285" s="12" t="s">
-        <v>8</v>
-      </c>
+      <c r="F285" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="G285" s="12"/>
       <c r="H285" s="12"/>
       <c r="I285" s="15" t="s">
         <v>224</v>
       </c>
       <c r="J285" s="15">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="286" spans="1:10" ht="18">
       <c r="A286" s="35"/>
       <c r="B286" s="37"/>
       <c r="C286" s="28" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="D286" s="12"/>
       <c r="E286" s="12"/>
@@ -6340,31 +6346,35 @@
     <row r="287" spans="1:10" ht="18">
       <c r="A287" s="35"/>
       <c r="B287" s="37"/>
-      <c r="C287" s="29" t="s">
-        <v>135</v>
+      <c r="C287" s="28" t="s">
+        <v>210</v>
       </c>
       <c r="D287" s="12"/>
       <c r="E287" s="12"/>
       <c r="F287" s="12"/>
-      <c r="G287" s="12"/>
+      <c r="G287" s="12" t="s">
+        <v>8</v>
+      </c>
       <c r="H287" s="12"/>
       <c r="I287" s="15" t="s">
         <v>224</v>
       </c>
-      <c r="J287" s="15"/>
+      <c r="J287" s="15">
+        <v>2</v>
+      </c>
     </row>
     <row r="288" spans="1:10" ht="18">
       <c r="A288" s="35"/>
       <c r="B288" s="37"/>
       <c r="C288" s="28" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="D288" s="12"/>
-      <c r="E288" s="12" t="s">
-        <v>8</v>
-      </c>
+      <c r="E288" s="12"/>
       <c r="F288" s="12"/>
-      <c r="G288" s="12"/>
+      <c r="G288" s="12" t="s">
+        <v>8</v>
+      </c>
       <c r="H288" s="12"/>
       <c r="I288" s="15" t="s">
         <v>224</v>
@@ -6377,113 +6387,121 @@
       <c r="A289" s="35"/>
       <c r="B289" s="37"/>
       <c r="C289" s="28" t="s">
-        <v>255</v>
+        <v>212</v>
       </c>
       <c r="D289" s="12"/>
-      <c r="E289" s="12" t="s">
-        <v>8</v>
-      </c>
+      <c r="E289" s="12"/>
       <c r="F289" s="12"/>
-      <c r="G289" s="12"/>
+      <c r="G289" s="12" t="s">
+        <v>8</v>
+      </c>
       <c r="H289" s="12"/>
       <c r="I289" s="15" t="s">
         <v>224</v>
       </c>
       <c r="J289" s="15">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="290" spans="1:10" ht="18">
       <c r="A290" s="35"/>
       <c r="B290" s="37"/>
       <c r="C290" s="28" t="s">
-        <v>222</v>
-      </c>
-      <c r="D290" s="12" t="s">
-        <v>8</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="D290" s="12"/>
       <c r="E290" s="12"/>
-      <c r="F290" s="12"/>
+      <c r="F290" s="12" t="s">
+        <v>8</v>
+      </c>
       <c r="G290" s="12"/>
       <c r="H290" s="12"/>
       <c r="I290" s="15" t="s">
         <v>224</v>
       </c>
       <c r="J290" s="15">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="291" spans="1:10" ht="18">
       <c r="A291" s="35"/>
       <c r="B291" s="37"/>
       <c r="C291" s="28" t="s">
-        <v>223</v>
-      </c>
-      <c r="D291" s="12" t="s">
-        <v>8</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="D291" s="12"/>
       <c r="E291" s="12"/>
-      <c r="F291" s="12"/>
+      <c r="F291" s="12" t="s">
+        <v>8</v>
+      </c>
       <c r="G291" s="12"/>
       <c r="H291" s="12"/>
       <c r="I291" s="15" t="s">
         <v>224</v>
       </c>
       <c r="J291" s="15">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="292" spans="1:10" ht="18">
       <c r="A292" s="35"/>
       <c r="B292" s="37"/>
-      <c r="C292" s="16" t="s">
-        <v>34</v>
+      <c r="C292" s="28" t="s">
+        <v>266</v>
       </c>
       <c r="D292" s="12"/>
       <c r="E292" s="12"/>
       <c r="F292" s="12"/>
       <c r="G292" s="12"/>
       <c r="H292" s="12"/>
-      <c r="I292" s="15"/>
-      <c r="J292" s="15"/>
+      <c r="I292" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="J292" s="15">
+        <v>3</v>
+      </c>
     </row>
     <row r="293" spans="1:10" ht="18">
       <c r="A293" s="35"/>
       <c r="B293" s="37"/>
-      <c r="C293" s="22" t="s">
-        <v>44</v>
+      <c r="C293" s="29" t="s">
+        <v>133</v>
       </c>
       <c r="D293" s="12"/>
-      <c r="E293" s="12" t="s">
-        <v>8</v>
-      </c>
+      <c r="E293" s="12"/>
       <c r="F293" s="12"/>
       <c r="G293" s="12"/>
       <c r="H293" s="12"/>
-      <c r="I293" s="15"/>
+      <c r="I293" s="15" t="s">
+        <v>224</v>
+      </c>
       <c r="J293" s="15"/>
     </row>
     <row r="294" spans="1:10" ht="18">
       <c r="A294" s="35"/>
       <c r="B294" s="37"/>
-      <c r="C294" s="22" t="s">
-        <v>45</v>
+      <c r="C294" s="28" t="s">
+        <v>215</v>
       </c>
       <c r="D294" s="12"/>
-      <c r="E294" s="12" t="s">
-        <v>8</v>
-      </c>
+      <c r="E294" s="12"/>
       <c r="F294" s="12"/>
-      <c r="G294" s="12"/>
+      <c r="G294" s="12" t="s">
+        <v>8</v>
+      </c>
       <c r="H294" s="12"/>
-      <c r="I294" s="15"/>
-      <c r="J294" s="15"/>
+      <c r="I294" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="J294" s="15">
+        <v>2</v>
+      </c>
     </row>
     <row r="295" spans="1:10" ht="18">
       <c r="A295" s="35"/>
       <c r="B295" s="37"/>
-      <c r="C295" s="14" t="s">
-        <v>46</v>
+      <c r="C295" s="28" t="s">
+        <v>216</v>
       </c>
       <c r="D295" s="12"/>
       <c r="E295" s="12"/>
@@ -6492,252 +6510,304 @@
         <v>8</v>
       </c>
       <c r="H295" s="12"/>
-      <c r="I295" s="15"/>
-      <c r="J295" s="15"/>
+      <c r="I295" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="J295" s="15">
+        <v>2</v>
+      </c>
     </row>
     <row r="296" spans="1:10" ht="18">
       <c r="A296" s="35"/>
       <c r="B296" s="37"/>
-      <c r="C296" s="16" t="s">
-        <v>262</v>
+      <c r="C296" s="28" t="s">
+        <v>217</v>
       </c>
       <c r="D296" s="12"/>
       <c r="E296" s="12"/>
       <c r="F296" s="12"/>
-      <c r="G296" s="12"/>
+      <c r="G296" s="12" t="s">
+        <v>8</v>
+      </c>
       <c r="H296" s="12"/>
-      <c r="I296" s="15"/>
-      <c r="J296" s="15"/>
+      <c r="I296" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="J296" s="15">
+        <v>3</v>
+      </c>
     </row>
     <row r="297" spans="1:10" ht="18">
       <c r="A297" s="35"/>
       <c r="B297" s="37"/>
-      <c r="C297" s="29" t="s">
-        <v>225</v>
+      <c r="C297" s="28" t="s">
+        <v>218</v>
       </c>
       <c r="D297" s="12"/>
       <c r="E297" s="12"/>
       <c r="F297" s="12"/>
-      <c r="G297" s="12"/>
+      <c r="G297" s="12" t="s">
+        <v>8</v>
+      </c>
       <c r="H297" s="12"/>
-      <c r="I297" s="15"/>
-      <c r="J297" s="15"/>
+      <c r="I297" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="J297" s="15">
+        <v>3</v>
+      </c>
     </row>
     <row r="298" spans="1:10" ht="18">
       <c r="A298" s="35"/>
       <c r="B298" s="37"/>
       <c r="C298" s="28" t="s">
-        <v>226</v>
-      </c>
-      <c r="D298" s="12" t="s">
-        <v>8</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="D298" s="12"/>
       <c r="E298" s="12"/>
       <c r="F298" s="12"/>
-      <c r="G298" s="12"/>
+      <c r="G298" s="12" t="s">
+        <v>8</v>
+      </c>
       <c r="H298" s="12"/>
-      <c r="I298" s="15"/>
-      <c r="J298" s="15"/>
+      <c r="I298" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="J298" s="15">
+        <v>3</v>
+      </c>
     </row>
     <row r="299" spans="1:10" ht="18">
       <c r="A299" s="35"/>
       <c r="B299" s="37"/>
       <c r="C299" s="28" t="s">
-        <v>227</v>
-      </c>
-      <c r="D299" s="12" t="s">
-        <v>8</v>
-      </c>
+        <v>220</v>
+      </c>
+      <c r="D299" s="12"/>
       <c r="E299" s="12"/>
       <c r="F299" s="12"/>
-      <c r="G299" s="12"/>
+      <c r="G299" s="12" t="s">
+        <v>8</v>
+      </c>
       <c r="H299" s="12"/>
-      <c r="I299" s="15"/>
-      <c r="J299" s="15"/>
+      <c r="I299" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="J299" s="15">
+        <v>1</v>
+      </c>
     </row>
     <row r="300" spans="1:10" ht="18">
       <c r="A300" s="35"/>
       <c r="B300" s="37"/>
-      <c r="C300" s="29" t="s">
-        <v>228</v>
+      <c r="C300" s="28" t="s">
+        <v>267</v>
       </c>
       <c r="D300" s="12"/>
       <c r="E300" s="12"/>
       <c r="F300" s="12"/>
-      <c r="G300" s="12"/>
+      <c r="G300" s="12" t="s">
+        <v>8</v>
+      </c>
       <c r="H300" s="12"/>
-      <c r="I300" s="15"/>
-      <c r="J300" s="15"/>
+      <c r="I300" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="J300" s="15">
+        <v>3</v>
+      </c>
     </row>
     <row r="301" spans="1:10" ht="18">
       <c r="A301" s="35"/>
       <c r="B301" s="37"/>
-      <c r="C301" s="28" t="s">
-        <v>229</v>
+      <c r="C301" s="29" t="s">
+        <v>135</v>
       </c>
       <c r="D301" s="12"/>
       <c r="E301" s="12"/>
       <c r="F301" s="12"/>
       <c r="G301" s="12"/>
-      <c r="H301" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="I301" s="15"/>
+      <c r="H301" s="12"/>
+      <c r="I301" s="15" t="s">
+        <v>224</v>
+      </c>
       <c r="J301" s="15"/>
     </row>
     <row r="302" spans="1:10" ht="18">
       <c r="A302" s="35"/>
       <c r="B302" s="37"/>
       <c r="C302" s="28" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="D302" s="12"/>
-      <c r="E302" s="12"/>
+      <c r="E302" s="12" t="s">
+        <v>8</v>
+      </c>
       <c r="F302" s="12"/>
       <c r="G302" s="12"/>
-      <c r="H302" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="I302" s="15"/>
-      <c r="J302" s="15"/>
+      <c r="H302" s="12"/>
+      <c r="I302" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="J302" s="15">
+        <v>2</v>
+      </c>
     </row>
     <row r="303" spans="1:10" ht="18">
       <c r="A303" s="35"/>
       <c r="B303" s="37"/>
       <c r="C303" s="28" t="s">
-        <v>231</v>
+        <v>255</v>
       </c>
       <c r="D303" s="12"/>
-      <c r="E303" s="12"/>
+      <c r="E303" s="12" t="s">
+        <v>8</v>
+      </c>
       <c r="F303" s="12"/>
-      <c r="G303" s="12" t="s">
-        <v>8</v>
-      </c>
+      <c r="G303" s="12"/>
       <c r="H303" s="12"/>
-      <c r="I303" s="15"/>
-      <c r="J303" s="15"/>
+      <c r="I303" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="J303" s="15">
+        <v>4</v>
+      </c>
     </row>
     <row r="304" spans="1:10" ht="18">
       <c r="A304" s="35"/>
       <c r="B304" s="37"/>
       <c r="C304" s="28" t="s">
-        <v>232</v>
-      </c>
-      <c r="D304" s="12"/>
+        <v>222</v>
+      </c>
+      <c r="D304" s="12" t="s">
+        <v>8</v>
+      </c>
       <c r="E304" s="12"/>
       <c r="F304" s="12"/>
-      <c r="G304" s="12" t="s">
-        <v>8</v>
-      </c>
+      <c r="G304" s="12"/>
       <c r="H304" s="12"/>
-      <c r="I304" s="15"/>
-      <c r="J304" s="15"/>
+      <c r="I304" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="J304" s="15">
+        <v>2</v>
+      </c>
     </row>
     <row r="305" spans="1:10" ht="18">
       <c r="A305" s="35"/>
       <c r="B305" s="37"/>
       <c r="C305" s="28" t="s">
-        <v>233</v>
-      </c>
-      <c r="D305" s="12"/>
+        <v>223</v>
+      </c>
+      <c r="D305" s="12" t="s">
+        <v>8</v>
+      </c>
       <c r="E305" s="12"/>
       <c r="F305" s="12"/>
       <c r="G305" s="12"/>
-      <c r="H305" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="I305" s="15"/>
-      <c r="J305" s="15"/>
+      <c r="H305" s="12"/>
+      <c r="I305" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="J305" s="15">
+        <v>2</v>
+      </c>
     </row>
     <row r="306" spans="1:10" ht="18">
       <c r="A306" s="35"/>
       <c r="B306" s="37"/>
       <c r="C306" s="28" t="s">
-        <v>234</v>
+        <v>270</v>
       </c>
       <c r="D306" s="12"/>
       <c r="E306" s="12"/>
       <c r="F306" s="12"/>
-      <c r="G306" s="12"/>
-      <c r="H306" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="I306" s="15"/>
-      <c r="J306" s="15"/>
+      <c r="G306" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="H306" s="12"/>
+      <c r="I306" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="J306" s="15">
+        <v>3</v>
+      </c>
     </row>
     <row r="307" spans="1:10" ht="18">
       <c r="A307" s="35"/>
       <c r="B307" s="37"/>
       <c r="C307" s="28" t="s">
-        <v>235</v>
+        <v>273</v>
       </c>
       <c r="D307" s="12"/>
       <c r="E307" s="12"/>
-      <c r="F307" s="12"/>
-      <c r="G307" s="12"/>
-      <c r="H307" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="I307" s="15"/>
-      <c r="J307" s="15"/>
+      <c r="F307" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="G307" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="H307" s="12"/>
+      <c r="I307" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="J307" s="15">
+        <v>4</v>
+      </c>
     </row>
     <row r="308" spans="1:10" ht="18">
       <c r="A308" s="35"/>
       <c r="B308" s="37"/>
-      <c r="C308" s="28" t="s">
-        <v>236</v>
+      <c r="C308" s="16" t="s">
+        <v>34</v>
       </c>
       <c r="D308" s="12"/>
       <c r="E308" s="12"/>
       <c r="F308" s="12"/>
       <c r="G308" s="12"/>
-      <c r="H308" s="12" t="s">
-        <v>8</v>
-      </c>
+      <c r="H308" s="12"/>
       <c r="I308" s="15"/>
       <c r="J308" s="15"/>
     </row>
     <row r="309" spans="1:10" ht="18">
       <c r="A309" s="35"/>
       <c r="B309" s="37"/>
-      <c r="C309" s="28" t="s">
-        <v>237</v>
+      <c r="C309" s="22" t="s">
+        <v>44</v>
       </c>
       <c r="D309" s="12"/>
-      <c r="E309" s="12"/>
+      <c r="E309" s="12" t="s">
+        <v>8</v>
+      </c>
       <c r="F309" s="12"/>
       <c r="G309" s="12"/>
-      <c r="H309" s="12" t="s">
-        <v>8</v>
-      </c>
+      <c r="H309" s="12"/>
       <c r="I309" s="15"/>
       <c r="J309" s="15"/>
     </row>
     <row r="310" spans="1:10" ht="18">
       <c r="A310" s="35"/>
       <c r="B310" s="37"/>
-      <c r="C310" s="28" t="s">
-        <v>238</v>
+      <c r="C310" s="22" t="s">
+        <v>45</v>
       </c>
       <c r="D310" s="12"/>
-      <c r="E310" s="12"/>
+      <c r="E310" s="12" t="s">
+        <v>8</v>
+      </c>
       <c r="F310" s="12"/>
       <c r="G310" s="12"/>
-      <c r="H310" s="12" t="s">
-        <v>8</v>
-      </c>
+      <c r="H310" s="12"/>
       <c r="I310" s="15"/>
       <c r="J310" s="15"/>
     </row>
     <row r="311" spans="1:10" ht="18">
       <c r="A311" s="35"/>
       <c r="B311" s="37"/>
-      <c r="C311" s="28" t="s">
-        <v>239</v>
-      </c>
-      <c r="D311" s="12" t="s">
-        <v>8</v>
-      </c>
+      <c r="C311" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="D311" s="12"/>
       <c r="E311" s="12"/>
       <c r="F311" s="12"/>
       <c r="G311" s="12" t="s">
@@ -6750,17 +6820,13 @@
     <row r="312" spans="1:10" ht="18">
       <c r="A312" s="35"/>
       <c r="B312" s="37"/>
-      <c r="C312" s="28" t="s">
-        <v>97</v>
-      </c>
-      <c r="D312" s="12" t="s">
-        <v>8</v>
-      </c>
+      <c r="C312" s="16" t="s">
+        <v>262</v>
+      </c>
+      <c r="D312" s="12"/>
       <c r="E312" s="12"/>
       <c r="F312" s="12"/>
-      <c r="G312" s="12" t="s">
-        <v>8</v>
-      </c>
+      <c r="G312" s="12"/>
       <c r="H312" s="12"/>
       <c r="I312" s="15"/>
       <c r="J312" s="15"/>
@@ -6769,7 +6835,7 @@
       <c r="A313" s="35"/>
       <c r="B313" s="37"/>
       <c r="C313" s="29" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="D313" s="12"/>
       <c r="E313" s="12"/>
@@ -6783,13 +6849,13 @@
       <c r="A314" s="35"/>
       <c r="B314" s="37"/>
       <c r="C314" s="28" t="s">
-        <v>241</v>
-      </c>
-      <c r="D314" s="12"/>
+        <v>226</v>
+      </c>
+      <c r="D314" s="12" t="s">
+        <v>8</v>
+      </c>
       <c r="E314" s="12"/>
-      <c r="F314" s="12" t="s">
-        <v>8</v>
-      </c>
+      <c r="F314" s="12"/>
       <c r="G314" s="12"/>
       <c r="H314" s="12"/>
       <c r="I314" s="15"/>
@@ -6799,13 +6865,13 @@
       <c r="A315" s="35"/>
       <c r="B315" s="37"/>
       <c r="C315" s="28" t="s">
-        <v>242</v>
-      </c>
-      <c r="D315" s="12"/>
+        <v>227</v>
+      </c>
+      <c r="D315" s="12" t="s">
+        <v>8</v>
+      </c>
       <c r="E315" s="12"/>
-      <c r="F315" s="12" t="s">
-        <v>8</v>
-      </c>
+      <c r="F315" s="12"/>
       <c r="G315" s="12"/>
       <c r="H315" s="12"/>
       <c r="I315" s="15"/>
@@ -6814,14 +6880,12 @@
     <row r="316" spans="1:10" ht="18">
       <c r="A316" s="35"/>
       <c r="B316" s="37"/>
-      <c r="C316" s="28" t="s">
-        <v>243</v>
+      <c r="C316" s="29" t="s">
+        <v>228</v>
       </c>
       <c r="D316" s="12"/>
       <c r="E316" s="12"/>
-      <c r="F316" s="12" t="s">
-        <v>8</v>
-      </c>
+      <c r="F316" s="12"/>
       <c r="G316" s="12"/>
       <c r="H316" s="12"/>
       <c r="I316" s="15"/>
@@ -6831,15 +6895,15 @@
       <c r="A317" s="35"/>
       <c r="B317" s="37"/>
       <c r="C317" s="28" t="s">
-        <v>258</v>
+        <v>229</v>
       </c>
       <c r="D317" s="12"/>
       <c r="E317" s="12"/>
-      <c r="F317" s="12" t="s">
-        <v>8</v>
-      </c>
+      <c r="F317" s="12"/>
       <c r="G317" s="12"/>
-      <c r="H317" s="12"/>
+      <c r="H317" s="12" t="s">
+        <v>8</v>
+      </c>
       <c r="I317" s="15"/>
       <c r="J317" s="15"/>
     </row>
@@ -6847,15 +6911,15 @@
       <c r="A318" s="35"/>
       <c r="B318" s="37"/>
       <c r="C318" s="28" t="s">
-        <v>260</v>
+        <v>230</v>
       </c>
       <c r="D318" s="12"/>
       <c r="E318" s="12"/>
-      <c r="F318" s="12" t="s">
-        <v>8</v>
-      </c>
+      <c r="F318" s="12"/>
       <c r="G318" s="12"/>
-      <c r="H318" s="12"/>
+      <c r="H318" s="12" t="s">
+        <v>8</v>
+      </c>
       <c r="I318" s="15"/>
       <c r="J318" s="15"/>
     </row>
@@ -6863,7 +6927,7 @@
       <c r="A319" s="35"/>
       <c r="B319" s="37"/>
       <c r="C319" s="28" t="s">
-        <v>259</v>
+        <v>231</v>
       </c>
       <c r="D319" s="12"/>
       <c r="E319" s="12"/>
@@ -6879,14 +6943,14 @@
       <c r="A320" s="35"/>
       <c r="B320" s="37"/>
       <c r="C320" s="28" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="D320" s="12"/>
       <c r="E320" s="12"/>
-      <c r="F320" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="G320" s="12"/>
+      <c r="F320" s="12"/>
+      <c r="G320" s="12" t="s">
+        <v>8</v>
+      </c>
       <c r="H320" s="12"/>
       <c r="I320" s="15"/>
       <c r="J320" s="15"/>
@@ -6895,29 +6959,31 @@
       <c r="A321" s="35"/>
       <c r="B321" s="37"/>
       <c r="C321" s="28" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="D321" s="12"/>
       <c r="E321" s="12"/>
-      <c r="F321" s="12" t="s">
-        <v>8</v>
-      </c>
+      <c r="F321" s="12"/>
       <c r="G321" s="12"/>
-      <c r="H321" s="12"/>
+      <c r="H321" s="12" t="s">
+        <v>8</v>
+      </c>
       <c r="I321" s="15"/>
       <c r="J321" s="15"/>
     </row>
     <row r="322" spans="1:10" ht="18">
       <c r="A322" s="35"/>
       <c r="B322" s="37"/>
-      <c r="C322" s="29" t="s">
-        <v>246</v>
+      <c r="C322" s="28" t="s">
+        <v>234</v>
       </c>
       <c r="D322" s="12"/>
       <c r="E322" s="12"/>
       <c r="F322" s="12"/>
       <c r="G322" s="12"/>
-      <c r="H322" s="12"/>
+      <c r="H322" s="12" t="s">
+        <v>8</v>
+      </c>
       <c r="I322" s="15"/>
       <c r="J322" s="15"/>
     </row>
@@ -6925,15 +6991,15 @@
       <c r="A323" s="35"/>
       <c r="B323" s="37"/>
       <c r="C323" s="28" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
       <c r="D323" s="12"/>
       <c r="E323" s="12"/>
       <c r="F323" s="12"/>
-      <c r="G323" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="H323" s="12"/>
+      <c r="G323" s="12"/>
+      <c r="H323" s="12" t="s">
+        <v>8</v>
+      </c>
       <c r="I323" s="15"/>
       <c r="J323" s="15"/>
     </row>
@@ -6941,29 +7007,31 @@
       <c r="A324" s="35"/>
       <c r="B324" s="37"/>
       <c r="C324" s="28" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="D324" s="12"/>
       <c r="E324" s="12"/>
       <c r="F324" s="12"/>
-      <c r="G324" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="H324" s="12"/>
+      <c r="G324" s="12"/>
+      <c r="H324" s="12" t="s">
+        <v>8</v>
+      </c>
       <c r="I324" s="15"/>
       <c r="J324" s="15"/>
     </row>
     <row r="325" spans="1:10" ht="18">
       <c r="A325" s="35"/>
       <c r="B325" s="37"/>
-      <c r="C325" s="29" t="s">
-        <v>249</v>
+      <c r="C325" s="28" t="s">
+        <v>237</v>
       </c>
       <c r="D325" s="12"/>
       <c r="E325" s="12"/>
       <c r="F325" s="12"/>
       <c r="G325" s="12"/>
-      <c r="H325" s="12"/>
+      <c r="H325" s="12" t="s">
+        <v>8</v>
+      </c>
       <c r="I325" s="15"/>
       <c r="J325" s="15"/>
     </row>
@@ -6971,15 +7039,15 @@
       <c r="A326" s="35"/>
       <c r="B326" s="37"/>
       <c r="C326" s="28" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c r="D326" s="12"/>
-      <c r="E326" s="12" t="s">
-        <v>8</v>
-      </c>
+      <c r="E326" s="12"/>
       <c r="F326" s="12"/>
       <c r="G326" s="12"/>
-      <c r="H326" s="12"/>
+      <c r="H326" s="12" t="s">
+        <v>8</v>
+      </c>
       <c r="I326" s="15"/>
       <c r="J326" s="15"/>
     </row>
@@ -6987,14 +7055,16 @@
       <c r="A327" s="35"/>
       <c r="B327" s="37"/>
       <c r="C327" s="28" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="D327" s="12" t="s">
         <v>8</v>
       </c>
       <c r="E327" s="12"/>
       <c r="F327" s="12"/>
-      <c r="G327" s="12"/>
+      <c r="G327" s="12" t="s">
+        <v>8</v>
+      </c>
       <c r="H327" s="12"/>
       <c r="I327" s="15"/>
       <c r="J327" s="15"/>
@@ -7003,14 +7073,16 @@
       <c r="A328" s="35"/>
       <c r="B328" s="37"/>
       <c r="C328" s="28" t="s">
-        <v>251</v>
+        <v>97</v>
       </c>
       <c r="D328" s="12" t="s">
         <v>8</v>
       </c>
       <c r="E328" s="12"/>
       <c r="F328" s="12"/>
-      <c r="G328" s="12"/>
+      <c r="G328" s="12" t="s">
+        <v>8</v>
+      </c>
       <c r="H328" s="12"/>
       <c r="I328" s="15"/>
       <c r="J328" s="15"/>
@@ -7018,12 +7090,10 @@
     <row r="329" spans="1:10" ht="18">
       <c r="A329" s="35"/>
       <c r="B329" s="37"/>
-      <c r="C329" s="28" t="s">
-        <v>252</v>
-      </c>
-      <c r="D329" s="12" t="s">
-        <v>8</v>
-      </c>
+      <c r="C329" s="29" t="s">
+        <v>240</v>
+      </c>
+      <c r="D329" s="12"/>
       <c r="E329" s="12"/>
       <c r="F329" s="12"/>
       <c r="G329" s="12"/>
@@ -7035,308 +7105,560 @@
       <c r="A330" s="35"/>
       <c r="B330" s="37"/>
       <c r="C330" s="28" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="D330" s="12"/>
-      <c r="E330" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F330" s="12"/>
+      <c r="E330" s="12"/>
+      <c r="F330" s="12" t="s">
+        <v>8</v>
+      </c>
       <c r="G330" s="12"/>
       <c r="H330" s="12"/>
       <c r="I330" s="15"/>
       <c r="J330" s="15"/>
     </row>
-    <row r="331" spans="1:10" ht="18" customHeight="1">
-      <c r="A331" s="34">
-        <v>6</v>
-      </c>
-      <c r="B331" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="C331" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="D331" s="30"/>
-      <c r="E331" s="30"/>
-      <c r="F331" s="30"/>
-      <c r="G331" s="30"/>
-      <c r="H331" s="30"/>
+    <row r="331" spans="1:10" ht="18">
+      <c r="A331" s="35"/>
+      <c r="B331" s="37"/>
+      <c r="C331" s="28" t="s">
+        <v>242</v>
+      </c>
+      <c r="D331" s="12"/>
+      <c r="E331" s="12"/>
+      <c r="F331" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="G331" s="12"/>
+      <c r="H331" s="12"/>
       <c r="I331" s="15"/>
       <c r="J331" s="15"/>
     </row>
     <row r="332" spans="1:10" ht="18">
       <c r="A332" s="35"/>
-      <c r="B332" s="32"/>
-      <c r="C332" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="D332" s="30"/>
-      <c r="E332" s="30"/>
-      <c r="F332" s="30"/>
-      <c r="G332" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="H332" s="30"/>
+      <c r="B332" s="37"/>
+      <c r="C332" s="28" t="s">
+        <v>243</v>
+      </c>
+      <c r="D332" s="12"/>
+      <c r="E332" s="12"/>
+      <c r="F332" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="G332" s="12"/>
+      <c r="H332" s="12"/>
       <c r="I332" s="15"/>
       <c r="J332" s="15"/>
     </row>
     <row r="333" spans="1:10" ht="18">
       <c r="A333" s="35"/>
-      <c r="B333" s="32"/>
-      <c r="C333" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="D333" s="30"/>
-      <c r="E333" s="30"/>
-      <c r="F333" s="30"/>
-      <c r="G333" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="H333" s="30"/>
+      <c r="B333" s="37"/>
+      <c r="C333" s="28" t="s">
+        <v>258</v>
+      </c>
+      <c r="D333" s="12"/>
+      <c r="E333" s="12"/>
+      <c r="F333" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="G333" s="12"/>
+      <c r="H333" s="12"/>
       <c r="I333" s="15"/>
       <c r="J333" s="15"/>
     </row>
     <row r="334" spans="1:10" ht="18">
       <c r="A334" s="35"/>
-      <c r="B334" s="32"/>
-      <c r="C334" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="D334" s="30"/>
-      <c r="E334" s="30"/>
-      <c r="F334" s="30"/>
-      <c r="G334" s="30"/>
-      <c r="H334" s="30"/>
+      <c r="B334" s="37"/>
+      <c r="C334" s="28" t="s">
+        <v>260</v>
+      </c>
+      <c r="D334" s="12"/>
+      <c r="E334" s="12"/>
+      <c r="F334" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="G334" s="12"/>
+      <c r="H334" s="12"/>
       <c r="I334" s="15"/>
       <c r="J334" s="15"/>
     </row>
     <row r="335" spans="1:10" ht="18">
       <c r="A335" s="35"/>
-      <c r="B335" s="32"/>
-      <c r="C335" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="D335" s="30"/>
-      <c r="E335" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="F335" s="30"/>
-      <c r="G335" s="30"/>
-      <c r="H335" s="30"/>
+      <c r="B335" s="37"/>
+      <c r="C335" s="28" t="s">
+        <v>259</v>
+      </c>
+      <c r="D335" s="12"/>
+      <c r="E335" s="12"/>
+      <c r="F335" s="12"/>
+      <c r="G335" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="H335" s="12"/>
       <c r="I335" s="15"/>
       <c r="J335" s="15"/>
     </row>
     <row r="336" spans="1:10" ht="18">
       <c r="A336" s="35"/>
-      <c r="B336" s="32"/>
-      <c r="C336" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="D336" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="E336" s="30"/>
-      <c r="F336" s="30"/>
-      <c r="G336" s="30"/>
-      <c r="H336" s="30"/>
+      <c r="B336" s="37"/>
+      <c r="C336" s="28" t="s">
+        <v>244</v>
+      </c>
+      <c r="D336" s="12"/>
+      <c r="E336" s="12"/>
+      <c r="F336" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="G336" s="12"/>
+      <c r="H336" s="12"/>
       <c r="I336" s="15"/>
       <c r="J336" s="15"/>
     </row>
     <row r="337" spans="1:10" ht="18">
       <c r="A337" s="35"/>
-      <c r="B337" s="32"/>
-      <c r="C337" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="D337" s="30"/>
-      <c r="E337" s="30"/>
-      <c r="F337" s="30"/>
-      <c r="G337" s="30"/>
-      <c r="H337" s="30" t="s">
-        <v>8</v>
-      </c>
+      <c r="B337" s="37"/>
+      <c r="C337" s="28" t="s">
+        <v>245</v>
+      </c>
+      <c r="D337" s="12"/>
+      <c r="E337" s="12"/>
+      <c r="F337" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="G337" s="12"/>
+      <c r="H337" s="12"/>
       <c r="I337" s="15"/>
       <c r="J337" s="15"/>
     </row>
     <row r="338" spans="1:10" ht="18">
       <c r="A338" s="35"/>
-      <c r="B338" s="32"/>
-      <c r="C338" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="D338" s="30"/>
-      <c r="E338" s="30"/>
-      <c r="F338" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="G338" s="30"/>
-      <c r="H338" s="30"/>
+      <c r="B338" s="37"/>
+      <c r="C338" s="29" t="s">
+        <v>246</v>
+      </c>
+      <c r="D338" s="12"/>
+      <c r="E338" s="12"/>
+      <c r="F338" s="12"/>
+      <c r="G338" s="12"/>
+      <c r="H338" s="12"/>
       <c r="I338" s="15"/>
       <c r="J338" s="15"/>
     </row>
     <row r="339" spans="1:10" ht="18">
       <c r="A339" s="35"/>
-      <c r="B339" s="32"/>
-      <c r="C339" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="D339" s="30"/>
-      <c r="E339" s="30"/>
-      <c r="F339" s="30"/>
-      <c r="G339" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="H339" s="30"/>
+      <c r="B339" s="37"/>
+      <c r="C339" s="28" t="s">
+        <v>248</v>
+      </c>
+      <c r="D339" s="12"/>
+      <c r="E339" s="12"/>
+      <c r="F339" s="12"/>
+      <c r="G339" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="H339" s="12"/>
       <c r="I339" s="15"/>
       <c r="J339" s="15"/>
     </row>
     <row r="340" spans="1:10" ht="18">
       <c r="A340" s="35"/>
-      <c r="B340" s="32"/>
-      <c r="C340" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="D340" s="30"/>
-      <c r="E340" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="F340" s="30"/>
-      <c r="G340" s="30"/>
-      <c r="H340" s="30"/>
+      <c r="B340" s="37"/>
+      <c r="C340" s="28" t="s">
+        <v>247</v>
+      </c>
+      <c r="D340" s="12"/>
+      <c r="E340" s="12"/>
+      <c r="F340" s="12"/>
+      <c r="G340" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="H340" s="12"/>
       <c r="I340" s="15"/>
       <c r="J340" s="15"/>
     </row>
     <row r="341" spans="1:10" ht="18">
-      <c r="A341" s="36"/>
-      <c r="B341" s="33"/>
-      <c r="C341" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="D341" s="30"/>
-      <c r="E341" s="30"/>
-      <c r="F341" s="30"/>
-      <c r="G341" s="30"/>
-      <c r="H341" s="30"/>
+      <c r="A341" s="35"/>
+      <c r="B341" s="37"/>
+      <c r="C341" s="29" t="s">
+        <v>249</v>
+      </c>
+      <c r="D341" s="12"/>
+      <c r="E341" s="12"/>
+      <c r="F341" s="12"/>
+      <c r="G341" s="12"/>
+      <c r="H341" s="12"/>
       <c r="I341" s="15"/>
       <c r="J341" s="15"/>
     </row>
-    <row r="342" spans="1:10">
-      <c r="D342" s="2"/>
-      <c r="E342" s="2"/>
-      <c r="F342" s="2"/>
-      <c r="G342" s="2"/>
-      <c r="H342" s="2"/>
-      <c r="J342" s="2"/>
-    </row>
-    <row r="343" spans="1:10">
-      <c r="D343" s="2"/>
-      <c r="E343" s="2"/>
-      <c r="F343" s="2"/>
-      <c r="G343" s="2"/>
-      <c r="H343" s="2"/>
-      <c r="J343" s="2"/>
-    </row>
-    <row r="344" spans="1:10">
-      <c r="D344" s="2"/>
-    </row>
-    <row r="345" spans="1:10">
-      <c r="D345" s="2"/>
-    </row>
-    <row r="346" spans="1:10">
-      <c r="A346" s="3" t="s">
+    <row r="342" spans="1:10" ht="18">
+      <c r="A342" s="35"/>
+      <c r="B342" s="37"/>
+      <c r="C342" s="28" t="s">
+        <v>254</v>
+      </c>
+      <c r="D342" s="12"/>
+      <c r="E342" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F342" s="12"/>
+      <c r="G342" s="12"/>
+      <c r="H342" s="12"/>
+      <c r="I342" s="15"/>
+      <c r="J342" s="15"/>
+    </row>
+    <row r="343" spans="1:10" ht="18">
+      <c r="A343" s="35"/>
+      <c r="B343" s="37"/>
+      <c r="C343" s="28" t="s">
+        <v>250</v>
+      </c>
+      <c r="D343" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E343" s="12"/>
+      <c r="F343" s="12"/>
+      <c r="G343" s="12"/>
+      <c r="H343" s="12"/>
+      <c r="I343" s="15"/>
+      <c r="J343" s="15"/>
+    </row>
+    <row r="344" spans="1:10" ht="18">
+      <c r="A344" s="35"/>
+      <c r="B344" s="37"/>
+      <c r="C344" s="28" t="s">
+        <v>251</v>
+      </c>
+      <c r="D344" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E344" s="12"/>
+      <c r="F344" s="12"/>
+      <c r="G344" s="12"/>
+      <c r="H344" s="12"/>
+      <c r="I344" s="15"/>
+      <c r="J344" s="15"/>
+    </row>
+    <row r="345" spans="1:10" ht="18">
+      <c r="A345" s="35"/>
+      <c r="B345" s="37"/>
+      <c r="C345" s="28" t="s">
+        <v>252</v>
+      </c>
+      <c r="D345" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E345" s="12"/>
+      <c r="F345" s="12"/>
+      <c r="G345" s="12"/>
+      <c r="H345" s="12"/>
+      <c r="I345" s="15"/>
+      <c r="J345" s="15"/>
+    </row>
+    <row r="346" spans="1:10" ht="18">
+      <c r="A346" s="35"/>
+      <c r="B346" s="37"/>
+      <c r="C346" s="28" t="s">
+        <v>253</v>
+      </c>
+      <c r="D346" s="12"/>
+      <c r="E346" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F346" s="12"/>
+      <c r="G346" s="12"/>
+      <c r="H346" s="12"/>
+      <c r="I346" s="15"/>
+      <c r="J346" s="15"/>
+    </row>
+    <row r="347" spans="1:10" ht="18" customHeight="1">
+      <c r="A347" s="34">
+        <v>6</v>
+      </c>
+      <c r="B347" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="C347" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D347" s="30"/>
+      <c r="E347" s="30"/>
+      <c r="F347" s="30"/>
+      <c r="G347" s="30"/>
+      <c r="H347" s="30"/>
+      <c r="I347" s="15"/>
+      <c r="J347" s="15"/>
+    </row>
+    <row r="348" spans="1:10" ht="18">
+      <c r="A348" s="35"/>
+      <c r="B348" s="32"/>
+      <c r="C348" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="D348" s="30"/>
+      <c r="E348" s="30"/>
+      <c r="F348" s="30"/>
+      <c r="G348" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="H348" s="30"/>
+      <c r="I348" s="15"/>
+      <c r="J348" s="15"/>
+    </row>
+    <row r="349" spans="1:10" ht="18">
+      <c r="A349" s="35"/>
+      <c r="B349" s="32"/>
+      <c r="C349" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="D349" s="30"/>
+      <c r="E349" s="30"/>
+      <c r="F349" s="30"/>
+      <c r="G349" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="H349" s="30"/>
+      <c r="I349" s="15"/>
+      <c r="J349" s="15"/>
+    </row>
+    <row r="350" spans="1:10" ht="18">
+      <c r="A350" s="35"/>
+      <c r="B350" s="32"/>
+      <c r="C350" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="D350" s="30"/>
+      <c r="E350" s="30"/>
+      <c r="F350" s="30"/>
+      <c r="G350" s="30"/>
+      <c r="H350" s="30"/>
+      <c r="I350" s="15"/>
+      <c r="J350" s="15"/>
+    </row>
+    <row r="351" spans="1:10" ht="18">
+      <c r="A351" s="35"/>
+      <c r="B351" s="32"/>
+      <c r="C351" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="D351" s="30"/>
+      <c r="E351" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="F351" s="30"/>
+      <c r="G351" s="30"/>
+      <c r="H351" s="30"/>
+      <c r="I351" s="15"/>
+      <c r="J351" s="15"/>
+    </row>
+    <row r="352" spans="1:10" ht="18">
+      <c r="A352" s="35"/>
+      <c r="B352" s="32"/>
+      <c r="C352" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="D352" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="E352" s="30"/>
+      <c r="F352" s="30"/>
+      <c r="G352" s="30"/>
+      <c r="H352" s="30"/>
+      <c r="I352" s="15"/>
+      <c r="J352" s="15"/>
+    </row>
+    <row r="353" spans="1:10" ht="18">
+      <c r="A353" s="35"/>
+      <c r="B353" s="32"/>
+      <c r="C353" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="D353" s="30"/>
+      <c r="E353" s="30"/>
+      <c r="F353" s="30"/>
+      <c r="G353" s="30"/>
+      <c r="H353" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="I353" s="15"/>
+      <c r="J353" s="15"/>
+    </row>
+    <row r="354" spans="1:10" ht="18">
+      <c r="A354" s="35"/>
+      <c r="B354" s="32"/>
+      <c r="C354" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="D354" s="30"/>
+      <c r="E354" s="30"/>
+      <c r="F354" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="G354" s="30"/>
+      <c r="H354" s="30"/>
+      <c r="I354" s="15"/>
+      <c r="J354" s="15"/>
+    </row>
+    <row r="355" spans="1:10" ht="18">
+      <c r="A355" s="35"/>
+      <c r="B355" s="32"/>
+      <c r="C355" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="D355" s="30"/>
+      <c r="E355" s="30"/>
+      <c r="F355" s="30"/>
+      <c r="G355" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="H355" s="30"/>
+      <c r="I355" s="15"/>
+      <c r="J355" s="15"/>
+    </row>
+    <row r="356" spans="1:10" ht="18">
+      <c r="A356" s="35"/>
+      <c r="B356" s="32"/>
+      <c r="C356" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="D356" s="30"/>
+      <c r="E356" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="F356" s="30"/>
+      <c r="G356" s="30"/>
+      <c r="H356" s="30"/>
+      <c r="I356" s="15"/>
+      <c r="J356" s="15"/>
+    </row>
+    <row r="357" spans="1:10" ht="18">
+      <c r="A357" s="36"/>
+      <c r="B357" s="33"/>
+      <c r="C357" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="D357" s="30"/>
+      <c r="E357" s="30"/>
+      <c r="F357" s="30"/>
+      <c r="G357" s="30"/>
+      <c r="H357" s="30"/>
+      <c r="I357" s="15"/>
+      <c r="J357" s="15"/>
+    </row>
+    <row r="358" spans="1:10">
+      <c r="D358" s="2"/>
+      <c r="E358" s="2"/>
+      <c r="F358" s="2"/>
+      <c r="G358" s="2"/>
+      <c r="H358" s="2"/>
+      <c r="J358" s="2"/>
+    </row>
+    <row r="359" spans="1:10">
+      <c r="D359" s="2"/>
+      <c r="E359" s="2"/>
+      <c r="F359" s="2"/>
+      <c r="G359" s="2"/>
+      <c r="H359" s="2"/>
+      <c r="J359" s="2"/>
+    </row>
+    <row r="360" spans="1:10">
+      <c r="D360" s="2"/>
+    </row>
+    <row r="361" spans="1:10">
+      <c r="D361" s="2"/>
+    </row>
+    <row r="362" spans="1:10">
+      <c r="A362" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B346" s="2"/>
-      <c r="C346" s="1"/>
-      <c r="D346" s="2"/>
-    </row>
-    <row r="347" spans="1:10">
-      <c r="A347" s="7" t="s">
+      <c r="B362" s="2"/>
+      <c r="C362" s="1"/>
+      <c r="D362" s="2"/>
+    </row>
+    <row r="363" spans="1:10">
+      <c r="A363" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B347" s="7" t="s">
+      <c r="B363" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C347" s="8" t="s">
+      <c r="C363" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="D347" s="2"/>
-    </row>
-    <row r="348" spans="1:10" ht="60">
-      <c r="A348" s="5">
+      <c r="D363" s="2"/>
+    </row>
+    <row r="364" spans="1:10" ht="60">
+      <c r="A364" s="5">
         <v>1</v>
       </c>
-      <c r="B348" s="4" t="s">
+      <c r="B364" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C348" s="5">
+      <c r="C364" s="5">
         <v>1</v>
       </c>
-      <c r="D348" s="2"/>
-    </row>
-    <row r="349" spans="1:10" ht="30">
-      <c r="A349" s="6">
+      <c r="D364" s="2"/>
+    </row>
+    <row r="365" spans="1:10" ht="30">
+      <c r="A365" s="6">
         <v>2</v>
       </c>
-      <c r="B349" s="4" t="s">
+      <c r="B365" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C349" s="6">
+      <c r="C365" s="6">
         <v>2</v>
       </c>
-      <c r="D349" s="2"/>
-    </row>
-    <row r="350" spans="1:10" ht="30">
-      <c r="A350" s="6">
+      <c r="D365" s="2"/>
+    </row>
+    <row r="366" spans="1:10" ht="30">
+      <c r="A366" s="6">
         <v>3</v>
       </c>
-      <c r="B350" s="4" t="s">
+      <c r="B366" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C350" s="6">
+      <c r="C366" s="6">
         <v>3</v>
       </c>
-      <c r="D350" s="2"/>
-    </row>
-    <row r="351" spans="1:10" ht="30">
-      <c r="A351" s="6">
+      <c r="D366" s="2"/>
+    </row>
+    <row r="367" spans="1:10" ht="30">
+      <c r="A367" s="6">
         <v>4</v>
       </c>
-      <c r="B351" s="4" t="s">
+      <c r="B367" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C351" s="6">
+      <c r="C367" s="6">
         <v>4</v>
       </c>
-      <c r="D351" s="2"/>
-    </row>
-    <row r="352" spans="1:10" ht="30">
-      <c r="A352" s="6">
+      <c r="D367" s="2"/>
+    </row>
+    <row r="368" spans="1:10" ht="30">
+      <c r="A368" s="6">
         <v>5</v>
       </c>
-      <c r="B352" s="4" t="s">
+      <c r="B368" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C352" s="6">
+      <c r="C368" s="6">
         <v>5</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="B331:B341"/>
-    <mergeCell ref="A331:A341"/>
+    <mergeCell ref="B347:B357"/>
+    <mergeCell ref="A347:A357"/>
     <mergeCell ref="B3:B6"/>
-    <mergeCell ref="B7:B115"/>
-    <mergeCell ref="A7:A115"/>
+    <mergeCell ref="B7:B123"/>
+    <mergeCell ref="A7:A123"/>
     <mergeCell ref="A3:A6"/>
-    <mergeCell ref="B194:B330"/>
-    <mergeCell ref="A194:A330"/>
-    <mergeCell ref="B117:B193"/>
-    <mergeCell ref="A117:A193"/>
+    <mergeCell ref="B202:B346"/>
+    <mergeCell ref="A202:A346"/>
+    <mergeCell ref="B125:B201"/>
+    <mergeCell ref="A125:A201"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D342:D349 D2:H341">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D358:D365 D2:H252 D253:H357">
       <formula1>"O, "</formula1>
     </dataValidation>
   </dataValidations>
